--- a/samples/SA-عينة-مطاعم-ومقاهي-preview.xlsx
+++ b/samples/SA-عينة-مطاعم-ومقاهي-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="417">
   <si>
     <t>URL</t>
   </si>
@@ -40,304 +40,7 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D9%8A%D8%B3+%D9%83%D9%88%D9%81%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15979b313e4f21d1:0xa596af8c54d30e93!8m2!3d24.9007483!4d40.5098996!16s%2Fg%2F11ll7d03yg!19sChIJ0SFPPjGblxURkw7TVIyvlqU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%8A+%D8%B4%D8%A8%D8%B1%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2efd1910e117ab:0x70a179df6d4bd647!8m2!3d24.7977069!4d46.708211!16s%2Fg%2F11t7l7h028!19sChIJqxfhEBn9Lj4RR9ZLbd95oXA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%85%D8%A8%D8%B1%D9%8A%D9%84%D8%A7+%D9%82%D9%87%D9%88%D8%A9+%D9%85%D8%AE%D8%AA%D8%B5%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e4851f80e87b1f:0x9116686ffcdfdee0!8m2!3d18.5207865!4d42.0589941!16s%2Fg%2F11pz4y3zmy!19sChIJH3vogB-F5BUR4N7f_G9oFpE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AE%D8%A7%D9%86%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2ee50f7d27b2f3:0xba69b4f4b96714dc!8m2!3d24.8125544!4d46.6018312!16s%2Fg%2F11q409f8fm!19sChIJ87InfQ_lLj4R3BRnufS0abo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D8%A7%D8%B1%D9%8A%D8%A9+%D9%83%D8%A7%D9%81%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15b907bbf8bdb23d:0x5a88e9f616f62292!8m2!3d24.0792372!4d38.036411!16s%2Fg%2F11kghvh7yk!19sChIJPbK9-LsHuRURkiL2FvbpiFo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%88%D8%AA%D9%83%D8%A7+ToTikka+%23%D8%AA%D8%B4%D9%83%D9%86_%D9%85%D9%84%D8%A7%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x157f57796c69a16d:0xed6fd27fb2b581d!8m2!3d26.4044158!4d43.935173!16s%2Fg%2F11tdp86rbz!19sChIJbaFpbHlXfxURHVgr-yf91g4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%8F%D8%B1%D8%A7%D8%AA%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15a6d7001465603f:0xa4494a736656790b!8m2!3d27.6157949!4d38.5513402!16s%2Fg%2F11vj_vbl5t!19sChIJP2BlFADXphURC3lWZnNKSaQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D8%A7%D9%81%D8%AA%D9%8A%D8%B1%D9%8A%D8%A7+%D8%A7%D9%84%D8%B4%D8%A8%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15c20365595e8b7f:0x58b4f6e4898e1167!8m2!3d21.4413361!4d39.8467229!16s%2Fg%2F11ggb89vz6!19sChIJf4teWWUDwhURZxGOieT2tFg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%88%D9%85%D9%8A%D9%86%D9%88%D8%B2+%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e49fb740e13b417:0x3c0953e29e435756!8m2!3d26.4350295!4d50.1172971!16s%2Fg%2F11bw3c9840!19sChIJF7QTDnT7ST4RVldDnuJTCTw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Blue+berry+cafe+%D8%A8%D9%84%D9%88+%D8%A8%D9%8A%D8%B1%D9%8A+%D9%83%D8%A7%D9%81%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15fd5319851f3959:0x1b7c77f27f31ec48!8m2!3d17.1596622!4d42.6285476!16s%2Fg%2F11lt2fhdbt!19sChIJWTkfhRlT_RURSOwxf_J3fBs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%B1%D8%A7%D9%88%D9%86+%D9%87%D8%A7%D8%B1%D8%AA+%D9%83%D8%A7%D9%81%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2ac7163c80a731:0xd132538bb6295dc4!8m2!3d25.9054006!4d45.3412149!16s%2Fg%2F11py9wjpjn!19sChIJMaeAPBbHKj4RxF0ptotTMtE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Zed+coffee/data=!4m7!3m6!1s0x15c3db3d6b769121:0x130cf4fea937a2b4!8m2!3d21.6291748!4d39.1352177!16s%2Fg%2F11s3bdtwfp!19sChIJIZF2az3bwxURtKI3qf70DBM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D9%86%D8%AF%D9%84%D9%8A%D8%A8+%D8%A7%D9%84%D8%AD%D8%AC%D8%A7%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x15a9ad873e5d47ab:0x858abe0d4e60d355!8m2!3d28.4079838!4d36.5778972!16s%2Fg%2F11ghdjnwl5!19sChIJq0ddPoetqRURVdNgTg2-ioU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D9%88%D9%84+%D9%88%D8%B9%D8%B1%D9%8A%D9%83%D8%A9+%D9%88%D9%83%D8%A8%D8%B3%D8%A9+%D8%A7%D9%84%D8%B7%D8%A8%D8%A7%D8%AE+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15bdbfdb958d4e51:0x16eebc8f16960a35!8m2!3d24.4560517!4d39.6441057!16s%2Fg%2F11q505rjb2!19sChIJUU6Nldu_vRURNQqWFo-87hY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%A8%D8%AE+%D9%81%D9%88%D8%B2+%D8%AA%D8%A8%D9%88%D9%83%E2%80%AD/data=!4m7!3m6!1s0x15a9af6b46583c6f:0xb9221ce6a85ab3a8!8m2!3d28.3771866!4d36.5172572!16s%2Fg%2F11v75lv0_f!19sChIJbzxYRmuvqRURqLNaqOYcIrk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D9%84%D9%8A%D8%A7%D9%84%D9%8A+%D8%A7%D9%84%D8%AF%D9%8A%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e253f13c70dc64b:0xf9aabd9610ad912!8m2!3d23.9888134!4d47.1378313!16s%2Fg%2F11k3h5dzr1!19sChIJS8YNxxM_JT4REtkKYdmrmg8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D9%85%D8%B1%D8%A7%D9%83%D8%B4+%D8%A7%D9%84%D9%85%D8%BA%D8%B1%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49e811c74fa79d:0x9147fcc1c65b4fe!8m2!3d26.2861048!4d50.1872647!16s%2Fg%2F11cn9px8y9!19sChIJnadPxxHoST4R_rRlHMx_FAk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%86+%D8%AF%D9%82%D8%B1%D9%8A%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e49e941eb16d3e1:0xb01f7cb168813bf4!8m2!3d26.3303042!4d50.2127118!16s%2Fg%2F11h7c6t2bd!19sChIJ4dMW60HpST4R9DuBaLF8H7A?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%8A%D9%88%D8%A7%D9%86%D9%8A%D8%A9+%D8%A7%D9%84%D9%85%D8%B3%D8%A7%D9%81%D8%B1+%D9%84%D9%84%D9%82%D9%87%D9%88%D8%A9+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bd9bc34bb5d227:0xfd2571620f3024ad!8m2!3d24.5610096!4d39.7584979!16s%2Fg%2F11h7fns95g!19sChIJJ9K1S8ObvRURrSQwD2JxJf0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%B3%D8%A8+-+sip%E2%80%AD/data=!4m7!3m6!1s0x15c21a538c046c25:0x93ce88558982b0ea!8m2!3d21.4106371!4d39.7698939!16s%2Fg%2F11dftlsv81!19sChIJJWwEjFMawhUR6rCCiVWIzpM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D9%83%D8%A7%D8%B2+%D8%A7%D9%84%D8%A8%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15f28bafaa4df4db:0x548d17ec5c2e437d!8m2!3d21.2640812!4d42.8440454!16s%2Fg%2F11rxrys8q0!19sChIJ2_RNqq-L8hURfUMuXOwXjVQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%8A+%D8%A7%D9%84%D9%80%D9%80%D9%80%D9%80%D9%85%D8%B3%D8%A7%D8%B1+-+ALMASAR+TEA%E2%80%AD/data=!4m7!3m6!1s0x3e35fb4a623c79c9:0x61d1fc4f27e02236!8m2!3d26.6395192!4d49.9287188!16s%2Fg%2F11s92m7127!19sChIJyXk8Ykr7NT4RNiLgJ0_80WE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%88%D8%B1%D9%85%D8%A7+%D9%88%D8%B5%D9%88%D8%B5%E2%80%AD/data=!4m7!3m6!1s0x15bdbb176c5d6903:0xe13dbd349034d084!8m2!3d24.5246542!4d39.5691841!16s%2Fg%2F11v48rs459!19sChIJA2ldbBe7vRURhNA0kDS9PeE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%AF%D9%8A+%D8%A7%D9%84%D8%A8%D9%83%D9%8A%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1582180c162ddb0b:0x432fbfca19214566!8m2!3d26.1500627!4d43.6527386!16s%2Fg%2F11c3vrb8s5!19sChIJC9stFgwYghURZkUhGcq_L0M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Sabuddin+fast+food/data=!4m7!3m6!1s0x3e2ee3dd31494277:0x3dd1a58cad0896f4!8m2!3d24.7567422!4d46.664989!16s%2Fg%2F11h032dq15!19sChIJd0JJMd3jLj4R9JYIrYyl0T0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%AC%D8%A7%D9%86+%D9%88+%D8%B9%D8%AC%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3d9450ab9a5a7:0xf202e65c67ea1ae6!8m2!3d21.6930934!4d39.1053424!16s%2Fg%2F11h60sp3y6!19sChIJp6W5CkXZwxUR5hrqZ1zmAvI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D8%A7%D9%85%D8%A7+%D9%83%D8%A7%D9%81%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2540706ea35835:0x861cf52315547423!8m2!3d24.0069081!4d47.164603!16s%2Fg%2F11b60jfbrf!19sChIJNVijbnBAJT4RI3RUFSP1HIY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D8%A8%D8%B1%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x3e2ee40d0b6a61e3:0x344de60564b05025!8m2!3d24.8056667!4d46.6106866!16s%2Fg%2F11f_f0m01b!19sChIJ42FqCw3kLj4RJVCwZAXmTTQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D9%88%D9%85%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49e97a57693df3:0x3498566b61b9afb7!8m2!3d26.30706!4d50.2250122!16s%2Fg%2F11rq7sc1qy!19sChIJ8z1pV3rpST4Rt6-5YWtWmDQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%88%D8%B1%D9%8A%D9%82%E2%80%AD/data=!4m7!3m6!1s0x15bdc1498a670a7f:0xb032532b4a2f7a6b!8m2!3d24.4076057!4d39.6258022!16s%2Fg%2F11p661l9p2!19sChIJfwpniknBvRURa3ovSitTMrA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A8+%D9%88%D8%A7%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c21b656b3a5117:0x11165f408cb340d3!8m2!3d21.4400048!4d39.787296!16s%2Fg%2F11c6dff8vj!19sChIJF1E6a2UbwhUR00CzjEBfFhE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%B9%D8%B2%D9%8A%D8%B2+%D9%84%D9%84%D9%88%D8%AC%D8%A8%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D8%B1%D9%8A%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f0ff1666007b5:0xd185d4264988985c!8m2!3d24.5891049!4d46.6844879!16s%2Fg%2F11b75n9qhq!19sChIJtQdgZvEPLz4RXJiISSbUhdE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%8A%D8%A7%D9%86+%7C+Kyan%E2%80%8E%E2%80%AD/data=!4m7!3m6!1s0x15bd97f0581ab889:0x5b67165cd1a3dea4!8m2!3d24.5347971!4d39.690578!16s%2Fg%2F11ny22g9qp!19sChIJibgaWPCXvRURpN6j0VwWZ1s?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%85%D8%B3%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e2ee51704f11161:0xb52ca4c851c5fba8!8m2!3d24.823956!4d46.6029128!16s%2Fg%2F11rk5gkftw!19sChIJYRHxBBflLj4RqPvFUcikLLU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D8%B1%D8%AC%D8%A7%D9%86+%D8%A7%D9%84%D8%A7%D9%88%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e49ffb02eca48cf:0x6fcaedeadf6377ea!8m2!3d26.4618486!4d50.0643741!16s%2Fg%2F11s0jj58h8!19sChIJz0jKLrD_ST4R6ndj3-rtym8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D9%85%D8%B4%D9%88%D9%8A%D8%A7%D8%AA+%D8%AF%D8%A7%D9%86%D8%A7+%D8%A7%D9%84%D8%A8%D8%AE%D8%A7%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c204805a5ee629:0x94d5790148082ee8!8m2!3d21.4272502!4d39.8559121!16s%2Fg%2F11c37w9mjn!19sChIJKeZeWoAEwhUR6C4ISAF51ZQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%B5%D9%86%D8%B9%D8%A7%D8%A1+%D9%84%D9%84%D9%85%D8%A3%D9%83%D9%88%D9%84%D8%A7%D8%AA+%D8%A7%D9%84%D8%B4%D8%B9%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c20976a560f6b9:0x7f3010dd3ad1c68!8m2!3d21.2715286!4d39.9383713!16s%2Fg%2F11f6d7j273!19sChIJufZgpXYJwhURaByt0w0B8wc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D9%86%D9%88%D8%B1+%D8%AC%D8%A7%D9%87%D8%A7%D9%86%D9%A2%E2%80%AD/data=!4m7!3m6!1s0x3e3797be78125513:0x4a46e932a171b551!8m2!3d25.3758244!4d49.5847106!16s%2Fg%2F11h6m7w19p!19sChIJE1USeL6XNz4RUbVxoTLpRko?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A7%D9%83%D8%AF%D9%88%D9%86%D8%A7%D9%84%D8%AF%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x16080804f86c39fb:0x175787ce212bc99f!8m2!3d16.907363!4d42.544032!16s%2Fg%2F1hdz1r31m!19sChIJ-zls-AQICBYRn8krIc6HVxc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7+%D8%A7%D9%84%D8%AF%D8%A7%D9%86%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e25450000faf557:0x9d53486eb176bc94!8m2!3d24.1245949!4d47.2787497!16s%2Fg%2F11lcr8jzsl!19sChIJV_X6AABFJT4RlLx2sW5IU50?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%A8%D9%88+%D8%A7%D8%AD%D9%85%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15e9891ad0f69a55:0xb0aeaccccd7a09a9!8m2!3d21.2853231!4d40.4323087!16s%2Fg%2F11tslvclpx!19sChIJVZr20BqJ6RURqQl6zcysrrA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D9%86%D9%83%D9%87%D8%A9+%D8%A7%D9%84%D8%B4%D8%A7%D9%88%D8%B1%D9%85%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x1581ed37864338e7:0x2166ad8cf690ddc6!8m2!3d26.0780072!4d43.9754127!16s%2Fg%2F11jzwsx8_z!19sChIJ5zhDhjftgRURxt2Q9oytZiE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Popeyes/data=!4m7!3m6!1s0x15e989b46b9b419d:0x12edf8105de49e06!8m2!3d21.2768183!4d40.4464627!16s%2Fg%2F11svbly8cy!19sChIJnUGba7SJ6RURBp7kXRD47RI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%B1%D8%BA%D8%B1%D8%A7%D9%8A%D8%B2%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2f11d3f9904681:0x2a2ed7ecb1a79507!8m2!3d24.546073!4d46.665499!16s%2Fg%2F11hb2gshfn!19sChIJgUaQ-dMRLz4RB5WnsezXLio?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D8%AA%D9%88%D8%A8+%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7+stop+pizza%E2%80%AD/data=!4m7!3m6!1s0x15c3d1d8525b68e1:0xc76708c8fee73f9!8m2!3d21.5342133!4d39.2084221!16s%2Fg%2F11ggqr4dv4!19sChIJ4WhbUtjRwxUR-XPuj4xwdgw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AC%D8%B1%D9%88%D9%81%E2%80%AD/data=!4m7!3m6!1s0x1581ed7a3f5b0f73:0x6c825b53042c2f50!8m2!3d26.0736883!4d44.0052723!16s%2Fg%2F11rsh7h9xz!19sChIJcw9bP3rtgRURUC8sBFNbgmw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/TGI+Friday%27s/data=!4m7!3m6!1s0x15b91bb68d0ddd77:0xd6e77227fc9a2215!8m2!3d24.0118125!4d38.2079375!16s%2Fg%2F11f3tt15tt!19sChIJd90NjbYbuRURFSKa_Cdy59Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D9%83%D8%A8%D8%B3%D8%A9+%D8%A7%D9%84%D8%A8%D8%A7%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b91bb767b73379:0xb2739836610a7cc3!8m2!3d24.0084827!4d38.207368!16s%2Fg%2F11bwqpr9y5!19sChIJeTO3Z7cbuRURw3wKYTaYc7I?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%8A%D8%AA+%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3e2ee309fa2aabe1:0xe90de9c1f2352410!8m2!3d24.742!4d46.6486491!16s%2Fg%2F11h1f25ryx!19sChIJ4asq-gnjLj4RECQ18sHpDek?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%8A%D9%88%D8%A7%D9%86%D9%8A%D8%A9+%D8%A7%D9%84%D9%83%D9%88%D8%A7%D9%83%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3e2fa930eba1513d:0x3f346d04201fa63b!8m2!3d24.6964773!4d46.8438962!16s%2Fg%2F11h8bsgd39!19sChIJPVGh6zCpLz4RO6YfIARtND8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D9%83+%D8%A7%D9%84%D8%AF%D8%AC%D8%A7%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x15bdbfc430feb747:0xf8b0168994e8f6d9!8m2!3d24.473314!4d39.6094978!16s%2Fg%2F11h63ljmnw!19sChIJR7f-MMS_vRUR2fbolIkWsPg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D8%B1%D8%B6+%D8%A8%D9%84%D9%82%D9%8A%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x15bdc18ba53d2093:0x6f8a6ede9e6378d9!8m2!3d24.4312665!4d39.5795763!16s%2Fg%2F11sq142m71!19sChIJkyA9pYvBvRUR2Xhjnt5uim8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%88%D8%AC%D8%A7+%D9%81%D8%A7%D8%B3%D8%AA+%D9%81%D9%88%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x1607e3ea41dbee0f:0x9874594f2efe0660!8m2!3d16.8949298!4d42.5631808!16s%2Fg%2F11gx_q2xc8!19sChIJD-7bQerjBxYRYAb-Lk9ZdJg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%BA%D8%B1%D9%8A%D9%86%D8%B4%E2%80%AD/data=!4m7!3m6!1s0x3e2f05f9a5d90251:0xb9f5b2637697d519!8m2!3d24.6663929!4d46.6829795!16s%2Fg%2F11h0v8_181!19sChIJUQLZpfkFLz4RGdWXdmOy9bk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D9%88%D8%B1%D8%AF+%D9%84%D9%84%D9%85%D8%A3%D9%83%D9%88%D9%84%D8%A7%D8%AA+%D8%A7%D9%84%D9%87%D9%86%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x151007984965eaef:0x727745329f9b282!8m2!3d31.3323433!4d37.3448634!16s%2Fg%2F11fj5j0b83!19sChIJ7-plSZgHEBURgrL5KVN0Jwc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%A8%D8%AE+%D8%A7%D9%84%D8%AD%D8%B1%D9%85%D9%8A%D9%86+%D8%A7%D9%84%D9%86%D8%B2%D9%84%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15c3cf9fc0074541:0xaf228ffcd282add7!8m2!3d21.4590255!4d39.2098956!16s%2Fg%2F11y2260505!19sChIJQUUHwJ_PwxUR162C0vyPIq8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%B1%D8%BA%D8%B1%D8%A7%D9%8A%D8%B2%D8%B2%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2f05c97ac6cecd:0x6a90959cfa569728!8m2!3d24.6341875!4d46.6754375!16s%2Fg%2F11h1rvzg4p!19sChIJzc7GeskFLz4RKJdW-pyVkGo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D9%88%D8%B1%D9%85%D8%A7+%D8%B3%D9%81%D9%86+%D8%A5%D9%84%D9%81%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15b907542e5d305d:0xca476cc465168698!8m2!3d24.0817388!4d38.0535672!16s%2Fg%2F11s5ts53m3!19sChIJXTBdLlQHuRURmIYWZcRsR8o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D9%88%D8%B1%D8%AF%D8%A9+%D8%A7%D9%84%D8%AE%D8%A8%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e49e83a40549fe5:0x4b7d6e9ecb77b365!8m2!3d26.2873525!4d50.212669!16s%2Fg%2F11c20drfw9!19sChIJ5Z9UQDroST4RZbN3y55ufUs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%A7%D8%B1%D9%86%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e2f01f89dd58c51:0xf174d2054c8fa1bb!8m2!3d24.7559092!4d46.815417!16s%2Fg%2F11n864v4q5!19sChIJUYzVnfgBLz4Ru6GPTAXSdPE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%88%D9%81%D9%8A+%D9%86%D8%B3%D8%A7%D8%A6%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15fd53fa08c27a9f:0xc81fe4f5b07d6da9!8m2!3d17.1579626!4d42.6230049!16s%2Fg%2F11ny48ylp4!19sChIJn3rCCPpT_RURqW19sPXkH8g?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%B1%D9%88%D8%B3%D8%AA%D8%AF+%D8%A7%D9%84%D9%88%D8%AC%D8%A8%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f042b36ea131f:0x21cb644ec351912a!8m2!3d24.6551321!4d46.7445392!16s%2Fg%2F11c463ljlk!19sChIJHxPqNisELz4RKpFRw05kyyE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D9%81%D9%84%D9%8A%D9%87+%D8%B4%D9%87%D8%A7%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15e9f50904e699b5:0x7d6da8d4886bf321!8m2!3d21.3627757!4d40.2711924!16s%2Fg%2F11hbqznw0z!19sChIJtZnmBAn16RURIfNriNSobX0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%87%D8%A7%D9%81+%D9%85%D9%84%D9%8A%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2eff298a7a779f:0xd2bdbcca3252c15d!8m2!3d24.818518!4d46.7852741!16s%2Fg%2F11rmym84cf!19sChIJn3d6iin_Lj4RXcFSMsq8vdI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D9%87%D9%8A%D8%B5%D8%B1+Haysar+Cafe%E2%80%AD/data=!4m7!3m6!1s0x1607e39dc1b61d8f:0x98012a48d9e107d8!8m2!3d16.8987308!4d42.5717076!16s%2Fg%2F11n0h62k7g!19sChIJjx22wZ3jBxYR2Afh2UgqAZg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%82%D9%8A%D9%81%D8%A9+%D9%87%D8%A7%D8%B4%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c205be9aded63d:0x6d24bf4f3772f90e!8m2!3d21.3680215!4d39.8739066!16s%2Fg%2F11bzz0ptbk!19sChIJPdbemr4FwhURDvlyN0-_JG0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%B1%D9%88%D8%B3%D8%AA+%D8%A7%D9%84%D8%B1%D9%87%D9%8A%D8%A8+3%E2%80%AD/data=!4m7!3m6!1s0x15bdbf08c414334b:0x64e6492e5b61d6e!8m2!3d24.4715029!4d39.5943348!16s%2Fg%2F11f90_7m7q!19sChIJSzMUxAi_vRURbh225ZJkTgY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B9%D8%B5%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15f0c11bbfe2fc89:0x2f8a29b2b86f0d34!8m2!3d19.5266985!4d43.5196948!16s%2Fg%2F11sj916y0f!19sChIJifzivxvB8BURNA1vuLIpii8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D9%86%D9%83%D9%87%D8%A9+%D9%88%D9%84%D8%B0%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2fa11a834bbb5f:0xf3266accda654548!8m2!3d24.5687903!4d46.8388772!16s%2Fg%2F11fp882dmf!19sChIJX7tLgxqhLz4RSEVl2sxqJvM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D8%A7%D9%8A%D9%81%D8%A7%D9%86%D9%88%E2%80%AD/data=!4m7!3m6!1s0x3fd74100406e879f:0x38a14d7db8b6023a!8m2!3d28.4132753!4d45.9734986!16s%2Fg%2F11vq4kqnsn!19sChIJn4duQABB1z8ROgK2uH1NoTg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%A7%D8%B9%D9%85+%D8%A8%D9%88%D8%A7%D9%86+%D8%A7%D9%84%D8%A7%D8%B1%D8%B6%E2%80%AD/data=!4m7!3m6!1s0x3e49fb741255aa5d:0x69e819e16e4a46e8!8m2!3d26.4351251!4d50.1175265!16s%2Fg%2F11bzz3v8bl!19sChIJXapVEnT7ST4R6EZKbuEZ6Gk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D9%84%D8%AE%D9%84%D8%B7%D8%A9+%D8%A7%D9%84%D8%A3%D8%B3%D9%83%D9%86%D8%AF%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9ab8d2f6b72ad:0x2c857f4ad01f0320!8m2!3d28.350528!4d36.5267103!16s%2Fg%2F11v9f491jp!19sChIJrXJrL42rqRURIAMf0Ep_hSw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D9%84%D8%A8%D9%8A%D8%AA+%D8%A7%D9%84%D9%82%D8%B7%D9%8A%D9%81%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e4a01010a823dfb:0x51484f819a425e0a!8m2!3d26.5700877!4d50.0687364!16s%2Fg%2F11gkc3ndzh!19sChIJ-z2CCgEBSj4RCl5CmoFPSFE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%87%D8%A7%D9%81+%D9%85%D9%84%D9%8A%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3dbcb01521433:0x248e28a5330b1dce!8m2!3d21.5596549!4d39.1311728!16s%2Fg%2F11smfyg71v!19sChIJMxRSAcvbwxURzh0LM6UojiQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%8A%D9%85%D9%8A+%D8%A8%D8%B1%D8%AC%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15e98f430587eacd:0x6134c89ec1bb699a!8m2!3d21.2541988!4d40.4103314!16s%2Fg%2F11rq4tjch0!19sChIJzeqHBUOP6RURmmm7wZ7INGE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%81%D8%B7%D9%8A%D8%B1%D8%A9+%D8%A7%D9%84%D9%82%D8%B1%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c1f5bf6f048ea1:0xf4aa548974a0e2af!8m2!3d21.6150159!4d39.6924666!16s%2Fg%2F11v3mc32lm!19sChIJoY4Eb7_1wRURr-KgdIlUqvQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%8A%D9%88%D8%A7%D9%86%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D8%A7%D8%B5%D9%85%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2eff5001bbee6b:0x700ddb63eaf6d1a5!8m2!3d24.8132132!4d46.7974775!16s%2Fg%2F11tfs__grv!19sChIJa-67AVD_Lj4RpdH26mPbDXA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%AD%D9%84%D9%8A%D8%A8+%D9%88%D8%B2%D8%B9%D9%81%D8%B1%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e35a1801c0f78c5:0x778917da3700d0d8!8m2!3d27.0214382!4d49.6431313!16s%2Fg%2F11sqxb1r6k!19sChIJxXgPHIChNT4R2NAAN9oXiXc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/The+Olive+%26+Chilli+%D8%A7%D9%84%D9%81%D9%84%D9%81%D9%84+%D9%88%D8%A7%D9%84%D8%B2%D9%8A%D8%AA%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15bdbf73dc24daf9:0x4e6780873aa52716!8m2!3d24.4501262!4d39.6148191!16s%2Fg%2F11h5rd73b_!19sChIJ-dok3HO_vRURFielOoeAZ04?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D9%88%D9%86%D8%A7%D9%84%D8%AF%D9%88%D8%B2+%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e49fba36dd69e95:0xacbcd4fa3871754f!8m2!3d26.3763289!4d50.1229901!16s%2Fg%2F11r9bgm6__!19sChIJlZ7WbaP7ST4RT3VxOPrUvKw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Lorenzo+Pizza+%7C+%D9%84%D9%88%D8%B1%D9%8A%D9%86%D8%B2%D9%88+%D8%A8%D9%8A%D8%AA%D8%B2%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2545b92728457d:0x98f968874c77c234!8m2!3d24.1283117!4d47.2651158!16s%2Fg%2F11tfbwjwlg!19sChIJfUUoJ7lFJT4RNMJ3TIdo-Zg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Wood+Pizza/data=!4m7!3m6!1s0x3e49e5177376cc15:0x76281196e1d2942e!8m2!3d26.3837129!4d50.1408951!16s%2Fg%2F11t8g7j9fm!19sChIJFcx2cxflST4RLpTS4ZYRKHY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89%E2%80%AD/data=!4m7!3m6!1s0x15a9ad3c3200ba47:0xfa82368cdcde61eb!8m2!3d28.39039!4d36.5908044!16s%2Fg%2F11gf5wfq1_!19sChIJR7oAMjytqRUR62He3Iw2gvo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D9%85%D8%B0%D8%A7%D9%82+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbfa41760e5f7:0xc5f4d931df7d2ad8!8m2!3d24.4650804!4d39.6082781!16s%2Fg%2F11rkp7_c98!19sChIJ9-VgF6S_vRUR2Cp93zHZ9MU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Pizza+%26+Burger./data=!4m7!3m6!1s0x3e2f016e78746f1b:0xeca052f072b878a5!8m2!3d24.7261389!4d46.7623778!16s%2Fg%2F11b608csqn!19sChIJG290eG4BLz4RpXi4cvBSoOw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D9%88%D8%B1%D9%8A%D9%86%D8%B2%D9%88+Lorenzo%E2%80%AD/data=!4m7!3m6!1s0x15e98f854fcf2957:0xd8357d8142f89b8a!8m2!3d21.2373602!4d40.4108929!16s%2Fg%2F11vd9rtnmk!19sChIJVynPT4WP6RURipv4QoF9Ndg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D9%83%D9%87+%28%D9%81%D9%88%D8%AF+%D8%AA%D8%B1%D9%83%29%E2%80%AD/data=!4m7!3m6!1s0x15e51b63d1a91945:0x4c164e4e70af8a39!8m2!3d19.106413!4d41.9279561!16s%2Fg%2F11v1911f80!19sChIJRRmp0WMb5RUROYqvcE5OFkw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D9%88%D8%A7%D8%AD%D8%AF+%D9%85%D8%AD%D8%A8%D9%88%D9%83%E2%80%AD/data=!4m7!3m6!1s0x15b9a7f5ba68590f:0x44835361668862e2!8m2!3d24.1502051!4d37.9475823!16s%2Fg%2F11rjyvhbk2!19sChIJD1louvWnuRUR4mKIZmFTg0Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Subway/data=!4m7!3m6!1s0x15a9adbc671e2585:0x391c29ae271c6615!8m2!3d28.3893977!4d36.5578838!16s%2Fg%2F11h54g3g42!19sChIJhSUeZ7ytqRURFWYcJ64pHDk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%81%D9%88%D8%A7%D9%84+%D8%A7%D9%84%D9%85%D9%84%D9%83%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c21b6e782a4da1:0x62407017fd6263cd!8m2!3d21.4338263!4d39.787827!16s%2Fg%2F11cn9t9tgl!19sChIJoU0qeG4bwhURzWNi_RdwQGI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AF%D9%8A%D9%88%D8%A7%D9%86%D9%8A%D8%A9+%D8%B0%D8%B1%D9%88%D8%A9+%D8%A7%D9%84%D9%83%D9%8A%D9%81%E2%80%AD/data=!4m7!3m6!1s0x157f5995299636ed:0xc1a78e8022d8515f!8m2!3d26.3847947!4d43.9646931!16s%2Fg%2F11fx8b_v2k!19sChIJ7TaWKZVZfxURX1HYIoCOp8E?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%81%D8%AA%D9%8A%D8%B1%D9%8A%D8%A7+%D9%83%D9%88%D9%81%D9%89+%D9%85%D9%85%D9%84%D9%83%D8%A9+kafteriya+coffee+mamlaka%E2%80%AD/data=!4m7!3m6!1s0x15ec3f583f732e61:0x95ae10dc5b059e02!8m2!3d21.2283225!4d41.6474648!16s%2Fg%2F11vf2kqb2y!19sChIJYS5zP1g_7BURAp4FW9wQrpU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e2f1d0029f1c55b:0xb29aa91254e0d8f0!8m2!3d24.7282115!4d46.6703014!16s%2Fg%2F11y34f3trp!19sChIJW8XxKQAdLz4R8NjgVBKpmrI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%AE%D9%8A%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c3da6cd91655bb:0x743b549dcbaec4f0!8m2!3d21.6095822!4d39.1410604!16s%2Fg%2F1hc1wq7dk!19sChIJu1UW2WzawxUR8MSuy51UO3Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%A3%D9%83%D9%84%D8%A7%D8%AA+%D8%AC%D8%AF%D9%88%D8%AF%D9%86%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x157f575abef14bc5:0x362f4ade2a33a498!8m2!3d26.3706533!4d43.9238028!16s%2Fg%2F11fkn2t_xj!19sChIJxUvxvlpXfxURmKQzKt5KLzY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7+%D9%85%D9%8A%D9%84%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x157f5911cc17a7df:0x970c6efce4526f18!8m2!3d26.3660179!4d43.9546848!16s%2Fg%2F11smb2dx4f!19sChIJ36cXzBFZfxURGG9S5PxuDJc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%83%D9%8A%D9%85%D8%B3%D8%AA%D8%B1%D9%8A+%D9%83%D8%A7%D9%81%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c205123f0df807:0x4e324d6cf09935d9!8m2!3d21.3620288!4d39.8837359!16s%2Fg%2F11szc91r18!19sChIJB_gNPxIFwhUR2TWZ8GxNMk4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%88%D9%81%D9%8A%D8%A9+%D9%88+%D9%85%D8%B7%D8%A8%D9%82+%D8%A7%D9%84%D8%B4%D9%85%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15b9061c5ea268e1:0xe97a0a42225397ac!8m2!3d24.1009106!4d38.0495982!16s%2Fg%2F11bz08pbnh!19sChIJ4WiiXhwGuRURrJdTIkIKeuk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%84%D9%88%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x3e2ee5bb806830a3:0x362d646d4fcc5508!8m2!3d24.8108483!4d46.6032613!16s%2Fg%2F11q41ld450!19sChIJozBogLvlLj4RCFXMT21kLTY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B9%D8%B4+%D8%A7%D9%84%D8%A8%D9%84%D8%A8%D9%84+%D9%84%D9%84%D9%81%D8%B7%D8%A7%D8%A6%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15a9adc961f2c849:0xa668a32ad1b1c892!8m2!3d28.396585!4d36.5407294!16s%2Fg%2F11gcfcgdxw!19sChIJScjyYcmtqRURksix0SqjaKY?authuser=0&amp;hl=ar&amp;rclk=1</t>
+    <t>https://www.go...</t>
   </si>
   <si>
     <t>نايس كوفي</t>
@@ -346,7 +49,7 @@
     <t>شاي شبرا</t>
   </si>
   <si>
-    <t>امبريلا قهوة مختصة</t>
+    <t>امبريلا قهوة م...</t>
   </si>
   <si>
     <t>خانه</t>
@@ -355,22 +58,22 @@
     <t>سارية كافيه</t>
   </si>
   <si>
-    <t>توتكا ToTikka #تشكن_ملاي</t>
+    <t>توتكا ToTikka ...</t>
   </si>
   <si>
     <t>بُراتا</t>
   </si>
   <si>
-    <t>كافتيريا الشباب</t>
+    <t>كافتيريا الشبا...</t>
   </si>
   <si>
     <t>دومينوز بيتزا</t>
   </si>
   <si>
-    <t>Blue berry cafe بلو بيري كافيه</t>
-  </si>
-  <si>
-    <t>براون هارت كافية</t>
+    <t>Blue berry caf...</t>
+  </si>
+  <si>
+    <t>براون هارت كاف...</t>
   </si>
   <si>
     <t>Zed coffee</t>
@@ -379,22 +82,22 @@
     <t>عندليب الحجاز</t>
   </si>
   <si>
-    <t>فول وعريكة وكبسة الطباخ المديني</t>
+    <t>فول وعريكة وكب...</t>
   </si>
   <si>
     <t>مطبخ فوز تبوك</t>
   </si>
   <si>
-    <t>مطعم ليالي الديرة</t>
-  </si>
-  <si>
-    <t>مطعم مراكش المغربي</t>
+    <t>مطعم ليالي الد...</t>
+  </si>
+  <si>
+    <t>مطعم مراكش الم...</t>
   </si>
   <si>
     <t>تن دقريز</t>
   </si>
   <si>
-    <t>ديوانية المسافر للقهوة العربية</t>
+    <t>ديوانية المساف...</t>
   </si>
   <si>
     <t>مقهى سب - sip</t>
@@ -403,7 +106,7 @@
     <t>ركاز البن</t>
   </si>
   <si>
-    <t>شاي الــــمسار - ALMASAR TEA</t>
+    <t>شاي الــــمسار...</t>
   </si>
   <si>
     <t>شاورما وصوص</t>
@@ -412,7 +115,7 @@
     <t>مندي البكيرية</t>
   </si>
   <si>
-    <t>Sabuddin fast food</t>
+    <t>Sabuddin fast ...</t>
   </si>
   <si>
     <t>عجان و عجين</t>
@@ -433,7 +136,7 @@
     <t>صب واي</t>
   </si>
   <si>
-    <t>عبدالعزيز للوجبات السريعة</t>
+    <t>عبدالعزيز للوج...</t>
   </si>
   <si>
     <t>كيان | Kyan‎</t>
@@ -445,13 +148,13 @@
     <t>فرجان الاول</t>
   </si>
   <si>
-    <t>مطعم مشويات دانا البخاري</t>
-  </si>
-  <si>
-    <t>مطعم صنعاء للمأكولات الشعبية</t>
-  </si>
-  <si>
-    <t>مطعم نور جاهان٢</t>
+    <t>مطعم مشويات دا...</t>
+  </si>
+  <si>
+    <t>مطعم صنعاء للم...</t>
+  </si>
+  <si>
+    <t>مطعم نور جاهان...</t>
   </si>
   <si>
     <t>ماكدونالدز</t>
@@ -463,7 +166,7 @@
     <t>ابو احمد</t>
   </si>
   <si>
-    <t>مطعم نكهة الشاورما</t>
+    <t>مطعم نكهة الشا...</t>
   </si>
   <si>
     <t>Popeyes</t>
@@ -472,7 +175,7 @@
     <t>برغرايزر</t>
   </si>
   <si>
-    <t>ستوب بيتزا stop pizza</t>
+    <t>ستوب بيتزا sto...</t>
   </si>
   <si>
     <t>جروف</t>
@@ -481,19 +184,19 @@
     <t>TGI Friday's</t>
   </si>
   <si>
-    <t>مطعم كبسة البادية</t>
+    <t>مطعم كبسة البا...</t>
   </si>
   <si>
     <t>ايت اب</t>
   </si>
   <si>
-    <t>ديوانية الكواكب</t>
+    <t>ديوانية الكواك...</t>
   </si>
   <si>
     <t>ملك الدجاج</t>
   </si>
   <si>
-    <t>مطعم ارض بلقيس</t>
+    <t>مطعم ارض بلقيس...</t>
   </si>
   <si>
     <t>بوجا فاست فود</t>
@@ -502,19 +205,19 @@
     <t>غرينش</t>
   </si>
   <si>
-    <t>مطعم ورد للمأكولات الهندية</t>
-  </si>
-  <si>
-    <t>مطبخ الحرمين النزله</t>
+    <t>مطعم ورد للمأك...</t>
+  </si>
+  <si>
+    <t>مطبخ الحرمين ا...</t>
   </si>
   <si>
     <t>برغرايززر</t>
   </si>
   <si>
-    <t>شاورما سفن إلفن</t>
-  </si>
-  <si>
-    <t>مطعم وردة الخبر</t>
+    <t>شاورما سفن إلف...</t>
+  </si>
+  <si>
+    <t>مطعم وردة الخب...</t>
   </si>
   <si>
     <t>بارنز</t>
@@ -532,31 +235,31 @@
     <t>هاف مليون</t>
   </si>
   <si>
-    <t>مقهى هيصر Haysar Cafe</t>
+    <t>مقهى هيصر Hays...</t>
   </si>
   <si>
     <t>سقيفة هاشم</t>
   </si>
   <si>
-    <t>بروست الرهيب 3</t>
+    <t>بروست الرهيب 3...</t>
   </si>
   <si>
     <t>العصير</t>
   </si>
   <si>
-    <t>مطعم نكهة ولذة</t>
+    <t>مطعم نكهة ولذة...</t>
   </si>
   <si>
     <t>كايفانو</t>
   </si>
   <si>
-    <t>مطاعم بوان الارض</t>
-  </si>
-  <si>
-    <t>مطعم الخلطة الأسكندرية</t>
-  </si>
-  <si>
-    <t>مطعم البيت القطيفي</t>
+    <t>مطاعم بوان الا...</t>
+  </si>
+  <si>
+    <t>مطعم الخلطة ال...</t>
+  </si>
+  <si>
+    <t>مطعم البيت الق...</t>
   </si>
   <si>
     <t>يمي برجر</t>
@@ -565,19 +268,19 @@
     <t>فطيرة القريات</t>
   </si>
   <si>
-    <t>ديوانية العاصمة</t>
-  </si>
-  <si>
-    <t>مطعم حليب وزعفران</t>
-  </si>
-  <si>
-    <t>The Olive &amp; Chilli الفلفل والزيتون</t>
-  </si>
-  <si>
-    <t>رونالدوز بيتزا</t>
-  </si>
-  <si>
-    <t>Lorenzo Pizza | لورينزو بيتزا</t>
+    <t>ديوانية العاصم...</t>
+  </si>
+  <si>
+    <t>مطعم حليب وزعف...</t>
+  </si>
+  <si>
+    <t>The Olive &amp; Ch...</t>
+  </si>
+  <si>
+    <t>رونالدوز بيتزا...</t>
+  </si>
+  <si>
+    <t>Lorenzo Pizza ...</t>
   </si>
   <si>
     <t>Wood Pizza</t>
@@ -586,19 +289,19 @@
     <t>مقهى</t>
   </si>
   <si>
-    <t>مطعم مذاق العالية</t>
-  </si>
-  <si>
-    <t>Pizza &amp; Burger.</t>
-  </si>
-  <si>
-    <t>لورينزو Lorenzo</t>
-  </si>
-  <si>
-    <t>منكه (فود ترك)</t>
-  </si>
-  <si>
-    <t>مقهى واحد محبوك</t>
+    <t>مطعم مذاق العا...</t>
+  </si>
+  <si>
+    <t>Pizza &amp; Burger...</t>
+  </si>
+  <si>
+    <t>لورينزو Lorenz...</t>
+  </si>
+  <si>
+    <t>منكه (فود ترك)...</t>
+  </si>
+  <si>
+    <t>مقهى واحد محبو...</t>
   </si>
   <si>
     <t>Subway</t>
@@ -607,10 +310,10 @@
     <t>الفوال الملكي</t>
   </si>
   <si>
-    <t>ديوانية ذروة الكيف</t>
-  </si>
-  <si>
-    <t>كفتيريا كوفى مملكة kafteriya coffee mamlaka</t>
+    <t>ديوانية ذروة ا...</t>
+  </si>
+  <si>
+    <t>كفتيريا كوفى م...</t>
   </si>
   <si>
     <t>مطعم</t>
@@ -619,7 +322,7 @@
     <t>مطعم خيال</t>
   </si>
   <si>
-    <t>مطعم أكلات جدودنا</t>
+    <t>مطعم أكلات جدو...</t>
   </si>
   <si>
     <t>حلا ميلا</t>
@@ -628,28 +331,28 @@
     <t>كيمستري كافية</t>
   </si>
   <si>
-    <t>بوفية و مطبق الشمال</t>
+    <t>بوفية و مطبق ا...</t>
   </si>
   <si>
     <t>بلوب</t>
   </si>
   <si>
-    <t>عش البلبل للفطائر</t>
+    <t>عش البلبل للفط...</t>
   </si>
   <si>
     <t>كافيه</t>
   </si>
   <si>
-    <t>مقهى لشرب الشاي</t>
-  </si>
-  <si>
-    <t>مطعم وجبات سريعة</t>
+    <t>مقهى لشرب الشا...</t>
+  </si>
+  <si>
+    <t>مطعم وجبات سري...</t>
   </si>
   <si>
     <t>مطعم بيتزا</t>
   </si>
   <si>
-    <t>مطعم مأكولات مغربية</t>
+    <t>مطعم مأكولات م...</t>
   </si>
   <si>
     <t>مطعم شاورما</t>
@@ -664,22 +367,22 @@
     <t>مطعم دجاج</t>
   </si>
   <si>
-    <t>مطعم مأكولات أمريكية</t>
+    <t>مطعم مأكولات أ...</t>
   </si>
   <si>
     <t>مطعم للإفطار</t>
   </si>
   <si>
-    <t>مطعم مأكولات صحية</t>
+    <t>مطعم مأكولات ص...</t>
   </si>
   <si>
     <t>مقهى إسبرسو</t>
   </si>
   <si>
-    <t>مطعم مأكولات قارية</t>
-  </si>
-  <si>
-    <t>مطعم مأكولات الشرق الأوسط</t>
+    <t>مطعم مأكولات ق...</t>
+  </si>
+  <si>
+    <t>مطعم مأكولات ا...</t>
   </si>
   <si>
     <t>مطعم ببوفيه</t>
@@ -988,304 +691,301 @@
     <t>63</t>
   </si>
   <si>
-    <t>8030 الحناكية 42651 54321، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>RAFA3220، 3220 الشيخ عبدالله المخضوب، 7419، حي الفلاح، الرياض 13314، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>G3C5+8H9، طريق الملك عبدالعزيز، حي الحيلة الغربي، محايل عسير 63311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Aldahna stree, الملقا، الرياض 13524، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>بجوار خير بلادي، الصريف، حي، ينبع 46422، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QBWD7234، 7234 طريق أبو بكر الصديق،، 3947،، بريدة 52388، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JH82+8G8، تيماء 45911، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CRRW+GMQ حي, شارع الخنساء، المعابدة، مكة 24238، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5558 طريق الأمير محمد بن فهد بن عبدالعزيز، 7740، محمد بن سعود، الدمام 32241، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك فهد، صبيا 85454، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8236 طريق الملك عبدالله، المرقب، المجمعة 15391، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6787 طريق الامير سلطان، حي النعيم، جدة 23621 2973،، النعيم،، جدة 23621،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7189 الامير ممدوح بن عبدالعزيز، الورود, 3948، تبوك 47312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>خلف بنك الراجحي، الامير عبدالمجيد بن عبدالعزيز، الاسكان، المدينة المنورة 42317، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الصفا، تبوك 47918، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالله، العويمرية، الدلم 16323، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الملك عبدالله، الثقبة، Crowne Plaza، الخبر المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الروابي، الخبر 34421، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الرياض القديم، المدينة المنورة المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CQ69+7X2، 3815، الملك فهد، مكة 24341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7R7V+JJM، الأمير سلطان بن عبدالعزيز، رنية 29812، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6862, 5041, صفوى 32714، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GHF9+VM7، الزهرة، المدينة المنورة 42335، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزيز، البكيرية 52741، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QM47+MXX, الرمان، المروج, المروج، الرياض 12282، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>M4V4+64P حي، المرجان، جدة 23715، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2547+QR8, 5060، الدلم 16231، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق أنس ابن مالك، الملقا، الرياض 13524، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الكورنيش، الخبر 34413، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق قباء، شوران، المدينة المنورة 42383، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6090، 2580 طريق مكة جدة القديم، 6090 طريق مكة جدة القديم مكة 24222 6090، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HMQM+JQX، الشيخ محمد بن عبداللطيف بن عبدالرحمن، شبرا، الرياض 12793، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GMMR+WC، المطار، المدينة المنورة 42341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6552 احمد بن شبانة، القيروان، الرياض 13531 3521،، الرياض 13531، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الخليج، العزيزية،، العزيزية، الدمام 32424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6582 طریق المسجد الحرام، 4823، الروضة، 4823، مكة 24236، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7WCQ+J89، مكة 24585، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4347, 7634, Al Koot Al Naathil, Al Hufuf 4347, Saudi Arabia and المبرز 36361 4347، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الكورنيش، الشاطيء، جازان 82725، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8219 شارع جعفر بن أبي طالب، الخالدية، OKSA3614، 3614، الخرج 16271، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4013 شارع القمرية، حي الجال، TADC7371، 7371، الطائف 26523، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3XHG+653, شارع, البديعة، عنيزة 56241، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7CGW+PHG، شارع الخمسين، حي الجال، الطائف 26523، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Ed, طريق ديراب الفرعي، الحزم، الرياض 14964، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>فلسطين، بني مالك،، جدة المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الشيخ محمد بن عثيمين، الشفاء، عنيزة 56467، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2665+P5، الجابرية، ينبع 46455، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2654+9WX، الرحاب، رضوى، ينبع 46452، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الإمام سعود بن عبدالعزيز بن محمد، النخيل، al، الرياض 12381، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4745 بيعة العقبة، السعادة، الرياض 14258 8104، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7165 1st Ring Rd, بضاعة، 2747 King Faisal Rd, المدينة المنورة 42311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7229 طريق الهجرة الفرعي، القصواء، حي, 3319 Makkah Jeddah Express Branch Rd, المدينة المنورة 42391، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>جازان 82722، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الجوهري، Takhassusi St، الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>88JV+WWQ، الحميدية، القريات 77486،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي النزله، النزلة اليمانية، جدة 22334، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الفاخرية، الرياض 12737، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>عمر بن الخطاب، الزهور، ينبع 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>76P7+W3V، حي الخبر الشمالية، الخبر 34428، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>سلمان الفارسي، النهضة، الرياض 11564، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3433 طريق الملك فهد، العزيزية، صبيا 85297 7634، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الملز، 7731-7755 شارع زيد بن الخطاب، حي، الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>977C+4F8، 4244، الطائف 4244، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2937 طريق الدمام الفرعي، اليرموك، 8177, الرياض 13251، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق المطار، جازان 82722، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9V9F+6H3، بجوار مطعم القرموشي،، النسيم، مكة 24245، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3280، 6496 يحلى بن واضح، السيح، المدينة المنورة 42312 المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3826 شارع الامير سلطان بن عبدالعزيز، حي المدينة، AQJB7660، 7660، تثليث 69322، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>اسواق بن دايل، طريق الخرج، الاسكان، الرياض 11564، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CX7F+899، شارع جرير، البلدية، حفر الباطن 39913، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الشارع الأول، محمد بن سعود، Prince, الدمام 32243، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الامام تركي بن عبدالله، الصفا، تبوك 47917، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع حجر بن عدي، اليمامة، تاروت 32613، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2716-2604 روضة سدحه، الخالدية، جدة 23422، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شهار، 7317 شهار، الطائف 26513 2183،، شهار،، الطائف 26513، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8133 طريق الملك فيصل، النخيل، MJJA4923، 4923، الجموم 25341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>محمد علي جناح، اليرموك، الرياض 13251، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الملك فيصل الغربي، الجبيل البلد، الجبيل 35515، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>FJ27+3Q8، الجمعة، المدينة المنورة 42315، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2801 طريق الأمير محمد بن فهد بن عبدالعزيز، الفردوس، الدمام 34251، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الخزامى، 7155، الخزامى، الخرج 16272 3510،،, الخرج 16272، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع أبي شداد، النهضة، الدمام 34241، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9HRR+583، السلام،، تبوك المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>بني خدرة، المدينة المنورة 42311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2720 حفصة بنت عمر، الروضة، الرياض 13211، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5744 بلال بن رباح، أم العراد، TAAE9034, 9034, الطائف 26512، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>العام، مقابل مستشفى المجاردة، االمجاردة المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5W2X+32، النزهة، ينبع 46515، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2510 طريق الملك عبدالعزيز، العزيزية القديمة، 6420،، تبوك 47912، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7446 الشيخ عبدالله الخليفي، 4266، النزهة، مكة 24225، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9XM7+WV8، شارع الإمام مسلم، علي بن ابي طالب، بريدة 52385، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6JHW+8XG 273، البلد، تربة 29574، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>PMHC+74M، العسلي، الورود، الرياض 12253، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الامير سلطان، الزهراء، جدة 23522، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، طريق الملك سلمان، سلطانة، بريدة 52376، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7928، الصفراء، بريدة 52382 2852، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>علي بن ابي طالب رضى الله عنه، مكة 24372، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق أملج، المشهد، ينبع 46423، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>وادي هجر، الملقا، الرياض 13524، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9GWR+J7Q، النهضة، تبوك 47915، المملكة العربية السعودية</t>
+    <t>8030 الحناكية ...</t>
+  </si>
+  <si>
+    <t>RAFA3220، 3220...</t>
+  </si>
+  <si>
+    <t>G3C5+8H9، طريق...</t>
+  </si>
+  <si>
+    <t>Aldahna stree,...</t>
+  </si>
+  <si>
+    <t>بجوار خير بلاد...</t>
+  </si>
+  <si>
+    <t>QBWD7234، 7234...</t>
+  </si>
+  <si>
+    <t>JH82+8G8، تيما...</t>
+  </si>
+  <si>
+    <t>CRRW+GMQ حي, ش...</t>
+  </si>
+  <si>
+    <t>5558 طريق الأم...</t>
+  </si>
+  <si>
+    <t>طريق الملك فهد...</t>
+  </si>
+  <si>
+    <t>8236 طريق المل...</t>
+  </si>
+  <si>
+    <t>6787 طريق الام...</t>
+  </si>
+  <si>
+    <t>7189 الامير مم...</t>
+  </si>
+  <si>
+    <t>خلف بنك الراجح...</t>
+  </si>
+  <si>
+    <t>الصفا، تبوك 47...</t>
+  </si>
+  <si>
+    <t>طريق الملك عبد...</t>
+  </si>
+  <si>
+    <t>شارع الملك عبد...</t>
+  </si>
+  <si>
+    <t>الروابي، الخبر...</t>
+  </si>
+  <si>
+    <t>طريق الرياض ال...</t>
+  </si>
+  <si>
+    <t>CQ69+7X2، 3815...</t>
+  </si>
+  <si>
+    <t>7R7V+JJM، الأم...</t>
+  </si>
+  <si>
+    <t>6862, 5041, صف...</t>
+  </si>
+  <si>
+    <t>GHF9+VM7، الزه...</t>
+  </si>
+  <si>
+    <t>QM47+MXX, الرم...</t>
+  </si>
+  <si>
+    <t>M4V4+64P حي، ا...</t>
+  </si>
+  <si>
+    <t>2547+QR8, 5060...</t>
+  </si>
+  <si>
+    <t>طريق أنس ابن م...</t>
+  </si>
+  <si>
+    <t>الكورنيش، الخب...</t>
+  </si>
+  <si>
+    <t>طريق قباء، شور...</t>
+  </si>
+  <si>
+    <t>6090، 2580 طري...</t>
+  </si>
+  <si>
+    <t>HMQM+JQX، الشي...</t>
+  </si>
+  <si>
+    <t>GMMR+WC، المطا...</t>
+  </si>
+  <si>
+    <t>6552 احمد بن ش...</t>
+  </si>
+  <si>
+    <t>طريق الخليج، ا...</t>
+  </si>
+  <si>
+    <t>6582 طریق المس...</t>
+  </si>
+  <si>
+    <t>7WCQ+J89، مكة ...</t>
+  </si>
+  <si>
+    <t>4347, 7634, Al...</t>
+  </si>
+  <si>
+    <t>طريق الكورنيش،...</t>
+  </si>
+  <si>
+    <t>8219 شارع جعفر...</t>
+  </si>
+  <si>
+    <t>4013 شارع القم...</t>
+  </si>
+  <si>
+    <t>3XHG+653, شارع...</t>
+  </si>
+  <si>
+    <t>7CGW+PHG، شارع...</t>
+  </si>
+  <si>
+    <t>Ed, طريق ديراب...</t>
+  </si>
+  <si>
+    <t>فلسطين، بني ما...</t>
+  </si>
+  <si>
+    <t>طريق الشيخ محم...</t>
+  </si>
+  <si>
+    <t>2665+P5، الجاب...</t>
+  </si>
+  <si>
+    <t>2654+9WX، الرح...</t>
+  </si>
+  <si>
+    <t>طريق الإمام سع...</t>
+  </si>
+  <si>
+    <t>4745 بيعة العق...</t>
+  </si>
+  <si>
+    <t>7165 1st Ring ...</t>
+  </si>
+  <si>
+    <t>7229 طريق الهج...</t>
+  </si>
+  <si>
+    <t>جازان 82722، ا...</t>
+  </si>
+  <si>
+    <t>شارع الجوهري، ...</t>
+  </si>
+  <si>
+    <t>88JV+WWQ، الحم...</t>
+  </si>
+  <si>
+    <t>حي النزله، الن...</t>
+  </si>
+  <si>
+    <t>الفاخرية، الري...</t>
+  </si>
+  <si>
+    <t>عمر بن الخطاب،...</t>
+  </si>
+  <si>
+    <t>76P7+W3V، حي ا...</t>
+  </si>
+  <si>
+    <t>سلمان الفارسي،...</t>
+  </si>
+  <si>
+    <t>3433 طريق المل...</t>
+  </si>
+  <si>
+    <t>الملز، 7731-77...</t>
+  </si>
+  <si>
+    <t>977C+4F8، 4244...</t>
+  </si>
+  <si>
+    <t>2937 طريق الدم...</t>
+  </si>
+  <si>
+    <t>طريق المطار، ج...</t>
+  </si>
+  <si>
+    <t>9V9F+6H3، بجوا...</t>
+  </si>
+  <si>
+    <t>3280، 6496 يحل...</t>
+  </si>
+  <si>
+    <t>3826 شارع الام...</t>
+  </si>
+  <si>
+    <t>اسواق بن دايل،...</t>
+  </si>
+  <si>
+    <t>CX7F+899، شارع...</t>
+  </si>
+  <si>
+    <t>الشارع الأول، ...</t>
+  </si>
+  <si>
+    <t>طريق الامام تر...</t>
+  </si>
+  <si>
+    <t>شارع حجر بن عد...</t>
+  </si>
+  <si>
+    <t>2716-2604 روضة...</t>
+  </si>
+  <si>
+    <t>شهار، 7317 شها...</t>
+  </si>
+  <si>
+    <t>8133 طريق المل...</t>
+  </si>
+  <si>
+    <t>محمد علي جناح،...</t>
+  </si>
+  <si>
+    <t>الملك فيصل الغ...</t>
+  </si>
+  <si>
+    <t>FJ27+3Q8، الجم...</t>
+  </si>
+  <si>
+    <t>2801 طريق الأم...</t>
+  </si>
+  <si>
+    <t>الخزامى، 7155،...</t>
+  </si>
+  <si>
+    <t>شارع أبي شداد،...</t>
+  </si>
+  <si>
+    <t>9HRR+583، السل...</t>
+  </si>
+  <si>
+    <t>بني خدرة، المد...</t>
+  </si>
+  <si>
+    <t>2720 حفصة بنت ...</t>
+  </si>
+  <si>
+    <t>5744 بلال بن ر...</t>
+  </si>
+  <si>
+    <t>العام، مقابل م...</t>
+  </si>
+  <si>
+    <t>5W2X+32، النزه...</t>
+  </si>
+  <si>
+    <t>2510 طريق المل...</t>
+  </si>
+  <si>
+    <t>7446 الشيخ عبد...</t>
+  </si>
+  <si>
+    <t>9XM7+WV8، شارع...</t>
+  </si>
+  <si>
+    <t>6JHW+8XG 273، ...</t>
+  </si>
+  <si>
+    <t>PMHC+74M، العس...</t>
+  </si>
+  <si>
+    <t>طريق الامير سل...</t>
+  </si>
+  <si>
+    <t>حي، طريق الملك...</t>
+  </si>
+  <si>
+    <t>7928، الصفراء،...</t>
+  </si>
+  <si>
+    <t>علي بن ابي طال...</t>
+  </si>
+  <si>
+    <t>طريق أملج، الم...</t>
+  </si>
+  <si>
+    <t>وادي هجر، المل...</t>
+  </si>
+  <si>
+    <t>9GWR+J7Q، النه...</t>
   </si>
   <si>
     <t>+966596179450</t>
@@ -1486,115 +1186,85 @@
     <t>+966144273019</t>
   </si>
   <si>
-    <t>https://twitter.com/ShubraTea?t=btQNd996804QhGmFtV9LHA&amp;s=09</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/herecafe.sa/</t>
-  </si>
-  <si>
-    <t>https://sarihcafe.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>https://www.dominos.sa/</t>
-  </si>
-  <si>
-    <t>https://compiled.social/BrownHeart_Cafe</t>
-  </si>
-  <si>
-    <t>http://www.crowneplaza.com/</t>
-  </si>
-  <si>
-    <t>https://instagram.com/ten.degrees?igshid=jxrvv0e1om81</t>
-  </si>
-  <si>
-    <t>https://cafe-33979.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>https://instagram.com/sip_speciality_coffee?igshid=2tizvxi7rdy8</t>
-  </si>
-  <si>
-    <t>https://sites.google.com/view/masar-tae/%D8%B4%D8%A7%D9%8A-%D8%A7%D9%84%D9%85%D8%B3%D8%A7%D8%B1</t>
-  </si>
-  <si>
-    <t>http://spreadrestaurant.com/</t>
-  </si>
-  <si>
-    <t>https://instagram.com/lumeestreetksa</t>
-  </si>
-  <si>
-    <t>https://instagram.com/wareeq.sa?utm_medium=copy_link</t>
-  </si>
-  <si>
-    <t>http://www.subwayarabia.com/</t>
-  </si>
-  <si>
-    <t>https://instagram.com/simsim_sa_?utm_medium=copy_link</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/forjanalawal</t>
-  </si>
-  <si>
-    <t>https://jeddah.mcdelivery.com.sa/sa/jed/</t>
-  </si>
-  <si>
-    <t>http://www.popeyes.com.sa/</t>
-  </si>
-  <si>
-    <t>http://www.burgerizzr.com/</t>
-  </si>
-  <si>
-    <t>https://tgifridaysme.com/ar/</t>
-  </si>
-  <si>
-    <t>https://instagram.com/eatup_sa?utm_medium=copy_link</t>
-  </si>
-  <si>
-    <t>http://www.chickingglobal.com/</t>
-  </si>
-  <si>
-    <t>https://barns.com.sa/en</t>
-  </si>
-  <si>
-    <t>https://fast-food-restaurant-2430.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>http://halfm.sa/</t>
-  </si>
-  <si>
-    <t>https://hisstag.com/HAYSAR</t>
-  </si>
-  <si>
-    <t>https://instagram.com/qatif_h_k</t>
-  </si>
-  <si>
-    <t>https://restaurant-1131338.business.site/</t>
-  </si>
-  <si>
-    <t>https://theoliveandchilli.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>https://instagram.com/ronaldos.pizza?utm_medium=copy_link</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/lorenzo_ksa</t>
-  </si>
-  <si>
-    <t>https://instagram.com/woodpizzaksa?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://lorenzo.foodics.online/</t>
-  </si>
-  <si>
-    <t>https://t.snapchat.com/B5dMHadd</t>
-  </si>
-  <si>
-    <t>https://www.subway.com/ar-SA/</t>
-  </si>
-  <si>
-    <t>http://www.khayalrest.com/</t>
-  </si>
-  <si>
-    <t>https://linktr.ee/chemistry_coffee?utm_source=linktree_profile_share&amp;ltsid=f3f82531-7a03-400a-be02-f86f12a28e4d</t>
+    <t>https://twitte...</t>
+  </si>
+  <si>
+    <t>https://www.in...</t>
+  </si>
+  <si>
+    <t>https://sarihc...</t>
+  </si>
+  <si>
+    <t>https://www.do...</t>
+  </si>
+  <si>
+    <t>https://compil...</t>
+  </si>
+  <si>
+    <t>http://www.cro...</t>
+  </si>
+  <si>
+    <t>https://instag...</t>
+  </si>
+  <si>
+    <t>https://cafe-3...</t>
+  </si>
+  <si>
+    <t>https://sites....</t>
+  </si>
+  <si>
+    <t>http://spreadr...</t>
+  </si>
+  <si>
+    <t>http://www.sub...</t>
+  </si>
+  <si>
+    <t>https://jeddah...</t>
+  </si>
+  <si>
+    <t>http://www.pop...</t>
+  </si>
+  <si>
+    <t>http://www.bur...</t>
+  </si>
+  <si>
+    <t>https://tgifri...</t>
+  </si>
+  <si>
+    <t>http://www.chi...</t>
+  </si>
+  <si>
+    <t>https://barns....</t>
+  </si>
+  <si>
+    <t>https://fast-f...</t>
+  </si>
+  <si>
+    <t>http://halfm.s...</t>
+  </si>
+  <si>
+    <t>https://hissta...</t>
+  </si>
+  <si>
+    <t>https://restau...</t>
+  </si>
+  <si>
+    <t>https://theoli...</t>
+  </si>
+  <si>
+    <t>https://lorenz...</t>
+  </si>
+  <si>
+    <t>https://t.snap...</t>
+  </si>
+  <si>
+    <t>https://www.su...</t>
+  </si>
+  <si>
+    <t>http://www.kha...</t>
+  </si>
+  <si>
+    <t>https://linktr...</t>
   </si>
 </sst>
 </file>
@@ -2002,2272 +1672,2272 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" t="s">
         <v>324</v>
-      </c>
-      <c r="G2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
-        <v>208</v>
-      </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>490</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="F4" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="G5" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>491</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s">
-        <v>426</v>
+        <v>326</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>492</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="G7" t="s">
-        <v>427</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="G8" t="s">
-        <v>428</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="G10" t="s">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>493</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="G11" t="s">
-        <v>431</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>494</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="G14" t="s">
-        <v>433</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="F15" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="G15" t="s">
-        <v>434</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="G16" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="G17" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
       <c r="G18" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>495</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
       <c r="G19" t="s">
-        <v>438</v>
+        <v>338</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>496</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" t="s">
-        <v>225</v>
-      </c>
       <c r="E20" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="F20" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="G20" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>497</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="F21" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="G21" t="s">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>498</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>441</v>
+        <v>341</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>499</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="F25" t="s">
-        <v>347</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>442</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>443</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="G27" t="s">
-        <v>444</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="F28" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="F29" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>500</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>446</v>
+        <v>346</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>501</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="F31" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>502</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="G32" t="s">
-        <v>447</v>
+        <v>347</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>503</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="F33" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="G33" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="F34" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="G34" t="s">
-        <v>449</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="F35" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="G35" t="s">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>504</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="F36" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>505</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="F37" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="F38" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="G38" t="s">
-        <v>452</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" t="s">
         <v>261</v>
       </c>
-      <c r="F39" t="s">
-        <v>361</v>
-      </c>
       <c r="G39" t="s">
-        <v>453</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="G40" t="s">
-        <v>454</v>
+        <v>354</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>506</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="G43" t="s">
-        <v>455</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="F44" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>507</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="F45" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="G45" t="s">
-        <v>456</v>
+        <v>356</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>508</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="F46" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="G46" t="s">
-        <v>457</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="F47" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="G47" t="s">
-        <v>458</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="F48" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="G48" t="s">
-        <v>459</v>
+        <v>359</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>509</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="F49" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="G49" t="s">
-        <v>460</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="F50" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>510</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="F51" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="F52" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>511</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="F53" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="F54" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="G54" t="s">
-        <v>461</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="F55" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="G55" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" t="s">
-        <v>199</v>
-      </c>
-      <c r="D56" t="s">
-        <v>238</v>
-      </c>
-      <c r="E56" t="s">
-        <v>261</v>
-      </c>
       <c r="F56" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="G56" t="s">
-        <v>463</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E58" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="F58" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="G58" t="s">
-        <v>456</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E59" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="F59" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="G59" t="s">
-        <v>464</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="F60" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E61" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="F61" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="G61" t="s">
-        <v>465</v>
+        <v>365</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>512</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="F62" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="G62" t="s">
-        <v>466</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="F63" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="G63" t="s">
-        <v>467</v>
+        <v>367</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>513</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="F64" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="F65" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>514</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="F66" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="G66" t="s">
-        <v>468</v>
+        <v>368</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>515</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" t="s">
         <v>199</v>
       </c>
-      <c r="D67" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" t="s">
-        <v>298</v>
-      </c>
       <c r="F67" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="G67" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E68" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="F68" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="G68" t="s">
-        <v>470</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F69" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D70" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E70" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="F70" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="G70" t="s">
-        <v>471</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="F71" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="E72" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="F72" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="G72" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D73" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="G73" t="s">
-        <v>473</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E74" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="F74" t="s">
+        <v>296</v>
+      </c>
+      <c r="G74" t="s">
+        <v>374</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="G74" t="s">
-        <v>474</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="F75" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>514</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="B76" t="s">
-        <v>181</v>
-      </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E76" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="F76" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="G76" t="s">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>517</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="B77" t="s">
-        <v>182</v>
-      </c>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="F77" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="B78" t="s">
-        <v>183</v>
-      </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E78" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="F78" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="B79" t="s">
-        <v>184</v>
-      </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="D79" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="F79" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="G79" t="s">
-        <v>476</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
         <v>86</v>
       </c>
-      <c r="B80" t="s">
-        <v>185</v>
-      </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D80" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E80" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="F80" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="G80" t="s">
-        <v>477</v>
+        <v>377</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>518</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="B81" t="s">
-        <v>186</v>
-      </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E81" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="F81" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="G81" t="s">
-        <v>478</v>
+        <v>378</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>519</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
         <v>88</v>
       </c>
-      <c r="B82" t="s">
-        <v>187</v>
-      </c>
       <c r="C82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" t="s">
         <v>210</v>
       </c>
-      <c r="D82" t="s">
-        <v>235</v>
-      </c>
-      <c r="E82" t="s">
-        <v>309</v>
-      </c>
       <c r="F82" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>520</v>
+        <v>391</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
         <v>89</v>
       </c>
-      <c r="B83" t="s">
-        <v>188</v>
-      </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="E83" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="F83" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="G83" t="s">
-        <v>479</v>
+        <v>379</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>521</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
         <v>90</v>
       </c>
-      <c r="B84" t="s">
-        <v>189</v>
-      </c>
       <c r="C84" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="E84" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
         <v>91</v>
       </c>
-      <c r="B85" t="s">
-        <v>190</v>
-      </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="E85" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="F85" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="G85" t="s">
-        <v>480</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
         <v>92</v>
       </c>
-      <c r="B86" t="s">
-        <v>191</v>
-      </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E86" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="F86" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="G86" t="s">
-        <v>481</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
         <v>93</v>
       </c>
-      <c r="B87" t="s">
-        <v>192</v>
-      </c>
       <c r="C87" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E87" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="F87" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>522</v>
+        <v>412</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
         <v>94</v>
       </c>
-      <c r="B88" t="s">
-        <v>193</v>
-      </c>
       <c r="C88" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="D88" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="E88" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="F88" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>523</v>
+        <v>413</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
         <v>95</v>
       </c>
-      <c r="B89" t="s">
-        <v>194</v>
-      </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D89" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E89" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="F89" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="G89" t="s">
-        <v>482</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
         <v>96</v>
       </c>
-      <c r="B90" t="s">
-        <v>195</v>
-      </c>
       <c r="C90" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E90" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="F90" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>524</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
         <v>97</v>
       </c>
-      <c r="B91" t="s">
-        <v>196</v>
-      </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E91" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="F91" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G91" t="s">
-        <v>483</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
         <v>98</v>
       </c>
-      <c r="B92" t="s">
-        <v>197</v>
-      </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D92" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="E92" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="F92" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
         <v>99</v>
       </c>
-      <c r="B93" t="s">
-        <v>198</v>
-      </c>
       <c r="C93" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="F93" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G93" t="s">
-        <v>484</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
         <v>100</v>
       </c>
-      <c r="B94" t="s">
-        <v>199</v>
-      </c>
       <c r="C94" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="F94" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
         <v>101</v>
       </c>
-      <c r="B95" t="s">
-        <v>200</v>
-      </c>
       <c r="C95" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E95" t="s">
+        <v>218</v>
+      </c>
+      <c r="F95" t="s">
         <v>317</v>
       </c>
-      <c r="F95" t="s">
-        <v>417</v>
-      </c>
       <c r="G95" t="s">
-        <v>485</v>
+        <v>385</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>525</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
         <v>102</v>
       </c>
-      <c r="B96" t="s">
-        <v>201</v>
-      </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E96" t="s">
+        <v>219</v>
+      </c>
+      <c r="F96" t="s">
         <v>318</v>
       </c>
-      <c r="F96" t="s">
-        <v>418</v>
-      </c>
       <c r="G96" t="s">
-        <v>486</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
         <v>103</v>
       </c>
-      <c r="B97" t="s">
-        <v>202</v>
-      </c>
       <c r="C97" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D97" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="E97" t="s">
+        <v>220</v>
+      </c>
+      <c r="F97" t="s">
         <v>319</v>
       </c>
-      <c r="F97" t="s">
-        <v>419</v>
-      </c>
       <c r="G97" t="s">
-        <v>487</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
         <v>104</v>
       </c>
-      <c r="B98" t="s">
-        <v>203</v>
-      </c>
       <c r="C98" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E98" t="s">
+        <v>221</v>
+      </c>
+      <c r="F98" t="s">
         <v>320</v>
       </c>
-      <c r="F98" t="s">
-        <v>420</v>
-      </c>
       <c r="G98" t="s">
-        <v>488</v>
+        <v>388</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>526</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
         <v>105</v>
       </c>
-      <c r="B99" t="s">
-        <v>204</v>
-      </c>
       <c r="C99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D99" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" t="s">
         <v>222</v>
       </c>
-      <c r="D99" t="s">
-        <v>241</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>321</v>
-      </c>
-      <c r="F99" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
         <v>106</v>
       </c>
-      <c r="B100" t="s">
-        <v>205</v>
-      </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D100" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="E100" t="s">
+        <v>223</v>
+      </c>
+      <c r="F100" t="s">
         <v>322</v>
-      </c>
-      <c r="F100" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
         <v>107</v>
       </c>
-      <c r="B101" t="s">
-        <v>206</v>
-      </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="D101" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E101" t="s">
+        <v>224</v>
+      </c>
+      <c r="F101" t="s">
         <v>323</v>
       </c>
-      <c r="F101" t="s">
-        <v>423</v>
-      </c>
       <c r="G101" t="s">
-        <v>489</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/samples/SA-عينة-مطاعم-ومقاهي-preview.xlsx
+++ b/samples/SA-عينة-مطاعم-ومقاهي-preview.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="417">
-  <si>
-    <t>URL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="807">
+  <si>
+    <t>Google Maps</t>
   </si>
   <si>
     <t>Name</t>
@@ -43,1228 +43,2398 @@
     <t>https://www.go...</t>
   </si>
   <si>
-    <t>نايس كوفي</t>
-  </si>
-  <si>
-    <t>شاي شبرا</t>
-  </si>
-  <si>
-    <t>امبريلا قهوة م...</t>
-  </si>
-  <si>
-    <t>خانه</t>
-  </si>
-  <si>
-    <t>سارية كافيه</t>
-  </si>
-  <si>
-    <t>توتكا ToTikka ...</t>
-  </si>
-  <si>
-    <t>بُراتا</t>
-  </si>
-  <si>
-    <t>كافتيريا الشبا...</t>
-  </si>
-  <si>
-    <t>دومينوز بيتزا</t>
-  </si>
-  <si>
-    <t>Blue berry caf...</t>
-  </si>
-  <si>
-    <t>براون هارت كاف...</t>
-  </si>
-  <si>
-    <t>Zed coffee</t>
-  </si>
-  <si>
-    <t>عندليب الحجاز</t>
-  </si>
-  <si>
-    <t>فول وعريكة وكب...</t>
-  </si>
-  <si>
-    <t>مطبخ فوز تبوك</t>
-  </si>
-  <si>
-    <t>مطعم ليالي الد...</t>
-  </si>
-  <si>
-    <t>مطعم مراكش الم...</t>
-  </si>
-  <si>
-    <t>تن دقريز</t>
-  </si>
-  <si>
-    <t>ديوانية المساف...</t>
-  </si>
-  <si>
-    <t>مقهى سب - sip</t>
-  </si>
-  <si>
-    <t>ركاز البن</t>
-  </si>
-  <si>
-    <t>شاي الــــمسار...</t>
-  </si>
-  <si>
-    <t>شاورما وصوص</t>
-  </si>
-  <si>
-    <t>مندي البكيرية</t>
-  </si>
-  <si>
-    <t>Sabuddin fast ...</t>
-  </si>
-  <si>
-    <t>عجان و عجين</t>
-  </si>
-  <si>
-    <t>راما كافيه</t>
-  </si>
-  <si>
-    <t>سبرد</t>
-  </si>
-  <si>
-    <t>لومي</t>
-  </si>
-  <si>
-    <t>وريق</t>
+    <t>بيتزا زاد الار...</t>
+  </si>
+  <si>
+    <t>شيخ البيتزا</t>
+  </si>
+  <si>
+    <t>كريزي بيتزا</t>
+  </si>
+  <si>
+    <t>بينا بيتزا</t>
+  </si>
+  <si>
+    <t>ركن الفطيرة</t>
+  </si>
+  <si>
+    <t>إيلي بيتزا</t>
+  </si>
+  <si>
+    <t>برجر ايدشين</t>
+  </si>
+  <si>
+    <t>مطعم ولاونج يا...</t>
+  </si>
+  <si>
+    <t>مطبق وشعبيات ا...</t>
+  </si>
+  <si>
+    <t>بيتزا اريتا</t>
+  </si>
+  <si>
+    <t>روما وَى</t>
+  </si>
+  <si>
+    <t>بيتزا الشام</t>
+  </si>
+  <si>
+    <t>بيتزا غد</t>
+  </si>
+  <si>
+    <t>الفطيرة الساخن...</t>
+  </si>
+  <si>
+    <t>Jan burger - ج...</t>
+  </si>
+  <si>
+    <t>Chicken it</t>
+  </si>
+  <si>
+    <t>معجنات الشبح ل...</t>
+  </si>
+  <si>
+    <t>مطاعم هاشم الط...</t>
+  </si>
+  <si>
+    <t>التاج الراقي ل...</t>
+  </si>
+  <si>
+    <t>صب ساندوتش ستي...</t>
+  </si>
+  <si>
+    <t>مطاعم مذاق الش...</t>
   </si>
   <si>
     <t>صب واي</t>
   </si>
   <si>
-    <t>عبدالعزيز للوج...</t>
-  </si>
-  <si>
-    <t>كيان | Kyan‎</t>
-  </si>
-  <si>
-    <t>سمسم</t>
-  </si>
-  <si>
-    <t>فرجان الاول</t>
-  </si>
-  <si>
-    <t>مطعم مشويات دا...</t>
-  </si>
-  <si>
-    <t>مطعم صنعاء للم...</t>
-  </si>
-  <si>
-    <t>مطعم نور جاهان...</t>
+    <t>مطاعم وكافيه ل...</t>
+  </si>
+  <si>
+    <t>مطعم ركن البيت...</t>
+  </si>
+  <si>
+    <t>مطعم ومقهى كاب...</t>
+  </si>
+  <si>
+    <t>فطيرة وشطيرة</t>
+  </si>
+  <si>
+    <t>كنافه رويال</t>
+  </si>
+  <si>
+    <t>تشيز هاوس . Ch...</t>
+  </si>
+  <si>
+    <t>بارتي بوكس Par...</t>
+  </si>
+  <si>
+    <t>لمة</t>
+  </si>
+  <si>
+    <t>مطعم اهلا وسهل...</t>
+  </si>
+  <si>
+    <t>كعك وجبن Kaak ...</t>
+  </si>
+  <si>
+    <t>وجبة عزيز</t>
+  </si>
+  <si>
+    <t>مطعم لوكا للوج...</t>
+  </si>
+  <si>
+    <t>مشويات الركن ا...</t>
+  </si>
+  <si>
+    <t>عرب برجر</t>
+  </si>
+  <si>
+    <t>الفطيره الساخن...</t>
+  </si>
+  <si>
+    <t>Falafel Pie | ...</t>
+  </si>
+  <si>
+    <t>خمسة بيتزا الط...</t>
+  </si>
+  <si>
+    <t>مطبق التاج فرع...</t>
+  </si>
+  <si>
+    <t>بيتزا وعصيرات ...</t>
+  </si>
+  <si>
+    <t>المكرونة الشهي...</t>
+  </si>
+  <si>
+    <t>ركن الفطائر ٢</t>
+  </si>
+  <si>
+    <t>مطعم الخالدية</t>
+  </si>
+  <si>
+    <t>مطعم معجنات ال...</t>
+  </si>
+  <si>
+    <t>Domino's pizza...</t>
+  </si>
+  <si>
+    <t>لطايف</t>
+  </si>
+  <si>
+    <t>فوال مكة</t>
+  </si>
+  <si>
+    <t>زاوية عمان</t>
+  </si>
+  <si>
+    <t>شاورما باب الز...</t>
+  </si>
+  <si>
+    <t>الفطيرة</t>
+  </si>
+  <si>
+    <t>المثناه</t>
+  </si>
+  <si>
+    <t>بيت الفطائر</t>
+  </si>
+  <si>
+    <t>فطيرة الفلافل</t>
+  </si>
+  <si>
+    <t>كريب تاون</t>
+  </si>
+  <si>
+    <t>بيتزا باستا</t>
+  </si>
+  <si>
+    <t>مطعم طيبة الشا...</t>
+  </si>
+  <si>
+    <t>بيتزا هات الي</t>
+  </si>
+  <si>
+    <t>بينقو</t>
+  </si>
+  <si>
+    <t>برغرايزر</t>
+  </si>
+  <si>
+    <t>مطعم و مقهى ال...</t>
+  </si>
+  <si>
+    <t>شاروما</t>
+  </si>
+  <si>
+    <t>أطعم مناقيش و ...</t>
+  </si>
+  <si>
+    <t>بيتزا تو</t>
+  </si>
+  <si>
+    <t>ستار بيتزا</t>
+  </si>
+  <si>
+    <t>تات بيتزا</t>
+  </si>
+  <si>
+    <t>بيتزا الماس</t>
+  </si>
+  <si>
+    <t>بيتزا وفطائر ا...</t>
+  </si>
+  <si>
+    <t>مناقيش جنان</t>
+  </si>
+  <si>
+    <t>بيتزا هم</t>
+  </si>
+  <si>
+    <t>مطاعم بسمة الأ...</t>
+  </si>
+  <si>
+    <t>شوبك</t>
+  </si>
+  <si>
+    <t>مشويات أبو خلي...</t>
+  </si>
+  <si>
+    <t>Dominos pizza</t>
+  </si>
+  <si>
+    <t>Section-D |سكش...</t>
+  </si>
+  <si>
+    <t>رغد الشام للفط...</t>
+  </si>
+  <si>
+    <t>مخبز فرن البحر...</t>
+  </si>
+  <si>
+    <t>جريل داي</t>
+  </si>
+  <si>
+    <t>مطعم إكلة</t>
+  </si>
+  <si>
+    <t>تاون بور | Tow...</t>
+  </si>
+  <si>
+    <t>مطعم حكاية أكل...</t>
+  </si>
+  <si>
+    <t>فطائر زين التر...</t>
+  </si>
+  <si>
+    <t>بيتزا أمالفي |...</t>
+  </si>
+  <si>
+    <t>مطعم النابلسي</t>
+  </si>
+  <si>
+    <t>ركن الشاميات</t>
+  </si>
+  <si>
+    <t>جمبرى فاكتورى ...</t>
+  </si>
+  <si>
+    <t>مقهى السعادة ا...</t>
+  </si>
+  <si>
+    <t>مطعم فطائر الع...</t>
+  </si>
+  <si>
+    <t>فطائر بيتزا ها...</t>
+  </si>
+  <si>
+    <t>دارة الفطائر</t>
+  </si>
+  <si>
+    <t>المطعم الإيطال...</t>
+  </si>
+  <si>
+    <t>مطعم نسمه المش...</t>
+  </si>
+  <si>
+    <t>شهد الشام</t>
+  </si>
+  <si>
+    <t>بروست ساره فرع...</t>
+  </si>
+  <si>
+    <t>مطاعم ميماز</t>
+  </si>
+  <si>
+    <t>مايلد | Mild</t>
+  </si>
+  <si>
+    <t>كودو</t>
+  </si>
+  <si>
+    <t>دواني</t>
+  </si>
+  <si>
+    <t>مطاعم لذة سهار...</t>
+  </si>
+  <si>
+    <t>فلافل حلب الشه...</t>
+  </si>
+  <si>
+    <t>مطعم الشرق الأ...</t>
+  </si>
+  <si>
+    <t>بروست الروين</t>
+  </si>
+  <si>
+    <t>كشري العمدة</t>
+  </si>
+  <si>
+    <t>ضيافة طيبة</t>
   </si>
   <si>
     <t>ماكدونالدز</t>
   </si>
   <si>
-    <t>بيتزا الدانة</t>
-  </si>
-  <si>
-    <t>ابو احمد</t>
-  </si>
-  <si>
-    <t>مطعم نكهة الشا...</t>
-  </si>
-  <si>
-    <t>Popeyes</t>
-  </si>
-  <si>
-    <t>برغرايزر</t>
-  </si>
-  <si>
-    <t>ستوب بيتزا sto...</t>
-  </si>
-  <si>
-    <t>جروف</t>
-  </si>
-  <si>
-    <t>TGI Friday's</t>
-  </si>
-  <si>
-    <t>مطعم كبسة البا...</t>
-  </si>
-  <si>
-    <t>ايت اب</t>
-  </si>
-  <si>
-    <t>ديوانية الكواك...</t>
-  </si>
-  <si>
-    <t>ملك الدجاج</t>
-  </si>
-  <si>
-    <t>مطعم ارض بلقيس...</t>
-  </si>
-  <si>
-    <t>بوجا فاست فود</t>
-  </si>
-  <si>
-    <t>غرينش</t>
-  </si>
-  <si>
-    <t>مطعم ورد للمأك...</t>
-  </si>
-  <si>
-    <t>مطبخ الحرمين ا...</t>
-  </si>
-  <si>
-    <t>برغرايززر</t>
-  </si>
-  <si>
-    <t>شاورما سفن إلف...</t>
-  </si>
-  <si>
-    <t>مطعم وردة الخب...</t>
-  </si>
-  <si>
-    <t>بارنز</t>
-  </si>
-  <si>
-    <t>كوفي نسائم</t>
-  </si>
-  <si>
-    <t>بروستد الوجبة</t>
-  </si>
-  <si>
-    <t>سوفليه شهار</t>
-  </si>
-  <si>
-    <t>هاف مليون</t>
-  </si>
-  <si>
-    <t>مقهى هيصر Hays...</t>
-  </si>
-  <si>
-    <t>سقيفة هاشم</t>
-  </si>
-  <si>
-    <t>بروست الرهيب 3...</t>
-  </si>
-  <si>
-    <t>العصير</t>
-  </si>
-  <si>
-    <t>مطعم نكهة ولذة...</t>
-  </si>
-  <si>
-    <t>كايفانو</t>
-  </si>
-  <si>
-    <t>مطاعم بوان الا...</t>
-  </si>
-  <si>
-    <t>مطعم الخلطة ال...</t>
-  </si>
-  <si>
-    <t>مطعم البيت الق...</t>
-  </si>
-  <si>
-    <t>يمي برجر</t>
-  </si>
-  <si>
-    <t>فطيرة القريات</t>
-  </si>
-  <si>
-    <t>ديوانية العاصم...</t>
-  </si>
-  <si>
-    <t>مطعم حليب وزعف...</t>
-  </si>
-  <si>
-    <t>The Olive &amp; Ch...</t>
-  </si>
-  <si>
-    <t>رونالدوز بيتزا...</t>
-  </si>
-  <si>
-    <t>Lorenzo Pizza ...</t>
-  </si>
-  <si>
-    <t>Wood Pizza</t>
+    <t>فطاير الفلك</t>
+  </si>
+  <si>
+    <t>البيت العدني</t>
+  </si>
+  <si>
+    <t>شاورما هاوس</t>
+  </si>
+  <si>
+    <t>سماء عدن</t>
+  </si>
+  <si>
+    <t>صب واي Subway</t>
+  </si>
+  <si>
+    <t>مطعم حكاية ذوق...</t>
+  </si>
+  <si>
+    <t>فطيرة عصوم</t>
+  </si>
+  <si>
+    <t>مطعم استري</t>
+  </si>
+  <si>
+    <t>مطاعم جريب ليف...</t>
+  </si>
+  <si>
+    <t>مشويات اوركي</t>
+  </si>
+  <si>
+    <t>فنجرز ورق عنب ...</t>
+  </si>
+  <si>
+    <t>ديوانية ضيافة ...</t>
+  </si>
+  <si>
+    <t>شاهي المختار</t>
+  </si>
+  <si>
+    <t>Send coffee</t>
+  </si>
+  <si>
+    <t>فوجي كافيه | F...</t>
+  </si>
+  <si>
+    <t>24Cafe</t>
+  </si>
+  <si>
+    <t>كفي ثري بينز ل...</t>
+  </si>
+  <si>
+    <t>ديوانية شقران</t>
+  </si>
+  <si>
+    <t>مقهى و كافيه ع...</t>
+  </si>
+  <si>
+    <t>آرتشي</t>
+  </si>
+  <si>
+    <t>لايقر كافيه - ...</t>
+  </si>
+  <si>
+    <t>محمصة ومقهى سي...</t>
+  </si>
+  <si>
+    <t>مقهى ديوانية ق...</t>
+  </si>
+  <si>
+    <t>JAVA TIME</t>
+  </si>
+  <si>
+    <t>قهوة بحّة | Ba...</t>
+  </si>
+  <si>
+    <t>الكآس التاسع ف...</t>
+  </si>
+  <si>
+    <t>Rada cafe | را...</t>
+  </si>
+  <si>
+    <t>ريشيو للقهوة ا...</t>
+  </si>
+  <si>
+    <t>كوز القهوة</t>
+  </si>
+  <si>
+    <t>3Dots cafe</t>
+  </si>
+  <si>
+    <t>كاڤالو لاونج</t>
+  </si>
+  <si>
+    <t>لاروكا كافيه</t>
+  </si>
+  <si>
+    <t>مطعم ومقهى كيو...</t>
+  </si>
+  <si>
+    <t>دوبامين كوكيز</t>
+  </si>
+  <si>
+    <t>لاونج تان</t>
+  </si>
+  <si>
+    <t>قمر لاونج</t>
+  </si>
+  <si>
+    <t>مقهى كاباروا</t>
+  </si>
+  <si>
+    <t>كوين اوف جاردن...</t>
+  </si>
+  <si>
+    <t>جبره سكوير</t>
+  </si>
+  <si>
+    <t>كافي بو Boo</t>
+  </si>
+  <si>
+    <t>عتبة للقهوة ال...</t>
+  </si>
+  <si>
+    <t>Kim’s Cafe</t>
+  </si>
+  <si>
+    <t>Velvet Sips رش...</t>
+  </si>
+  <si>
+    <t>ريف كافيه</t>
+  </si>
+  <si>
+    <t>جبل كافيه</t>
+  </si>
+  <si>
+    <t>دبليو كافي</t>
+  </si>
+  <si>
+    <t>كافي نكهة ورد</t>
+  </si>
+  <si>
+    <t>Cinnabon</t>
+  </si>
+  <si>
+    <t>كوزمو</t>
+  </si>
+  <si>
+    <t>وكف</t>
+  </si>
+  <si>
+    <t>مقهى ليراز LIR...</t>
+  </si>
+  <si>
+    <t>غزال كافيه</t>
+  </si>
+  <si>
+    <t>غزالة كافيه | ...</t>
+  </si>
+  <si>
+    <t>غزال أسود BLAC...</t>
+  </si>
+  <si>
+    <t>ديفالو كافيه |...</t>
+  </si>
+  <si>
+    <t>سدم كافيه</t>
+  </si>
+  <si>
+    <t>مقهى سلافي</t>
+  </si>
+  <si>
+    <t>كوفي وحلويات م...</t>
+  </si>
+  <si>
+    <t>ودق cafe</t>
+  </si>
+  <si>
+    <t>مقهى المسافر</t>
+  </si>
+  <si>
+    <t>Choco valley</t>
+  </si>
+  <si>
+    <t>كرافت - craft</t>
+  </si>
+  <si>
+    <t>Petit Four | ا...</t>
+  </si>
+  <si>
+    <t>ڤاليڤا | faliv...</t>
+  </si>
+  <si>
+    <t>Paraguas Café ...</t>
+  </si>
+  <si>
+    <t>توكان كوفي Tou...</t>
+  </si>
+  <si>
+    <t>ghorah althamn...</t>
+  </si>
+  <si>
+    <t>send coffee</t>
+  </si>
+  <si>
+    <t>ديوانية البن ا...</t>
+  </si>
+  <si>
+    <t>ترويقة وبلوت</t>
+  </si>
+  <si>
+    <t>Second shot Ca...</t>
+  </si>
+  <si>
+    <t>اقزت | EXIT</t>
+  </si>
+  <si>
+    <t>مقهى لِيم leee...</t>
+  </si>
+  <si>
+    <t>Coffee 20UR</t>
+  </si>
+  <si>
+    <t>دانا لاونج</t>
+  </si>
+  <si>
+    <t>آسيا كافية</t>
+  </si>
+  <si>
+    <t>ديوانية التراث...</t>
+  </si>
+  <si>
+    <t>وبل</t>
+  </si>
+  <si>
+    <t>ديلي كب Daily ...</t>
+  </si>
+  <si>
+    <t>بيو كافيه</t>
+  </si>
+  <si>
+    <t>بنش كافية</t>
+  </si>
+  <si>
+    <t>كوفيماتكس</t>
+  </si>
+  <si>
+    <t>قهوة الطريق | ...</t>
+  </si>
+  <si>
+    <t>Dunkin' - دانك...</t>
+  </si>
+  <si>
+    <t>مقهى ومحمصة سم...</t>
+  </si>
+  <si>
+    <t>مطعم</t>
   </si>
   <si>
     <t>مقهى</t>
   </si>
   <si>
-    <t>مطعم مذاق العا...</t>
-  </si>
-  <si>
-    <t>Pizza &amp; Burger...</t>
-  </si>
-  <si>
-    <t>لورينزو Lorenz...</t>
-  </si>
-  <si>
-    <t>منكه (فود ترك)...</t>
-  </si>
-  <si>
-    <t>مقهى واحد محبو...</t>
-  </si>
-  <si>
-    <t>Subway</t>
-  </si>
-  <si>
-    <t>الفوال الملكي</t>
-  </si>
-  <si>
-    <t>ديوانية ذروة ا...</t>
-  </si>
-  <si>
-    <t>كفتيريا كوفى م...</t>
-  </si>
-  <si>
-    <t>مطعم</t>
-  </si>
-  <si>
-    <t>مطعم خيال</t>
-  </si>
-  <si>
-    <t>مطعم أكلات جدو...</t>
-  </si>
-  <si>
-    <t>حلا ميلا</t>
-  </si>
-  <si>
-    <t>كيمستري كافية</t>
-  </si>
-  <si>
-    <t>بوفية و مطبق ا...</t>
-  </si>
-  <si>
-    <t>بلوب</t>
-  </si>
-  <si>
-    <t>عش البلبل للفط...</t>
-  </si>
-  <si>
     <t>كافيه</t>
   </si>
   <si>
-    <t>مقهى لشرب الشا...</t>
-  </si>
-  <si>
-    <t>مطعم وجبات سري...</t>
-  </si>
-  <si>
-    <t>مطعم بيتزا</t>
-  </si>
-  <si>
-    <t>مطعم مأكولات م...</t>
-  </si>
-  <si>
-    <t>مطعم شاورما</t>
-  </si>
-  <si>
-    <t>مطعم سندوتشات</t>
-  </si>
-  <si>
-    <t>مطعم عائلي</t>
-  </si>
-  <si>
-    <t>مطعم دجاج</t>
-  </si>
-  <si>
-    <t>مطعم مأكولات أ...</t>
-  </si>
-  <si>
-    <t>مطعم للإفطار</t>
-  </si>
-  <si>
-    <t>مطعم مأكولات ص...</t>
-  </si>
-  <si>
-    <t>مقهى إسبرسو</t>
-  </si>
-  <si>
-    <t>مطعم مأكولات ق...</t>
-  </si>
-  <si>
-    <t>مطعم مأكولات ا...</t>
-  </si>
-  <si>
-    <t>مطعم ببوفيه</t>
-  </si>
-  <si>
-    <t>مطعم الفطائر</t>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>5.0</t>
   </si>
   <si>
     <t>4.6</t>
   </si>
   <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.1</t>
+    <t>2.8</t>
   </si>
   <si>
     <t>4.9</t>
   </si>
   <si>
-    <t>4.2</t>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>2,373</t>
+  </si>
+  <si>
+    <t>2,416</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>5,517</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>1,001</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>3,756</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>1,202</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6,646</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>7,542</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>1,045</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>1,155</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1,840</t>
+  </si>
+  <si>
+    <t>2,090</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>2,216</t>
+  </si>
+  <si>
+    <t>2,271</t>
+  </si>
+  <si>
+    <t>8,512</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>279</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.7</t>
+    <t>238</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>2,210</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2,253</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>2,432</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2,902</t>
+  </si>
+  <si>
+    <t>1,086</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>1,920</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>8,252</t>
+  </si>
+  <si>
+    <t>1,058</t>
+  </si>
+  <si>
+    <t>1,107</t>
+  </si>
+  <si>
+    <t>1,271</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1,344</t>
+  </si>
+  <si>
+    <t>387</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>668</t>
+    <t>2,768</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>1,207</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1,281</t>
+  </si>
+  <si>
+    <t>3,288</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>1,219</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>1,756</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>536</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2431</t>
-  </si>
-  <si>
-    <t>1828</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>532</t>
+    <t>521</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>1,019</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>1,250</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1,267</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>178</t>
   </si>
   <si>
     <t>192</t>
   </si>
   <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>1171</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>912</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>691</t>
-  </si>
-  <si>
-    <t>2421</t>
-  </si>
-  <si>
-    <t>2065</t>
-  </si>
-  <si>
-    <t>1549</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>1815</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1229</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>3498</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>32473</t>
-  </si>
-  <si>
-    <t>4240</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>597</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>8030 الحناكية ...</t>
-  </si>
-  <si>
-    <t>RAFA3220، 3220...</t>
-  </si>
-  <si>
-    <t>G3C5+8H9، طريق...</t>
-  </si>
-  <si>
-    <t>Aldahna stree,...</t>
-  </si>
-  <si>
-    <t>بجوار خير بلاد...</t>
-  </si>
-  <si>
-    <t>QBWD7234، 7234...</t>
-  </si>
-  <si>
-    <t>JH82+8G8، تيما...</t>
-  </si>
-  <si>
-    <t>CRRW+GMQ حي, ش...</t>
-  </si>
-  <si>
-    <t>5558 طريق الأم...</t>
-  </si>
-  <si>
-    <t>طريق الملك فهد...</t>
-  </si>
-  <si>
-    <t>8236 طريق المل...</t>
-  </si>
-  <si>
-    <t>6787 طريق الام...</t>
-  </si>
-  <si>
-    <t>7189 الامير مم...</t>
-  </si>
-  <si>
-    <t>خلف بنك الراجح...</t>
-  </si>
-  <si>
-    <t>الصفا، تبوك 47...</t>
+    <t>290</t>
+  </si>
+  <si>
+    <t>2,062</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>1,142</t>
+  </si>
+  <si>
+    <t>1,716</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>4146 طريق المل...</t>
+  </si>
+  <si>
+    <t>بجوار حديقة، ا...</t>
+  </si>
+  <si>
+    <t>طريق الأمير مح...</t>
+  </si>
+  <si>
+    <t>شارع الإمام أح...</t>
+  </si>
+  <si>
+    <t>Zaid Bin Al-Ha...</t>
+  </si>
+  <si>
+    <t>الشيخ عبدالله ...</t>
+  </si>
+  <si>
+    <t>4006 شارع القم...</t>
+  </si>
+  <si>
+    <t>طريق الملك خال...</t>
+  </si>
+  <si>
+    <t>القطبية،، طريق...</t>
+  </si>
+  <si>
+    <t>4082 شارع القم...</t>
+  </si>
+  <si>
+    <t>شارع الخمسين، ...</t>
+  </si>
+  <si>
+    <t>6268 شارع القم...</t>
+  </si>
+  <si>
+    <t>شارع القمرية، ...</t>
   </si>
   <si>
     <t>طريق الملك عبد...</t>
   </si>
   <si>
+    <t>4020، حي الجفي...</t>
+  </si>
+  <si>
+    <t>7CM9+6GM، الري...</t>
+  </si>
+  <si>
+    <t>7CVV+72V، طريق...</t>
+  </si>
+  <si>
+    <t>Al Khamseen st...</t>
+  </si>
+  <si>
+    <t>7CWQ+8QG، طريق...</t>
+  </si>
+  <si>
+    <t>Block #7565 Ab...</t>
+  </si>
+  <si>
+    <t>3836 شارع الجي...</t>
+  </si>
+  <si>
+    <t>مول قلب، الطائ...</t>
+  </si>
+  <si>
+    <t>9014، جبره، ال...</t>
+  </si>
+  <si>
+    <t>7321 4247، معش...</t>
+  </si>
+  <si>
+    <t>بالقرب من 4969...</t>
+  </si>
+  <si>
+    <t>تيرا مول، القط...</t>
+  </si>
+  <si>
+    <t>تيرا مول، شارع...</t>
+  </si>
+  <si>
+    <t>7CH7+Q2X، شبرا...</t>
+  </si>
+  <si>
+    <t>TADE6772, 4898...</t>
+  </si>
+  <si>
+    <t>8940 4149 طريق...</t>
+  </si>
+  <si>
+    <t>7CQP+3XF، النز...</t>
+  </si>
+  <si>
+    <t>7CGW+G7W، خالد...</t>
+  </si>
+  <si>
+    <t>4925 طريق المل...</t>
+  </si>
+  <si>
+    <t>بجوار مجمع الط...</t>
+  </si>
+  <si>
+    <t>7096 شارع القم...</t>
+  </si>
+  <si>
+    <t>7CPJ+9RP، القط...</t>
+  </si>
+  <si>
+    <t>7CFM+W89، حي ا...</t>
+  </si>
+  <si>
+    <t>ابن خلكان، الخ...</t>
+  </si>
+  <si>
+    <t>بجوار السجن ال...</t>
+  </si>
+  <si>
+    <t>2757 9262 طريق...</t>
+  </si>
+  <si>
+    <t>5701 طريق الشف...</t>
+  </si>
+  <si>
+    <t>3410، العقيق 6...</t>
+  </si>
+  <si>
+    <t>4092، 7299 معش...</t>
+  </si>
+  <si>
+    <t>2085، القطبية،...</t>
+  </si>
+  <si>
+    <t>المثناه، الطائ...</t>
+  </si>
+  <si>
+    <t>9042، الطائف ا...</t>
+  </si>
+  <si>
+    <t>TAAG9113، 4654...</t>
+  </si>
+  <si>
+    <t>7072 شارع شبرا...</t>
+  </si>
+  <si>
+    <t>طريق الشفا، ال...</t>
+  </si>
+  <si>
+    <t>6524 طريق الشف...</t>
+  </si>
+  <si>
+    <t>شارع الستين، ش...</t>
+  </si>
+  <si>
+    <t>شارع الستين،، ...</t>
+  </si>
+  <si>
+    <t>حي الاخباب، ال...</t>
+  </si>
+  <si>
+    <t>FF4M+F85 بجوار...</t>
+  </si>
+  <si>
+    <t>4104 حي جبرة 8...</t>
+  </si>
+  <si>
+    <t>2304 شهار، حي ...</t>
+  </si>
+  <si>
+    <t>جبره، الطائف 2...</t>
+  </si>
+  <si>
+    <t>9004، نخب، الط...</t>
+  </si>
+  <si>
+    <t>9JP7+GM3، حي ر...</t>
+  </si>
+  <si>
+    <t>7904 الإمام أح...</t>
+  </si>
+  <si>
+    <t>6218 جذامة بنت...</t>
+  </si>
+  <si>
+    <t>4114 Second Ri...</t>
+  </si>
+  <si>
+    <t>9JP8+7R3، شورا...</t>
+  </si>
+  <si>
+    <t>CMXH+25، مذينب...</t>
+  </si>
+  <si>
+    <t>CGWP+PGH، الدف...</t>
+  </si>
+  <si>
+    <t>بشار بن عدي ال...</t>
+  </si>
+  <si>
+    <t>7859 طريق الام...</t>
+  </si>
+  <si>
+    <t>ابو كبير، طريق...</t>
+  </si>
+  <si>
+    <t>4936 العباس بن...</t>
+  </si>
+  <si>
+    <t>FM26+VV3، ثابت...</t>
+  </si>
+  <si>
+    <t>6994 Al Jamiat...</t>
+  </si>
+  <si>
+    <t>، حي حمراء الأ...</t>
+  </si>
+  <si>
+    <t>4696، 7821، ال...</t>
+  </si>
+  <si>
+    <t>FJ38+52R، جابر...</t>
+  </si>
+  <si>
+    <t>فضاله بن هلال ...</t>
+  </si>
+  <si>
+    <t>بضاعة، المدينة...</t>
+  </si>
+  <si>
+    <t>حي، طريق سلطان...</t>
+  </si>
+  <si>
     <t>شارع الملك عبد...</t>
   </si>
   <si>
-    <t>الروابي، الخبر...</t>
-  </si>
-  <si>
-    <t>طريق الرياض ال...</t>
-  </si>
-  <si>
-    <t>CQ69+7X2، 3815...</t>
-  </si>
-  <si>
-    <t>7R7V+JJM، الأم...</t>
-  </si>
-  <si>
-    <t>6862, 5041, صف...</t>
-  </si>
-  <si>
-    <t>GHF9+VM7، الزه...</t>
-  </si>
-  <si>
-    <t>QM47+MXX, الرم...</t>
-  </si>
-  <si>
-    <t>M4V4+64P حي، ا...</t>
-  </si>
-  <si>
-    <t>2547+QR8, 5060...</t>
-  </si>
-  <si>
-    <t>طريق أنس ابن م...</t>
-  </si>
-  <si>
-    <t>الكورنيش، الخب...</t>
-  </si>
-  <si>
-    <t>طريق قباء، شور...</t>
-  </si>
-  <si>
-    <t>6090، 2580 طري...</t>
-  </si>
-  <si>
-    <t>HMQM+JQX، الشي...</t>
-  </si>
-  <si>
-    <t>GMMR+WC، المطا...</t>
-  </si>
-  <si>
-    <t>6552 احمد بن ش...</t>
-  </si>
-  <si>
-    <t>طريق الخليج، ا...</t>
-  </si>
-  <si>
-    <t>6582 طریق المس...</t>
-  </si>
-  <si>
-    <t>7WCQ+J89، مكة ...</t>
-  </si>
-  <si>
-    <t>4347, 7634, Al...</t>
+    <t>CM94+C98، شارع...</t>
+  </si>
+  <si>
+    <t>حي، خالد بن عق...</t>
+  </si>
+  <si>
+    <t>حي أرض الكردي ...</t>
+  </si>
+  <si>
+    <t>سعد بن عثمان، ...</t>
+  </si>
+  <si>
+    <t>داخل بوليفارد،...</t>
+  </si>
+  <si>
+    <t>شارع سلطانة مد...</t>
+  </si>
+  <si>
+    <t>طريق الامير مح...</t>
+  </si>
+  <si>
+    <t>الأمير مقرن بن...</t>
+  </si>
+  <si>
+    <t>سفيان بن بشر، ...</t>
+  </si>
+  <si>
+    <t>7729 طريق علي ...</t>
+  </si>
+  <si>
+    <t>العنبرية، المد...</t>
+  </si>
+  <si>
+    <t>CGC4+M2C، العز...</t>
+  </si>
+  <si>
+    <t>جابر بن عتيك، ...</t>
+  </si>
+  <si>
+    <t>مهزور،، المدين...</t>
+  </si>
+  <si>
+    <t>حي, 2640 طريق ...</t>
+  </si>
+  <si>
+    <t>طريق الأمير عب...</t>
+  </si>
+  <si>
+    <t>4916 شارع القص...</t>
+  </si>
+  <si>
+    <t>Prince Mohamme...</t>
+  </si>
+  <si>
+    <t>7020-7038 بجان...</t>
+  </si>
+  <si>
+    <t>شارع الأربعين،...</t>
+  </si>
+  <si>
+    <t>طريق الأمير نا...</t>
+  </si>
+  <si>
+    <t>الدفاع، المدين...</t>
+  </si>
+  <si>
+    <t>على بت مسعد ال...</t>
+  </si>
+  <si>
+    <t>شارع الأمير نا...</t>
+  </si>
+  <si>
+    <t>الربيع الأنصار...</t>
+  </si>
+  <si>
+    <t>جانب محطه الوق...</t>
+  </si>
+  <si>
+    <t>CGXF+QG9، الام...</t>
+  </si>
+  <si>
+    <t>7647 الامام مس...</t>
+  </si>
+  <si>
+    <t>6223، 3518 الا...</t>
+  </si>
+  <si>
+    <t>Block, 6772 Al...</t>
+  </si>
+  <si>
+    <t>جنادة بن مالك ...</t>
+  </si>
+  <si>
+    <t>الامام مسلم، ا...</t>
+  </si>
+  <si>
+    <t>الدفاع،، المدي...</t>
+  </si>
+  <si>
+    <t>ابن ماجة، الدف...</t>
+  </si>
+  <si>
+    <t>4609 طريق الجا...</t>
+  </si>
+  <si>
+    <t>الذهبي، طويق، ...</t>
+  </si>
+  <si>
+    <t>احمد بن الخطاب...</t>
+  </si>
+  <si>
+    <t>عثمان بن صدقة،...</t>
+  </si>
+  <si>
+    <t>عائشة بنت أبي ...</t>
+  </si>
+  <si>
+    <t>شارع الطائف، ظ...</t>
+  </si>
+  <si>
+    <t>2790 ابي زكريا...</t>
+  </si>
+  <si>
+    <t>2149, الرياض 1...</t>
+  </si>
+  <si>
+    <t>بارك افنيو، قر...</t>
+  </si>
+  <si>
+    <t>رضوى، قرطبة، ا...</t>
+  </si>
+  <si>
+    <t>الرشد، قرطبة، ...</t>
+  </si>
+  <si>
+    <t>KAPSARC, مطار ...</t>
+  </si>
+  <si>
+    <t>شارع طارق بن ز...</t>
+  </si>
+  <si>
+    <t>طريق ابي بكر ا...</t>
+  </si>
+  <si>
+    <t>قريش، السداد، ...</t>
+  </si>
+  <si>
+    <t>50th St, حي ال...</t>
+  </si>
+  <si>
+    <t>خالد محمد علي ...</t>
+  </si>
+  <si>
+    <t>شهار، العام، ا...</t>
+  </si>
+  <si>
+    <t>Wadi wej، الفي...</t>
+  </si>
+  <si>
+    <t>شارع شهيد الدي...</t>
+  </si>
+  <si>
+    <t>شارع سداد، شها...</t>
+  </si>
+  <si>
+    <t>شهار الستين، ا...</t>
+  </si>
+  <si>
+    <t>Near King Fahd...</t>
+  </si>
+  <si>
+    <t>7274، شهار، ال...</t>
+  </si>
+  <si>
+    <t>وادي وج، جبره،...</t>
+  </si>
+  <si>
+    <t>حي، طريق المطا...</t>
+  </si>
+  <si>
+    <t>طريق رحاب، ريح...</t>
+  </si>
+  <si>
+    <t>طريق المطار،، ...</t>
+  </si>
+  <si>
+    <t>الوسام 3، حي ا...</t>
+  </si>
+  <si>
+    <t>2166 حي سلطانة...</t>
+  </si>
+  <si>
+    <t>طريق الشفا الد...</t>
+  </si>
+  <si>
+    <t>الشفا 23331، ا...</t>
+  </si>
+  <si>
+    <t>4497 الصناعية،...</t>
+  </si>
+  <si>
+    <t>TAUB8227، 8227...</t>
+  </si>
+  <si>
+    <t>مجمع الظهران، ...</t>
+  </si>
+  <si>
+    <t>العلا 43562، ا...</t>
+  </si>
+  <si>
+    <t>حي السلطانيه ا...</t>
+  </si>
+  <si>
+    <t>شارع خيبر، الع...</t>
+  </si>
+  <si>
+    <t>الامير محمد بن...</t>
+  </si>
+  <si>
+    <t>عمر بن عبدالعز...</t>
+  </si>
+  <si>
+    <t>الملك فيصل، ال...</t>
+  </si>
+  <si>
+    <t>3862 طريق المد...</t>
+  </si>
+  <si>
+    <t>88HX+G24، طريق...</t>
+  </si>
+  <si>
+    <t>8925 عمر بن عب...</t>
+  </si>
+  <si>
+    <t>C72H+GJJ, 65، ...</t>
+  </si>
+  <si>
+    <t>شارع عبدالله ب...</t>
+  </si>
+  <si>
+    <t>شارع الفتح، ال...</t>
+  </si>
+  <si>
+    <t>HX7F+42، المشت...</t>
+  </si>
+  <si>
+    <t>حي الزمرد، EGM...</t>
+  </si>
+  <si>
+    <t>شارع الجزيرة، ...</t>
+  </si>
+  <si>
+    <t>الكورنيش، القن...</t>
+  </si>
+  <si>
+    <t>king faisel bi...</t>
+  </si>
+  <si>
+    <t>طريق جدة جازان...</t>
+  </si>
+  <si>
+    <t>574Q+6P4، اللي...</t>
   </si>
   <si>
     <t>طريق الكورنيش،...</t>
   </si>
   <si>
-    <t>8219 شارع جعفر...</t>
-  </si>
-  <si>
-    <t>4013 شارع القم...</t>
-  </si>
-  <si>
-    <t>3XHG+653, شارع...</t>
-  </si>
-  <si>
-    <t>7CGW+PHG، شارع...</t>
-  </si>
-  <si>
-    <t>Ed, طريق ديراب...</t>
-  </si>
-  <si>
-    <t>فلسطين، بني ما...</t>
-  </si>
-  <si>
-    <t>طريق الشيخ محم...</t>
-  </si>
-  <si>
-    <t>2665+P5، الجاب...</t>
-  </si>
-  <si>
-    <t>2654+9WX، الرح...</t>
-  </si>
-  <si>
-    <t>طريق الإمام سع...</t>
-  </si>
-  <si>
-    <t>4745 بيعة العق...</t>
-  </si>
-  <si>
-    <t>7165 1st Ring ...</t>
-  </si>
-  <si>
-    <t>7229 طريق الهج...</t>
-  </si>
-  <si>
-    <t>جازان 82722، ا...</t>
-  </si>
-  <si>
-    <t>شارع الجوهري، ...</t>
-  </si>
-  <si>
-    <t>88JV+WWQ، الحم...</t>
-  </si>
-  <si>
-    <t>حي النزله، الن...</t>
-  </si>
-  <si>
-    <t>الفاخرية، الري...</t>
-  </si>
-  <si>
-    <t>عمر بن الخطاب،...</t>
-  </si>
-  <si>
-    <t>76P7+W3V، حي ا...</t>
-  </si>
-  <si>
-    <t>سلمان الفارسي،...</t>
-  </si>
-  <si>
-    <t>3433 طريق المل...</t>
-  </si>
-  <si>
-    <t>الملز، 7731-77...</t>
-  </si>
-  <si>
-    <t>977C+4F8، 4244...</t>
-  </si>
-  <si>
-    <t>2937 طريق الدم...</t>
-  </si>
-  <si>
-    <t>طريق المطار، ج...</t>
-  </si>
-  <si>
-    <t>9V9F+6H3، بجوا...</t>
-  </si>
-  <si>
-    <t>3280، 6496 يحل...</t>
-  </si>
-  <si>
-    <t>3826 شارع الام...</t>
-  </si>
-  <si>
-    <t>اسواق بن دايل،...</t>
-  </si>
-  <si>
-    <t>CX7F+899، شارع...</t>
-  </si>
-  <si>
-    <t>الشارع الأول، ...</t>
-  </si>
-  <si>
-    <t>طريق الامام تر...</t>
-  </si>
-  <si>
-    <t>شارع حجر بن عد...</t>
-  </si>
-  <si>
-    <t>2716-2604 روضة...</t>
-  </si>
-  <si>
-    <t>شهار، 7317 شها...</t>
-  </si>
-  <si>
-    <t>8133 طريق المل...</t>
-  </si>
-  <si>
-    <t>محمد علي جناح،...</t>
-  </si>
-  <si>
-    <t>الملك فيصل الغ...</t>
-  </si>
-  <si>
-    <t>FJ27+3Q8، الجم...</t>
-  </si>
-  <si>
-    <t>2801 طريق الأم...</t>
-  </si>
-  <si>
-    <t>الخزامى، 7155،...</t>
-  </si>
-  <si>
-    <t>شارع أبي شداد،...</t>
-  </si>
-  <si>
-    <t>9HRR+583، السل...</t>
-  </si>
-  <si>
-    <t>بني خدرة، المد...</t>
-  </si>
-  <si>
-    <t>2720 حفصة بنت ...</t>
-  </si>
-  <si>
-    <t>5744 بلال بن ر...</t>
-  </si>
-  <si>
-    <t>العام، مقابل م...</t>
-  </si>
-  <si>
-    <t>5W2X+32، النزه...</t>
-  </si>
-  <si>
-    <t>2510 طريق المل...</t>
-  </si>
-  <si>
-    <t>7446 الشيخ عبد...</t>
-  </si>
-  <si>
-    <t>9XM7+WV8، شارع...</t>
-  </si>
-  <si>
-    <t>6JHW+8XG 273، ...</t>
-  </si>
-  <si>
-    <t>PMHC+74M، العس...</t>
-  </si>
-  <si>
-    <t>طريق الامير سل...</t>
-  </si>
-  <si>
-    <t>حي، طريق الملك...</t>
-  </si>
-  <si>
-    <t>7928، الصفراء،...</t>
-  </si>
-  <si>
-    <t>علي بن ابي طال...</t>
-  </si>
-  <si>
-    <t>طريق أملج، الم...</t>
-  </si>
-  <si>
-    <t>وادي هجر، المل...</t>
-  </si>
-  <si>
-    <t>9GWR+J7Q، النه...</t>
-  </si>
-  <si>
-    <t>+966596179450</t>
-  </si>
-  <si>
-    <t>+966560914933</t>
-  </si>
-  <si>
-    <t>+966143912178</t>
-  </si>
-  <si>
-    <t>+966530651728</t>
-  </si>
-  <si>
-    <t>+966537684896</t>
-  </si>
-  <si>
-    <t>+966563074036</t>
-  </si>
-  <si>
-    <t>+966920012345</t>
-  </si>
-  <si>
-    <t>+966571717151</t>
-  </si>
-  <si>
-    <t>+966558877414</t>
-  </si>
-  <si>
-    <t>+966534998161</t>
-  </si>
-  <si>
-    <t>+966148255505</t>
-  </si>
-  <si>
-    <t>+966531293229</t>
-  </si>
-  <si>
-    <t>+966532793590</t>
-  </si>
-  <si>
-    <t>+966138148900</t>
-  </si>
-  <si>
-    <t>+966503470004</t>
-  </si>
-  <si>
-    <t>+966535143390</t>
-  </si>
-  <si>
-    <t>+966580241672</t>
-  </si>
-  <si>
-    <t>+966503918020</t>
-  </si>
-  <si>
-    <t>+966503937332</t>
-  </si>
-  <si>
-    <t>+966503394495</t>
-  </si>
-  <si>
-    <t>+966544428667</t>
-  </si>
-  <si>
-    <t>+966114103172</t>
-  </si>
-  <si>
-    <t>+966554702229</t>
-  </si>
-  <si>
-    <t>+966125435000</t>
-  </si>
-  <si>
-    <t>+966114244616</t>
-  </si>
-  <si>
-    <t>+966920011100</t>
-  </si>
-  <si>
-    <t>+966544780111</t>
-  </si>
-  <si>
-    <t>+966554339507</t>
-  </si>
-  <si>
-    <t>+966500163041</t>
-  </si>
-  <si>
-    <t>+966555259159</t>
+    <t>طريق الملك فيص...</t>
+  </si>
+  <si>
+    <t>King Abdullah ...</t>
+  </si>
+  <si>
+    <t>FMDA7579، 3297...</t>
+  </si>
+  <si>
+    <t>شارع المدينة ا...</t>
+  </si>
+  <si>
+    <t>حي السلام، الم...</t>
+  </si>
+  <si>
+    <t>3WWF+CHW، الصن...</t>
+  </si>
+  <si>
+    <t>مثلث العسبلي، ...</t>
+  </si>
+  <si>
+    <t>الأندلس، المجا...</t>
+  </si>
+  <si>
+    <t>طريق الرياض - ...</t>
+  </si>
+  <si>
+    <t>شارع الأمير ثن...</t>
+  </si>
+  <si>
+    <t>طريق الأمير سل...</t>
+  </si>
+  <si>
+    <t>4033 Osayd Bin...</t>
+  </si>
+  <si>
+    <t>Thoban Bin Ibr...</t>
+  </si>
+  <si>
+    <t>6374 طريق الجب...</t>
+  </si>
+  <si>
+    <t>https://goo.gl...</t>
+  </si>
+  <si>
+    <t>الفيصلية، الدم...</t>
+  </si>
+  <si>
+    <t>+966509134923</t>
+  </si>
+  <si>
+    <t>+966540582578</t>
+  </si>
+  <si>
+    <t>+966920007275</t>
+  </si>
+  <si>
+    <t>+966550850564</t>
+  </si>
+  <si>
+    <t>+966561423111</t>
+  </si>
+  <si>
+    <t>+966591215683</t>
+  </si>
+  <si>
+    <t>+966127483770</t>
+  </si>
+  <si>
+    <t>+966552373888</t>
+  </si>
+  <si>
+    <t>+966573291428</t>
+  </si>
+  <si>
+    <t>+966507405402</t>
+  </si>
+  <si>
+    <t>+966920000129</t>
+  </si>
+  <si>
+    <t>+966591531052</t>
+  </si>
+  <si>
+    <t>+966505119984</t>
+  </si>
+  <si>
+    <t>+966536229738</t>
+  </si>
+  <si>
+    <t>+9668001245600...</t>
+  </si>
+  <si>
+    <t>+966542250193</t>
+  </si>
+  <si>
+    <t>+966127333304</t>
+  </si>
+  <si>
+    <t>+966920023470</t>
+  </si>
+  <si>
+    <t>+966507232429</t>
+  </si>
+  <si>
+    <t>+966556048299</t>
+  </si>
+  <si>
+    <t>+966127310705</t>
+  </si>
+  <si>
+    <t>+966127367070</t>
+  </si>
+  <si>
+    <t>+966552559898</t>
+  </si>
+  <si>
+    <t>+966501116779</t>
+  </si>
+  <si>
+    <t>+966547018954</t>
+  </si>
+  <si>
+    <t>+966506703003</t>
+  </si>
+  <si>
+    <t>+966552856355</t>
+  </si>
+  <si>
+    <t>+966505303329</t>
+  </si>
+  <si>
+    <t>+966538817822</t>
+  </si>
+  <si>
+    <t>+966535544799</t>
+  </si>
+  <si>
+    <t>+966558907133</t>
+  </si>
+  <si>
+    <t>+966568434166</t>
+  </si>
+  <si>
+    <t>+966500657600</t>
+  </si>
+  <si>
+    <t>+966127425888</t>
+  </si>
+  <si>
+    <t>+966531312720</t>
+  </si>
+  <si>
+    <t>+966127376501</t>
+  </si>
+  <si>
+    <t>+966552227809</t>
+  </si>
+  <si>
+    <t>+966551460014</t>
+  </si>
+  <si>
+    <t>+966509459300</t>
+  </si>
+  <si>
+    <t>+966553475608</t>
+  </si>
+  <si>
+    <t>+966511085850</t>
+  </si>
+  <si>
+    <t>+966500680130</t>
+  </si>
+  <si>
+    <t>+966127322290</t>
+  </si>
+  <si>
+    <t>+966531534454</t>
+  </si>
+  <si>
+    <t>+9665380878292...</t>
+  </si>
+  <si>
+    <t>+966544665817</t>
+  </si>
+  <si>
+    <t>+966545932223</t>
+  </si>
+  <si>
+    <t>+966127341287</t>
+  </si>
+  <si>
+    <t>+966501295905</t>
+  </si>
+  <si>
+    <t>+966127346940</t>
+  </si>
+  <si>
+    <t>+966506477708</t>
+  </si>
+  <si>
+    <t>+966539559556</t>
+  </si>
+  <si>
+    <t>+966569029078</t>
+  </si>
+  <si>
+    <t>+966551053982</t>
+  </si>
+  <si>
+    <t>+966563190316</t>
+  </si>
+  <si>
+    <t>+966571783856</t>
+  </si>
+  <si>
+    <t>+966580253413</t>
+  </si>
+  <si>
+    <t>+966920022997</t>
+  </si>
+  <si>
+    <t>+966552211562</t>
+  </si>
+  <si>
+    <t>+966590307769</t>
+  </si>
+  <si>
+    <t>+966543447191</t>
+  </si>
+  <si>
+    <t>+966531922977</t>
+  </si>
+  <si>
+    <t>+966550998872</t>
+  </si>
+  <si>
+    <t>+966555663758</t>
+  </si>
+  <si>
+    <t>+966148255313</t>
+  </si>
+  <si>
+    <t>+966550408010</t>
+  </si>
+  <si>
+    <t>+966580107077</t>
+  </si>
+  <si>
+    <t>+966599141611</t>
+  </si>
+  <si>
+    <t>+9668002444005...</t>
+  </si>
+  <si>
+    <t>+966502705101</t>
+  </si>
+  <si>
+    <t>+966531000718</t>
+  </si>
+  <si>
+    <t>+966556665258</t>
+  </si>
+  <si>
+    <t>+966567836644</t>
+  </si>
+  <si>
+    <t>+966920000381</t>
+  </si>
+  <si>
+    <t>+966148464643</t>
+  </si>
+  <si>
+    <t>+966509498500</t>
+  </si>
+  <si>
+    <t>+966508624209</t>
+  </si>
+  <si>
+    <t>+966545998440</t>
+  </si>
+  <si>
+    <t>+966148265124</t>
+  </si>
+  <si>
+    <t>+966533636842</t>
+  </si>
+  <si>
+    <t>+966543013240</t>
+  </si>
+  <si>
+    <t>+966530672703</t>
+  </si>
+  <si>
+    <t>+966557031920</t>
+  </si>
+  <si>
+    <t>+966561310273</t>
+  </si>
+  <si>
+    <t>+966595105559</t>
+  </si>
+  <si>
+    <t>+966533694877</t>
+  </si>
+  <si>
+    <t>+966550041125</t>
+  </si>
+  <si>
+    <t>+966546811320</t>
+  </si>
+  <si>
+    <t>+966533002270</t>
+  </si>
+  <si>
+    <t>+966530300505</t>
+  </si>
+  <si>
+    <t>+966555835977</t>
+  </si>
+  <si>
+    <t>+966920006999</t>
+  </si>
+  <si>
+    <t>+966594775936</t>
+  </si>
+  <si>
+    <t>+966564090895</t>
+  </si>
+  <si>
+    <t>+966148448171</t>
+  </si>
+  <si>
+    <t>+966551410400</t>
+  </si>
+  <si>
+    <t>+966591455285</t>
+  </si>
+  <si>
+    <t>+966547478321</t>
   </si>
   <si>
     <t>+966920006200</t>
   </si>
   <si>
-    <t>+966561608877</t>
-  </si>
-  <si>
-    <t>+966920022997</t>
-  </si>
-  <si>
-    <t>+966500799908</t>
-  </si>
-  <si>
-    <t>+966568088419</t>
-  </si>
-  <si>
-    <t>+966590343773</t>
-  </si>
-  <si>
-    <t>+966143927755</t>
-  </si>
-  <si>
-    <t>+966509615648</t>
-  </si>
-  <si>
-    <t>+966580105774</t>
-  </si>
-  <si>
-    <t>+966503207511</t>
-  </si>
-  <si>
-    <t>+966555277494</t>
-  </si>
-  <si>
-    <t>+966920006843</t>
-  </si>
-  <si>
-    <t>+966555985546</t>
-  </si>
-  <si>
-    <t>+966501847639</t>
-  </si>
-  <si>
-    <t>+966531006636</t>
-  </si>
-  <si>
-    <t>+966542033865</t>
-  </si>
-  <si>
-    <t>+966564762482</t>
-  </si>
-  <si>
-    <t>+966577414141</t>
-  </si>
-  <si>
-    <t>+966554832030</t>
-  </si>
-  <si>
-    <t>+966537541545</t>
-  </si>
-  <si>
-    <t>+966138236000</t>
-  </si>
-  <si>
-    <t>+966561073504</t>
-  </si>
-  <si>
-    <t>+966536404090</t>
-  </si>
-  <si>
-    <t>+966580395128</t>
-  </si>
-  <si>
-    <t>+966533342307</t>
-  </si>
-  <si>
-    <t>+966547140786</t>
-  </si>
-  <si>
-    <t>+966502119853</t>
-  </si>
-  <si>
-    <t>+966501143177</t>
-  </si>
-  <si>
-    <t>+966569260403</t>
-  </si>
-  <si>
-    <t>+966544407116</t>
-  </si>
-  <si>
-    <t>+966544563181</t>
-  </si>
-  <si>
-    <t>+966920002223</t>
-  </si>
-  <si>
-    <t>+966163804000</t>
-  </si>
-  <si>
-    <t>+966531118266</t>
-  </si>
-  <si>
-    <t>+966569511048</t>
-  </si>
-  <si>
-    <t>+966144273019</t>
-  </si>
-  <si>
-    <t>https://twitte...</t>
+    <t>+966575592923</t>
+  </si>
+  <si>
+    <t>+966509341009</t>
+  </si>
+  <si>
+    <t>+966560948567</t>
+  </si>
+  <si>
+    <t>+966531415177</t>
+  </si>
+  <si>
+    <t>+966568009023</t>
+  </si>
+  <si>
+    <t>+966581016301</t>
+  </si>
+  <si>
+    <t>+966533396486</t>
+  </si>
+  <si>
+    <t>+966563100508</t>
+  </si>
+  <si>
+    <t>+966582023567</t>
+  </si>
+  <si>
+    <t>+966565158880</t>
+  </si>
+  <si>
+    <t>+966536481341</t>
+  </si>
+  <si>
+    <t>+966508734594</t>
+  </si>
+  <si>
+    <t>+966580588556</t>
+  </si>
+  <si>
+    <t>+966556800394</t>
+  </si>
+  <si>
+    <t>+966559927222</t>
+  </si>
+  <si>
+    <t>+966556468185</t>
+  </si>
+  <si>
+    <t>+966503317852</t>
+  </si>
+  <si>
+    <t>+966538384307</t>
+  </si>
+  <si>
+    <t>+966135756664</t>
+  </si>
+  <si>
+    <t>+966551933933</t>
+  </si>
+  <si>
+    <t>+966577135351</t>
+  </si>
+  <si>
+    <t>+966561814175</t>
+  </si>
+  <si>
+    <t>+966112907591</t>
+  </si>
+  <si>
+    <t>+966501582540</t>
+  </si>
+  <si>
+    <t>+966560753309</t>
+  </si>
+  <si>
+    <t>+966501183800</t>
+  </si>
+  <si>
+    <t>+966566373727</t>
+  </si>
+  <si>
+    <t>+966570410099</t>
+  </si>
+  <si>
+    <t>+966557191735</t>
+  </si>
+  <si>
+    <t>+966545909467</t>
+  </si>
+  <si>
+    <t>+966597972131</t>
+  </si>
+  <si>
+    <t>+966507751000</t>
+  </si>
+  <si>
+    <t>+966531136409</t>
+  </si>
+  <si>
+    <t>+966590232827</t>
+  </si>
+  <si>
+    <t>+966578726613</t>
+  </si>
+  <si>
+    <t>+966549911955</t>
+  </si>
+  <si>
+    <t>+966562019358</t>
+  </si>
+  <si>
+    <t>+966536558833</t>
+  </si>
+  <si>
+    <t>+966544116326</t>
+  </si>
+  <si>
+    <t>+966537474706</t>
+  </si>
+  <si>
+    <t>+966508662383</t>
+  </si>
+  <si>
+    <t>+966582440876</t>
+  </si>
+  <si>
+    <t>+966567605617</t>
+  </si>
+  <si>
+    <t>+966554560810</t>
+  </si>
+  <si>
+    <t>+966535443044</t>
+  </si>
+  <si>
+    <t>+966544309277</t>
+  </si>
+  <si>
+    <t>+966549777556</t>
+  </si>
+  <si>
+    <t>+966556665786</t>
+  </si>
+  <si>
+    <t>+966920014024</t>
+  </si>
+  <si>
+    <t>+966920033798</t>
+  </si>
+  <si>
+    <t>+966500789498</t>
+  </si>
+  <si>
+    <t>+966559971988</t>
+  </si>
+  <si>
+    <t>+966561003066</t>
+  </si>
+  <si>
+    <t>+966566003030</t>
+  </si>
+  <si>
+    <t>+966510802563</t>
+  </si>
+  <si>
+    <t>+966503696333</t>
+  </si>
+  <si>
+    <t>+966508315019</t>
+  </si>
+  <si>
+    <t>+966146420010</t>
+  </si>
+  <si>
+    <t>+966534291170</t>
+  </si>
+  <si>
+    <t>+966553189614</t>
+  </si>
+  <si>
+    <t>+966543770497</t>
+  </si>
+  <si>
+    <t>+966502807502</t>
+  </si>
+  <si>
+    <t>+966553604561</t>
+  </si>
+  <si>
+    <t>+966544249250</t>
+  </si>
+  <si>
+    <t>+966500047042</t>
+  </si>
+  <si>
+    <t>+966553310802</t>
+  </si>
+  <si>
+    <t>+966561568494</t>
+  </si>
+  <si>
+    <t>+966531275443</t>
+  </si>
+  <si>
+    <t>+966502340719</t>
+  </si>
+  <si>
+    <t>+966590474262</t>
+  </si>
+  <si>
+    <t>+966531550018</t>
+  </si>
+  <si>
+    <t>+966544212901</t>
+  </si>
+  <si>
+    <t>+966572546690</t>
+  </si>
+  <si>
+    <t>+966506962020</t>
+  </si>
+  <si>
+    <t>+966539733163</t>
+  </si>
+  <si>
+    <t>+966531857093</t>
+  </si>
+  <si>
+    <t>+966552505632</t>
+  </si>
+  <si>
+    <t>+966532754847</t>
+  </si>
+  <si>
+    <t>+966571442595</t>
+  </si>
+  <si>
+    <t>+966551240970</t>
+  </si>
+  <si>
+    <t>+966506240568</t>
+  </si>
+  <si>
+    <t>+9668001288999...</t>
+  </si>
+  <si>
+    <t>+966591011199</t>
+  </si>
+  <si>
+    <t>https://crazyp...</t>
+  </si>
+  <si>
+    <t>https://www.il...</t>
   </si>
   <si>
     <t>https://www.in...</t>
   </si>
   <si>
-    <t>https://sarihc...</t>
-  </si>
-  <si>
-    <t>https://www.do...</t>
-  </si>
-  <si>
-    <t>https://compil...</t>
-  </si>
-  <si>
-    <t>http://www.cro...</t>
+    <t>http://5.254.1...</t>
+  </si>
+  <si>
+    <t>https://sbarro...</t>
+  </si>
+  <si>
+    <t>https://order....</t>
   </si>
   <si>
     <t>https://instag...</t>
   </si>
   <si>
-    <t>https://cafe-3...</t>
+    <t>https://hashem...</t>
+  </si>
+  <si>
+    <t>https://www.fb...</t>
+  </si>
+  <si>
+    <t>http://www.sub...</t>
+  </si>
+  <si>
+    <t>https://qr.fin...</t>
+  </si>
+  <si>
+    <t>https://cheese...</t>
+  </si>
+  <si>
+    <t>https://partyb...</t>
+  </si>
+  <si>
+    <t>http://onelink...</t>
+  </si>
+  <si>
+    <t>https://ahlans...</t>
+  </si>
+  <si>
+    <t>https://kaakwa...</t>
   </si>
   <si>
     <t>https://sites....</t>
   </si>
   <si>
-    <t>http://spreadr...</t>
-  </si>
-  <si>
-    <t>http://www.sub...</t>
+    <t>https://linktr...</t>
+  </si>
+  <si>
+    <t>https://busine...</t>
+  </si>
+  <si>
+    <t>https://www.bu...</t>
+  </si>
+  <si>
+    <t>https://mssg.m...</t>
+  </si>
+  <si>
+    <t>https://www.sh...</t>
+  </si>
+  <si>
+    <t>https://grill-...</t>
+  </si>
+  <si>
+    <t>https://hunger...</t>
+  </si>
+  <si>
+    <t>https://www.ku...</t>
   </si>
   <si>
     <t>https://jeddah...</t>
   </si>
   <si>
-    <t>http://www.pop...</t>
-  </si>
-  <si>
-    <t>http://www.bur...</t>
-  </si>
-  <si>
-    <t>https://tgifri...</t>
-  </si>
-  <si>
-    <t>http://www.chi...</t>
-  </si>
-  <si>
-    <t>https://barns....</t>
-  </si>
-  <si>
-    <t>https://fast-f...</t>
-  </si>
-  <si>
-    <t>http://halfm.s...</t>
-  </si>
-  <si>
-    <t>https://hissta...</t>
-  </si>
-  <si>
-    <t>https://restau...</t>
-  </si>
-  <si>
-    <t>https://theoli...</t>
-  </si>
-  <si>
-    <t>https://lorenz...</t>
-  </si>
-  <si>
-    <t>https://t.snap...</t>
-  </si>
-  <si>
     <t>https://www.su...</t>
   </si>
   <si>
-    <t>http://www.kha...</t>
-  </si>
-  <si>
-    <t>https://linktr...</t>
+    <t>https://grapel...</t>
+  </si>
+  <si>
+    <t>https://www.24...</t>
+  </si>
+  <si>
+    <t>https://okmenu...</t>
+  </si>
+  <si>
+    <t>https://www.se...</t>
+  </si>
+  <si>
+    <t>https://social...</t>
+  </si>
+  <si>
+    <t>https://heylin...</t>
+  </si>
+  <si>
+    <t>https://www.la...</t>
+  </si>
+  <si>
+    <t>http://linktr....</t>
+  </si>
+  <si>
+    <t>https://tenlou...</t>
+  </si>
+  <si>
+    <t>https://cinnab...</t>
+  </si>
+  <si>
+    <t>https://www.co...</t>
+  </si>
+  <si>
+    <t>https://defalu...</t>
+  </si>
+  <si>
+    <t>http://bew-caf...</t>
+  </si>
+  <si>
+    <t>http://www.ben...</t>
+  </si>
+  <si>
+    <t>https://coffem...</t>
+  </si>
+  <si>
+    <t>https://roadca...</t>
+  </si>
+  <si>
+    <t>https://www.du...</t>
+  </si>
+  <si>
+    <t>http://simplic...</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +2805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,19 +2845,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>397</v>
       </c>
       <c r="G2" t="s">
-        <v>324</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1698,19 +2868,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="F3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
+      </c>
+      <c r="G3" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1721,16 +2891,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="F4" t="s">
-        <v>227</v>
+        <v>399</v>
+      </c>
+      <c r="G4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1741,22 +2917,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>325</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>391</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1767,22 +2940,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>401</v>
       </c>
       <c r="G6" t="s">
-        <v>326</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>392</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1793,19 +2963,22 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s">
-        <v>230</v>
+        <v>402</v>
       </c>
       <c r="G7" t="s">
-        <v>327</v>
+        <v>585</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1816,19 +2989,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="F8" t="s">
-        <v>231</v>
+        <v>403</v>
       </c>
       <c r="G8" t="s">
-        <v>328</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1839,19 +3012,22 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>404</v>
       </c>
       <c r="G9" t="s">
-        <v>329</v>
+        <v>587</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1862,22 +3038,19 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
-        <v>233</v>
+        <v>405</v>
       </c>
       <c r="G10" t="s">
-        <v>330</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>393</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1888,19 +3061,22 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="F11" t="s">
-        <v>234</v>
+        <v>406</v>
       </c>
       <c r="G11" t="s">
-        <v>331</v>
+        <v>589</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1911,22 +3087,22 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="F12" t="s">
-        <v>235</v>
+        <v>407</v>
       </c>
       <c r="G12" t="s">
-        <v>332</v>
+        <v>590</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>394</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1937,16 +3113,19 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="F13" t="s">
-        <v>236</v>
+        <v>408</v>
+      </c>
+      <c r="G13" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1957,19 +3136,19 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="F14" t="s">
-        <v>237</v>
+        <v>409</v>
       </c>
       <c r="G14" t="s">
-        <v>333</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1980,19 +3159,19 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="F15" t="s">
-        <v>238</v>
+        <v>410</v>
       </c>
       <c r="G15" t="s">
-        <v>334</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2003,19 +3182,22 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="F16" t="s">
-        <v>239</v>
+        <v>411</v>
       </c>
       <c r="G16" t="s">
-        <v>335</v>
+        <v>594</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2026,19 +3208,22 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="F17" t="s">
-        <v>240</v>
+        <v>404</v>
       </c>
       <c r="G17" t="s">
-        <v>336</v>
+        <v>595</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2049,22 +3234,19 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="F18" t="s">
-        <v>241</v>
+        <v>412</v>
       </c>
       <c r="G18" t="s">
-        <v>337</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>395</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2075,22 +3257,22 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="F19" t="s">
-        <v>242</v>
+        <v>404</v>
       </c>
       <c r="G19" t="s">
-        <v>338</v>
+        <v>597</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>396</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2101,22 +3283,19 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>413</v>
       </c>
       <c r="G20" t="s">
-        <v>339</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>397</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2127,22 +3306,22 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="F21" t="s">
-        <v>244</v>
+        <v>414</v>
       </c>
       <c r="G21" t="s">
-        <v>340</v>
+        <v>599</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>396</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2153,16 +3332,19 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="F22" t="s">
-        <v>245</v>
+        <v>415</v>
+      </c>
+      <c r="G22" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2173,22 +3355,22 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
+        <v>416</v>
       </c>
       <c r="G23" t="s">
-        <v>341</v>
+        <v>601</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>398</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2199,16 +3381,19 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>417</v>
+      </c>
+      <c r="G24" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2219,19 +3404,19 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>418</v>
       </c>
       <c r="G25" t="s">
-        <v>342</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2242,13 +3427,22 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>199</v>
+      </c>
+      <c r="D26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" t="s">
+        <v>250</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>419</v>
       </c>
       <c r="G26" t="s">
-        <v>343</v>
+        <v>604</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2259,19 +3453,19 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>420</v>
       </c>
       <c r="G27" t="s">
-        <v>344</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2282,16 +3476,19 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>421</v>
+      </c>
+      <c r="G28" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2302,22 +3499,22 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="E29" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>422</v>
       </c>
       <c r="G29" t="s">
-        <v>345</v>
+        <v>607</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>399</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2328,22 +3525,22 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>404</v>
       </c>
       <c r="G30" t="s">
-        <v>346</v>
+        <v>608</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>396</v>
+        <v>774</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2354,19 +3551,19 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>423</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>396</v>
+        <v>775</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2377,22 +3574,22 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="F32" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="G32" t="s">
-        <v>347</v>
+        <v>609</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>400</v>
+        <v>776</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2403,19 +3600,22 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="F33" t="s">
-        <v>255</v>
+        <v>425</v>
       </c>
       <c r="G33" t="s">
-        <v>348</v>
+        <v>610</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2426,19 +3626,19 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>426</v>
       </c>
       <c r="G34" t="s">
-        <v>349</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2449,22 +3649,22 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>427</v>
       </c>
       <c r="G35" t="s">
-        <v>350</v>
+        <v>612</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>396</v>
+        <v>778</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2475,22 +3675,19 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>428</v>
       </c>
       <c r="G36" t="s">
-        <v>351</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>391</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2501,16 +3698,22 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="E37" t="s">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>409</v>
+      </c>
+      <c r="G37" t="s">
+        <v>614</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2521,19 +3724,19 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="E38" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="F38" t="s">
-        <v>260</v>
+        <v>429</v>
       </c>
       <c r="G38" t="s">
-        <v>352</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2544,19 +3747,19 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="E39" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="F39" t="s">
-        <v>261</v>
+        <v>404</v>
       </c>
       <c r="G39" t="s">
-        <v>353</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2567,22 +3770,22 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="E40" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="F40" t="s">
-        <v>262</v>
+        <v>430</v>
       </c>
       <c r="G40" t="s">
-        <v>354</v>
+        <v>617</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>401</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2593,10 +3796,19 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>199</v>
+      </c>
+      <c r="D41" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" t="s">
+        <v>265</v>
       </c>
       <c r="F41" t="s">
-        <v>263</v>
+        <v>431</v>
+      </c>
+      <c r="G41" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2607,10 +3819,19 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>199</v>
+      </c>
+      <c r="D42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" t="s">
+        <v>266</v>
       </c>
       <c r="F42" t="s">
-        <v>264</v>
+        <v>432</v>
+      </c>
+      <c r="G42" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2621,19 +3842,19 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="F43" t="s">
-        <v>265</v>
+        <v>433</v>
       </c>
       <c r="G43" t="s">
-        <v>355</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2644,19 +3865,19 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="F44" t="s">
-        <v>266</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>402</v>
+        <v>434</v>
+      </c>
+      <c r="G44" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2667,22 +3888,19 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="F45" t="s">
-        <v>267</v>
+        <v>435</v>
       </c>
       <c r="G45" t="s">
-        <v>356</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>403</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2693,19 +3911,19 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F46" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
       <c r="G46" t="s">
-        <v>357</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2716,19 +3934,16 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="F47" t="s">
-        <v>269</v>
-      </c>
-      <c r="G47" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2739,22 +3954,22 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="E48" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="F48" t="s">
-        <v>270</v>
+        <v>438</v>
       </c>
       <c r="G48" t="s">
-        <v>359</v>
+        <v>624</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>404</v>
+        <v>764</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2765,19 +3980,19 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="E49" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="F49" t="s">
-        <v>271</v>
+        <v>439</v>
       </c>
       <c r="G49" t="s">
-        <v>360</v>
+        <v>625</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2788,19 +4003,19 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="E50" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="F50" t="s">
-        <v>272</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
+      </c>
+      <c r="G50" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2811,16 +4026,19 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="F51" t="s">
-        <v>273</v>
+        <v>441</v>
+      </c>
+      <c r="G51" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2831,19 +4049,19 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="F52" t="s">
-        <v>274</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>405</v>
+        <v>442</v>
+      </c>
+      <c r="G52" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2854,16 +4072,16 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="F53" t="s">
-        <v>275</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2874,19 +4092,22 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="E54" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="F54" t="s">
-        <v>276</v>
+        <v>444</v>
       </c>
       <c r="G54" t="s">
-        <v>361</v>
+        <v>629</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2897,19 +4118,19 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="E55" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="F55" t="s">
-        <v>277</v>
+        <v>445</v>
       </c>
       <c r="G55" t="s">
-        <v>362</v>
+        <v>630</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2920,19 +4141,22 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="F56" t="s">
-        <v>278</v>
+        <v>446</v>
       </c>
       <c r="G56" t="s">
-        <v>363</v>
+        <v>631</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2940,13 +4164,22 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>199</v>
+      </c>
+      <c r="D57" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" t="s">
+        <v>280</v>
       </c>
       <c r="F57" t="s">
-        <v>279</v>
+        <v>447</v>
+      </c>
+      <c r="G57" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2954,22 +4187,22 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="E58" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="F58" t="s">
-        <v>280</v>
+        <v>448</v>
       </c>
       <c r="G58" t="s">
-        <v>356</v>
+        <v>633</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2977,22 +4210,22 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="F59" t="s">
-        <v>281</v>
+        <v>449</v>
       </c>
       <c r="G59" t="s">
-        <v>364</v>
+        <v>634</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3000,19 +4233,22 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="E60" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c r="F60" t="s">
-        <v>282</v>
+        <v>450</v>
+      </c>
+      <c r="G60" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3020,25 +4256,25 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="F61" t="s">
-        <v>283</v>
+        <v>451</v>
       </c>
       <c r="G61" t="s">
-        <v>365</v>
+        <v>636</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>406</v>
+        <v>768</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3046,22 +4282,25 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="F62" t="s">
-        <v>284</v>
+        <v>452</v>
       </c>
       <c r="G62" t="s">
-        <v>366</v>
+        <v>637</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3069,25 +4308,22 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="E63" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="F63" t="s">
-        <v>285</v>
+        <v>453</v>
       </c>
       <c r="G63" t="s">
-        <v>367</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>407</v>
+        <v>638</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3095,19 +4331,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="E64" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="F64" t="s">
-        <v>286</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3115,22 +4351,22 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="E65" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F65" t="s">
-        <v>287</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>408</v>
+        <v>455</v>
+      </c>
+      <c r="G65" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3138,25 +4374,22 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="E66" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="F66" t="s">
-        <v>288</v>
+        <v>456</v>
       </c>
       <c r="G66" t="s">
-        <v>368</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>409</v>
+        <v>640</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3164,22 +4397,22 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="E67" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="F67" t="s">
-        <v>289</v>
+        <v>457</v>
       </c>
       <c r="G67" t="s">
-        <v>369</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3187,22 +4420,25 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="E68" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="F68" t="s">
-        <v>290</v>
+        <v>458</v>
       </c>
       <c r="G68" t="s">
-        <v>370</v>
+        <v>642</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3210,13 +4446,22 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>199</v>
+      </c>
+      <c r="D69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" t="s">
+        <v>291</v>
       </c>
       <c r="F69" t="s">
-        <v>291</v>
+        <v>459</v>
+      </c>
+      <c r="G69" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3224,22 +4469,25 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="E70" t="s">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="F70" t="s">
-        <v>292</v>
+        <v>460</v>
       </c>
       <c r="G70" t="s">
-        <v>371</v>
+        <v>644</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3247,19 +4495,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="D71" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="E71" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="F71" t="s">
-        <v>293</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3267,22 +4515,22 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>294</v>
       </c>
       <c r="F72" t="s">
-        <v>294</v>
+        <v>462</v>
       </c>
       <c r="G72" t="s">
-        <v>372</v>
+        <v>645</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3290,22 +4538,22 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="E73" t="s">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="F73" t="s">
-        <v>295</v>
+        <v>463</v>
       </c>
       <c r="G73" t="s">
-        <v>373</v>
+        <v>646</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3313,25 +4561,22 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="E74" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="F74" t="s">
-        <v>296</v>
+        <v>464</v>
       </c>
       <c r="G74" t="s">
-        <v>374</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>396</v>
+        <v>647</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3339,22 +4584,25 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="E75" t="s">
-        <v>205</v>
+        <v>296</v>
       </c>
       <c r="F75" t="s">
-        <v>297</v>
+        <v>465</v>
+      </c>
+      <c r="G75" t="s">
+        <v>648</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>408</v>
+        <v>783</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3362,25 +4610,22 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="E76" t="s">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="F76" t="s">
-        <v>298</v>
+        <v>466</v>
       </c>
       <c r="G76" t="s">
-        <v>375</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>410</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3388,19 +4633,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="E77" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="F77" t="s">
-        <v>299</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3408,19 +4653,22 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="E78" t="s">
-        <v>154</v>
+        <v>299</v>
       </c>
       <c r="F78" t="s">
-        <v>300</v>
+        <v>468</v>
+      </c>
+      <c r="G78" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3428,22 +4676,22 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="F79" t="s">
-        <v>301</v>
+        <v>469</v>
       </c>
       <c r="G79" t="s">
-        <v>376</v>
+        <v>651</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3451,25 +4699,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D80" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="E80" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="F80" t="s">
-        <v>302</v>
-      </c>
-      <c r="G80" t="s">
-        <v>377</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3477,25 +4719,25 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D81" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="E81" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="F81" t="s">
-        <v>303</v>
+        <v>471</v>
       </c>
       <c r="G81" t="s">
-        <v>378</v>
+        <v>652</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>396</v>
+        <v>784</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3503,22 +4745,22 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="D82" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="E82" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="F82" t="s">
-        <v>304</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>391</v>
+        <v>472</v>
+      </c>
+      <c r="G82" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3526,25 +4768,22 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="D83" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="E83" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="F83" t="s">
-        <v>305</v>
+        <v>473</v>
       </c>
       <c r="G83" t="s">
-        <v>379</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>396</v>
+        <v>654</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3552,19 +4791,22 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="E84" t="s">
-        <v>156</v>
+        <v>304</v>
       </c>
       <c r="F84" t="s">
-        <v>306</v>
+        <v>474</v>
+      </c>
+      <c r="G84" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3572,22 +4814,22 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="E85" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="F85" t="s">
-        <v>307</v>
+        <v>475</v>
       </c>
       <c r="G85" t="s">
-        <v>380</v>
+        <v>656</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3595,22 +4837,25 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="E86" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="F86" t="s">
-        <v>308</v>
+        <v>476</v>
       </c>
       <c r="G86" t="s">
-        <v>381</v>
+        <v>657</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3618,22 +4863,22 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="D87" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="E87" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="F87" t="s">
-        <v>309</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>412</v>
+        <v>477</v>
+      </c>
+      <c r="G87" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3641,22 +4886,25 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="E88" t="s">
-        <v>156</v>
+        <v>308</v>
       </c>
       <c r="F88" t="s">
-        <v>310</v>
+        <v>478</v>
+      </c>
+      <c r="G88" t="s">
+        <v>659</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>413</v>
+        <v>764</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3664,22 +4912,25 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="E89" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="F89" t="s">
-        <v>311</v>
+        <v>479</v>
       </c>
       <c r="G89" t="s">
-        <v>382</v>
+        <v>660</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3687,22 +4938,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="E90" t="s">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="F90" t="s">
-        <v>312</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3710,22 +4958,25 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="E91" t="s">
-        <v>216</v>
+        <v>311</v>
       </c>
       <c r="F91" t="s">
-        <v>313</v>
+        <v>481</v>
       </c>
       <c r="G91" t="s">
-        <v>383</v>
+        <v>661</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3733,19 +4984,22 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="E92" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="F92" t="s">
-        <v>314</v>
+        <v>482</v>
+      </c>
+      <c r="G92" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3753,16 +5007,22 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>199</v>
+      </c>
+      <c r="D93" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" t="s">
+        <v>312</v>
       </c>
       <c r="F93" t="s">
-        <v>315</v>
+        <v>481</v>
       </c>
       <c r="G93" t="s">
-        <v>384</v>
+        <v>663</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3770,13 +5030,22 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>199</v>
+      </c>
+      <c r="D94" t="s">
+        <v>222</v>
+      </c>
+      <c r="E94" t="s">
+        <v>313</v>
       </c>
       <c r="F94" t="s">
-        <v>316</v>
+        <v>483</v>
+      </c>
+      <c r="G94" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3784,25 +5053,22 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="D95" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="E95" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="F95" t="s">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="G95" t="s">
-        <v>385</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>415</v>
+        <v>665</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3810,22 +5076,22 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="D96" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="F96" t="s">
-        <v>318</v>
+        <v>484</v>
       </c>
       <c r="G96" t="s">
-        <v>386</v>
+        <v>666</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3833,22 +5099,22 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D97" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="E97" t="s">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="F97" t="s">
-        <v>319</v>
+        <v>485</v>
       </c>
       <c r="G97" t="s">
-        <v>387</v>
+        <v>667</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3856,25 +5122,19 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="E98" t="s">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="F98" t="s">
-        <v>320</v>
-      </c>
-      <c r="G98" t="s">
-        <v>388</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>416</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3882,19 +5142,22 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="E99" t="s">
-        <v>222</v>
+        <v>317</v>
       </c>
       <c r="F99" t="s">
-        <v>321</v>
+        <v>487</v>
+      </c>
+      <c r="G99" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3902,19 +5165,25 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D100" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="E100" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="F100" t="s">
-        <v>322</v>
+        <v>488</v>
+      </c>
+      <c r="G100" t="s">
+        <v>669</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3922,53 +5191,2415 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" t="s">
+        <v>203</v>
+      </c>
+      <c r="E101" t="s">
+        <v>319</v>
+      </c>
+      <c r="F101" t="s">
+        <v>489</v>
+      </c>
+      <c r="G101" t="s">
+        <v>670</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" t="s">
+        <v>213</v>
+      </c>
+      <c r="E102" t="s">
+        <v>320</v>
+      </c>
+      <c r="F102" t="s">
+        <v>490</v>
+      </c>
+      <c r="G102" t="s">
+        <v>671</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" t="s">
+        <v>206</v>
+      </c>
+      <c r="E103" t="s">
+        <v>321</v>
+      </c>
+      <c r="F103" t="s">
+        <v>491</v>
+      </c>
+      <c r="G103" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
         <v>107</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C104" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" t="s">
+        <v>211</v>
+      </c>
+      <c r="E104" t="s">
+        <v>322</v>
+      </c>
+      <c r="F104" t="s">
+        <v>492</v>
+      </c>
+      <c r="G104" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" t="s">
+        <v>204</v>
+      </c>
+      <c r="E105" t="s">
+        <v>323</v>
+      </c>
+      <c r="F105" t="s">
+        <v>493</v>
+      </c>
+      <c r="G105" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" t="s">
+        <v>199</v>
+      </c>
+      <c r="D106" t="s">
+        <v>211</v>
+      </c>
+      <c r="E106" t="s">
+        <v>324</v>
+      </c>
+      <c r="F106" t="s">
+        <v>494</v>
+      </c>
+      <c r="G106" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" t="s">
+        <v>222</v>
+      </c>
+      <c r="E107" t="s">
+        <v>247</v>
+      </c>
+      <c r="F107" t="s">
+        <v>495</v>
+      </c>
+      <c r="G107" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108" t="s">
+        <v>299</v>
+      </c>
+      <c r="F108" t="s">
+        <v>496</v>
+      </c>
+      <c r="G108" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" t="s">
+        <v>199</v>
+      </c>
+      <c r="D109" t="s">
+        <v>209</v>
+      </c>
+      <c r="E109" t="s">
+        <v>325</v>
+      </c>
+      <c r="F109" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" t="s">
+        <v>199</v>
+      </c>
+      <c r="D110" t="s">
+        <v>207</v>
+      </c>
+      <c r="E110" t="s">
+        <v>326</v>
+      </c>
+      <c r="F110" t="s">
+        <v>498</v>
+      </c>
+      <c r="G110" t="s">
+        <v>678</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" t="s">
+        <v>202</v>
+      </c>
+      <c r="E111" t="s">
+        <v>327</v>
+      </c>
+      <c r="F111" t="s">
+        <v>499</v>
+      </c>
+      <c r="G111" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>199</v>
+      </c>
+      <c r="D112" t="s">
+        <v>204</v>
+      </c>
+      <c r="E112" t="s">
+        <v>328</v>
+      </c>
+      <c r="F112" t="s">
+        <v>500</v>
+      </c>
+      <c r="G112" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" t="s">
+        <v>199</v>
+      </c>
+      <c r="D113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E113" t="s">
+        <v>329</v>
+      </c>
+      <c r="F113" t="s">
+        <v>501</v>
+      </c>
+      <c r="G113" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" t="s">
+        <v>199</v>
+      </c>
+      <c r="D114" t="s">
+        <v>206</v>
+      </c>
+      <c r="E114" t="s">
+        <v>330</v>
+      </c>
+      <c r="F114" t="s">
+        <v>502</v>
+      </c>
+      <c r="G114" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>199</v>
+      </c>
+      <c r="D115" t="s">
+        <v>214</v>
+      </c>
+      <c r="E115" t="s">
+        <v>331</v>
+      </c>
+      <c r="F115" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" t="s">
+        <v>199</v>
+      </c>
+      <c r="D116" t="s">
+        <v>204</v>
+      </c>
+      <c r="E116" t="s">
+        <v>332</v>
+      </c>
+      <c r="F116" t="s">
+        <v>504</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
+        <v>199</v>
+      </c>
+      <c r="D117" t="s">
+        <v>211</v>
+      </c>
+      <c r="E117" t="s">
+        <v>333</v>
+      </c>
+      <c r="F117" t="s">
+        <v>505</v>
+      </c>
+      <c r="G117" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" t="s">
+        <v>204</v>
+      </c>
+      <c r="E118" t="s">
+        <v>334</v>
+      </c>
+      <c r="F118" t="s">
+        <v>506</v>
+      </c>
+      <c r="G118" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
+        <v>199</v>
+      </c>
+      <c r="D119" t="s">
+        <v>215</v>
+      </c>
+      <c r="E119" t="s">
+        <v>235</v>
+      </c>
+      <c r="F119" t="s">
+        <v>506</v>
+      </c>
+      <c r="G119" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>199</v>
+      </c>
+      <c r="D120" t="s">
+        <v>211</v>
+      </c>
+      <c r="E120" t="s">
+        <v>335</v>
+      </c>
+      <c r="F120" t="s">
+        <v>507</v>
+      </c>
+      <c r="G120" t="s">
+        <v>686</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>199</v>
+      </c>
+      <c r="D121" t="s">
+        <v>209</v>
+      </c>
+      <c r="E121" t="s">
+        <v>336</v>
+      </c>
+      <c r="F121" t="s">
+        <v>508</v>
+      </c>
+      <c r="G121" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
         <v>124</v>
       </c>
-      <c r="D101" t="s">
+      <c r="C122" t="s">
+        <v>199</v>
+      </c>
+      <c r="D122" t="s">
+        <v>203</v>
+      </c>
+      <c r="E122" t="s">
+        <v>337</v>
+      </c>
+      <c r="F122" t="s">
+        <v>509</v>
+      </c>
+      <c r="G122" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>200</v>
+      </c>
+      <c r="D123" t="s">
+        <v>212</v>
+      </c>
+      <c r="E123" t="s">
+        <v>338</v>
+      </c>
+      <c r="F123" t="s">
+        <v>510</v>
+      </c>
+      <c r="G123" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" t="s">
+        <v>200</v>
+      </c>
+      <c r="D124" t="s">
+        <v>203</v>
+      </c>
+      <c r="E124" t="s">
+        <v>339</v>
+      </c>
+      <c r="F124" t="s">
+        <v>511</v>
+      </c>
+      <c r="G124" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" t="s">
+        <v>200</v>
+      </c>
+      <c r="D125" t="s">
+        <v>209</v>
+      </c>
+      <c r="E125" t="s">
+        <v>340</v>
+      </c>
+      <c r="F125" t="s">
+        <v>512</v>
+      </c>
+      <c r="G125" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
         <v>128</v>
       </c>
-      <c r="E101" t="s">
+      <c r="C126" t="s">
+        <v>200</v>
+      </c>
+      <c r="D126" t="s">
+        <v>203</v>
+      </c>
+      <c r="E126" t="s">
+        <v>341</v>
+      </c>
+      <c r="F126" t="s">
+        <v>513</v>
+      </c>
+      <c r="G126" t="s">
+        <v>692</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" t="s">
+        <v>200</v>
+      </c>
+      <c r="D127" t="s">
+        <v>202</v>
+      </c>
+      <c r="E127" t="s">
+        <v>342</v>
+      </c>
+      <c r="F127" t="s">
+        <v>513</v>
+      </c>
+      <c r="G127" t="s">
+        <v>693</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" t="s">
+        <v>200</v>
+      </c>
+      <c r="D128" t="s">
+        <v>204</v>
+      </c>
+      <c r="E128" t="s">
+        <v>343</v>
+      </c>
+      <c r="F128" t="s">
+        <v>514</v>
+      </c>
+      <c r="G128" t="s">
+        <v>694</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" t="s">
+        <v>200</v>
+      </c>
+      <c r="D129" t="s">
+        <v>202</v>
+      </c>
+      <c r="E129" t="s">
+        <v>344</v>
+      </c>
+      <c r="F129" t="s">
+        <v>514</v>
+      </c>
+      <c r="G129" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
+        <v>200</v>
+      </c>
+      <c r="D130" t="s">
+        <v>217</v>
+      </c>
+      <c r="E130" t="s">
+        <v>345</v>
+      </c>
+      <c r="F130" t="s">
+        <v>515</v>
+      </c>
+      <c r="G130" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131" t="s">
+        <v>200</v>
+      </c>
+      <c r="D131" t="s">
+        <v>209</v>
+      </c>
+      <c r="E131" t="s">
+        <v>346</v>
+      </c>
+      <c r="F131" t="s">
+        <v>516</v>
+      </c>
+      <c r="G131" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" t="s">
+        <v>200</v>
+      </c>
+      <c r="D132" t="s">
+        <v>211</v>
+      </c>
+      <c r="E132" t="s">
+        <v>347</v>
+      </c>
+      <c r="F132" t="s">
+        <v>517</v>
+      </c>
+      <c r="G132" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" t="s">
+        <v>200</v>
+      </c>
+      <c r="D133" t="s">
+        <v>203</v>
+      </c>
+      <c r="E133" t="s">
+        <v>348</v>
+      </c>
+      <c r="F133" t="s">
+        <v>518</v>
+      </c>
+      <c r="G133" t="s">
+        <v>699</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" t="s">
+        <v>200</v>
+      </c>
+      <c r="D134" t="s">
+        <v>213</v>
+      </c>
+      <c r="E134" t="s">
+        <v>349</v>
+      </c>
+      <c r="F134" t="s">
+        <v>519</v>
+      </c>
+      <c r="G134" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" t="s">
+        <v>200</v>
+      </c>
+      <c r="D135" t="s">
+        <v>218</v>
+      </c>
+      <c r="E135" t="s">
+        <v>249</v>
+      </c>
+      <c r="F135" t="s">
+        <v>520</v>
+      </c>
+      <c r="G135" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" t="s">
+        <v>200</v>
+      </c>
+      <c r="D136" t="s">
+        <v>221</v>
+      </c>
+      <c r="E136" t="s">
+        <v>350</v>
+      </c>
+      <c r="F136" t="s">
+        <v>521</v>
+      </c>
+      <c r="G136" t="s">
+        <v>702</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" t="s">
+        <v>200</v>
+      </c>
+      <c r="D137" t="s">
+        <v>207</v>
+      </c>
+      <c r="E137" t="s">
+        <v>351</v>
+      </c>
+      <c r="F137" t="s">
+        <v>522</v>
+      </c>
+      <c r="G137" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" t="s">
+        <v>200</v>
+      </c>
+      <c r="D138" t="s">
+        <v>204</v>
+      </c>
+      <c r="E138" t="s">
+        <v>352</v>
+      </c>
+      <c r="F138" t="s">
+        <v>523</v>
+      </c>
+      <c r="G138" t="s">
+        <v>704</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" t="s">
+        <v>200</v>
+      </c>
+      <c r="D139" t="s">
+        <v>203</v>
+      </c>
+      <c r="E139" t="s">
+        <v>353</v>
+      </c>
+      <c r="F139" t="s">
+        <v>524</v>
+      </c>
+      <c r="G139" t="s">
+        <v>705</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" t="s">
+        <v>200</v>
+      </c>
+      <c r="D140" t="s">
+        <v>209</v>
+      </c>
+      <c r="E140" t="s">
+        <v>354</v>
+      </c>
+      <c r="F140" t="s">
+        <v>523</v>
+      </c>
+      <c r="G140" t="s">
+        <v>706</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" t="s">
+        <v>200</v>
+      </c>
+      <c r="D141" t="s">
+        <v>217</v>
+      </c>
+      <c r="E141" t="s">
+        <v>355</v>
+      </c>
+      <c r="F141" t="s">
+        <v>525</v>
+      </c>
+      <c r="G141" t="s">
+        <v>707</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142" t="s">
+        <v>203</v>
+      </c>
+      <c r="E142" t="s">
+        <v>356</v>
+      </c>
+      <c r="F142" t="s">
+        <v>526</v>
+      </c>
+      <c r="G142" t="s">
+        <v>708</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" t="s">
+        <v>200</v>
+      </c>
+      <c r="D143" t="s">
+        <v>205</v>
+      </c>
+      <c r="E143" t="s">
+        <v>357</v>
+      </c>
+      <c r="F143" t="s">
+        <v>404</v>
+      </c>
+      <c r="G143" t="s">
+        <v>709</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" t="s">
+        <v>200</v>
+      </c>
+      <c r="D144" t="s">
+        <v>203</v>
+      </c>
+      <c r="E144" t="s">
+        <v>358</v>
+      </c>
+      <c r="F144" t="s">
+        <v>527</v>
+      </c>
+      <c r="G144" t="s">
+        <v>710</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145" t="s">
+        <v>200</v>
+      </c>
+      <c r="D145" t="s">
+        <v>205</v>
+      </c>
+      <c r="E145" t="s">
+        <v>359</v>
+      </c>
+      <c r="F145" t="s">
+        <v>528</v>
+      </c>
+      <c r="G145" t="s">
+        <v>711</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" t="s">
+        <v>200</v>
+      </c>
+      <c r="D146" t="s">
+        <v>202</v>
+      </c>
+      <c r="E146" t="s">
+        <v>360</v>
+      </c>
+      <c r="F146" t="s">
+        <v>529</v>
+      </c>
+      <c r="G146" t="s">
+        <v>712</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" t="s">
+        <v>200</v>
+      </c>
+      <c r="D147" t="s">
+        <v>212</v>
+      </c>
+      <c r="E147" t="s">
+        <v>229</v>
+      </c>
+      <c r="F147" t="s">
+        <v>530</v>
+      </c>
+      <c r="G147" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" t="s">
+        <v>200</v>
+      </c>
+      <c r="D148" t="s">
+        <v>209</v>
+      </c>
+      <c r="E148" t="s">
+        <v>361</v>
+      </c>
+      <c r="F148" t="s">
+        <v>531</v>
+      </c>
+      <c r="G148" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" t="s">
+        <v>200</v>
+      </c>
+      <c r="D149" t="s">
+        <v>223</v>
+      </c>
+      <c r="E149" t="s">
+        <v>333</v>
+      </c>
+      <c r="F149" t="s">
+        <v>532</v>
+      </c>
+      <c r="G149" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" t="s">
+        <v>200</v>
+      </c>
+      <c r="D150" t="s">
+        <v>222</v>
+      </c>
+      <c r="E150" t="s">
+        <v>235</v>
+      </c>
+      <c r="F150" t="s">
+        <v>533</v>
+      </c>
+      <c r="G150" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" t="s">
+        <v>200</v>
+      </c>
+      <c r="D151" t="s">
+        <v>205</v>
+      </c>
+      <c r="E151" t="s">
+        <v>362</v>
+      </c>
+      <c r="F151" t="s">
+        <v>534</v>
+      </c>
+      <c r="G151" t="s">
+        <v>717</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>154</v>
+      </c>
+      <c r="C152" t="s">
+        <v>200</v>
+      </c>
+      <c r="D152" t="s">
+        <v>221</v>
+      </c>
+      <c r="E152" t="s">
+        <v>363</v>
+      </c>
+      <c r="F152" t="s">
+        <v>535</v>
+      </c>
+      <c r="G152" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" t="s">
+        <v>200</v>
+      </c>
+      <c r="D153" t="s">
+        <v>210</v>
+      </c>
+      <c r="E153" t="s">
+        <v>364</v>
+      </c>
+      <c r="F153" t="s">
+        <v>536</v>
+      </c>
+      <c r="G153" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154" t="s">
+        <v>200</v>
+      </c>
+      <c r="D154" t="s">
+        <v>222</v>
+      </c>
+      <c r="E154" t="s">
+        <v>365</v>
+      </c>
+      <c r="F154" t="s">
+        <v>537</v>
+      </c>
+      <c r="G154" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>141</v>
+      </c>
+      <c r="C155" t="s">
+        <v>200</v>
+      </c>
+      <c r="D155" t="s">
+        <v>211</v>
+      </c>
+      <c r="E155" t="s">
+        <v>366</v>
+      </c>
+      <c r="F155" t="s">
+        <v>538</v>
+      </c>
+      <c r="G155" t="s">
+        <v>721</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" t="s">
+        <v>200</v>
+      </c>
+      <c r="D156" t="s">
+        <v>205</v>
+      </c>
+      <c r="E156" t="s">
+        <v>367</v>
+      </c>
+      <c r="F156" t="s">
+        <v>539</v>
+      </c>
+      <c r="G156" t="s">
+        <v>722</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157" t="s">
+        <v>200</v>
+      </c>
+      <c r="D157" t="s">
+        <v>205</v>
+      </c>
+      <c r="E157" t="s">
+        <v>368</v>
+      </c>
+      <c r="F157" t="s">
+        <v>540</v>
+      </c>
+      <c r="G157" t="s">
+        <v>723</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" t="s">
+        <v>200</v>
+      </c>
+      <c r="D158" t="s">
+        <v>202</v>
+      </c>
+      <c r="E158" t="s">
+        <v>338</v>
+      </c>
+      <c r="F158" t="s">
+        <v>541</v>
+      </c>
+      <c r="G158" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" t="s">
+        <v>200</v>
+      </c>
+      <c r="D159" t="s">
+        <v>203</v>
+      </c>
+      <c r="E159" t="s">
+        <v>369</v>
+      </c>
+      <c r="F159" t="s">
+        <v>542</v>
+      </c>
+      <c r="G159" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>161</v>
+      </c>
+      <c r="C160" t="s">
+        <v>200</v>
+      </c>
+      <c r="D160" t="s">
+        <v>214</v>
+      </c>
+      <c r="E160" t="s">
+        <v>370</v>
+      </c>
+      <c r="F160" t="s">
+        <v>543</v>
+      </c>
+      <c r="G160" t="s">
+        <v>726</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161" t="s">
+        <v>200</v>
+      </c>
+      <c r="D161" t="s">
+        <v>206</v>
+      </c>
+      <c r="E161" t="s">
+        <v>371</v>
+      </c>
+      <c r="F161" t="s">
+        <v>399</v>
+      </c>
+      <c r="G161" t="s">
+        <v>727</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162" t="s">
+        <v>200</v>
+      </c>
+      <c r="D162" t="s">
+        <v>219</v>
+      </c>
+      <c r="E162" t="s">
+        <v>372</v>
+      </c>
+      <c r="F162" t="s">
+        <v>544</v>
+      </c>
+      <c r="G162" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>164</v>
+      </c>
+      <c r="C163" t="s">
+        <v>200</v>
+      </c>
+      <c r="D163" t="s">
         <v>224</v>
       </c>
-      <c r="F101" t="s">
-        <v>323</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="E163" t="s">
+        <v>373</v>
+      </c>
+      <c r="F163" t="s">
+        <v>545</v>
+      </c>
+      <c r="G163" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" t="s">
+        <v>200</v>
+      </c>
+      <c r="D164" t="s">
+        <v>211</v>
+      </c>
+      <c r="E164" t="s">
+        <v>374</v>
+      </c>
+      <c r="F164" t="s">
+        <v>495</v>
+      </c>
+      <c r="G164" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>166</v>
+      </c>
+      <c r="C165" t="s">
+        <v>200</v>
+      </c>
+      <c r="D165" t="s">
+        <v>212</v>
+      </c>
+      <c r="E165" t="s">
+        <v>293</v>
+      </c>
+      <c r="F165" t="s">
+        <v>546</v>
+      </c>
+      <c r="G165" t="s">
+        <v>731</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" t="s">
+        <v>200</v>
+      </c>
+      <c r="D166" t="s">
+        <v>204</v>
+      </c>
+      <c r="E166" t="s">
+        <v>375</v>
+      </c>
+      <c r="F166" t="s">
+        <v>547</v>
+      </c>
+      <c r="G166" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167" t="s">
+        <v>200</v>
+      </c>
+      <c r="D167" t="s">
+        <v>203</v>
+      </c>
+      <c r="E167" t="s">
+        <v>304</v>
+      </c>
+      <c r="F167" t="s">
+        <v>548</v>
+      </c>
+      <c r="G167" t="s">
+        <v>733</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168" t="s">
+        <v>200</v>
+      </c>
+      <c r="D168" t="s">
+        <v>204</v>
+      </c>
+      <c r="E168" t="s">
+        <v>376</v>
+      </c>
+      <c r="F168" t="s">
+        <v>549</v>
+      </c>
+      <c r="G168" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" t="s">
+        <v>200</v>
+      </c>
+      <c r="D169" t="s">
+        <v>209</v>
+      </c>
+      <c r="E169" t="s">
+        <v>377</v>
+      </c>
+      <c r="F169" t="s">
+        <v>550</v>
+      </c>
+      <c r="G169" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170" t="s">
+        <v>200</v>
+      </c>
+      <c r="D170" t="s">
+        <v>204</v>
+      </c>
+      <c r="E170" t="s">
+        <v>249</v>
+      </c>
+      <c r="F170" t="s">
+        <v>551</v>
+      </c>
+      <c r="G170" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>172</v>
+      </c>
+      <c r="C171" t="s">
+        <v>200</v>
+      </c>
+      <c r="D171" t="s">
+        <v>202</v>
+      </c>
+      <c r="E171" t="s">
+        <v>300</v>
+      </c>
+      <c r="F171" t="s">
+        <v>552</v>
+      </c>
+      <c r="G171" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>173</v>
+      </c>
+      <c r="C172" t="s">
+        <v>200</v>
+      </c>
+      <c r="D172" t="s">
+        <v>219</v>
+      </c>
+      <c r="E172" t="s">
+        <v>378</v>
+      </c>
+      <c r="F172" t="s">
+        <v>553</v>
+      </c>
+      <c r="G172" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" t="s">
+        <v>200</v>
+      </c>
+      <c r="D173" t="s">
+        <v>219</v>
+      </c>
+      <c r="E173" t="s">
+        <v>379</v>
+      </c>
+      <c r="F173" t="s">
+        <v>554</v>
+      </c>
+      <c r="G173" t="s">
+        <v>739</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174" t="s">
+        <v>200</v>
+      </c>
+      <c r="D174" t="s">
+        <v>203</v>
+      </c>
+      <c r="E174" t="s">
+        <v>380</v>
+      </c>
+      <c r="F174" t="s">
+        <v>555</v>
+      </c>
+      <c r="G174" t="s">
+        <v>740</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" t="s">
+        <v>200</v>
+      </c>
+      <c r="D175" t="s">
+        <v>203</v>
+      </c>
+      <c r="E175" t="s">
+        <v>381</v>
+      </c>
+      <c r="F175" t="s">
+        <v>556</v>
+      </c>
+      <c r="G175" t="s">
+        <v>741</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176" t="s">
+        <v>200</v>
+      </c>
+      <c r="D176" t="s">
+        <v>204</v>
+      </c>
+      <c r="E176" t="s">
+        <v>382</v>
+      </c>
+      <c r="F176" t="s">
+        <v>557</v>
+      </c>
+      <c r="G176" t="s">
+        <v>742</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" t="s">
+        <v>200</v>
+      </c>
+      <c r="D177" t="s">
+        <v>212</v>
+      </c>
+      <c r="E177" t="s">
+        <v>383</v>
+      </c>
+      <c r="F177" t="s">
+        <v>558</v>
+      </c>
+      <c r="G177" t="s">
+        <v>743</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178" t="s">
+        <v>200</v>
+      </c>
+      <c r="D178" t="s">
+        <v>202</v>
+      </c>
+      <c r="E178" t="s">
+        <v>384</v>
+      </c>
+      <c r="F178" t="s">
+        <v>559</v>
+      </c>
+      <c r="G178" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" t="s">
+        <v>200</v>
+      </c>
+      <c r="D179" t="s">
+        <v>219</v>
+      </c>
+      <c r="E179" t="s">
+        <v>252</v>
+      </c>
+      <c r="F179" t="s">
+        <v>560</v>
+      </c>
+      <c r="G179" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180" t="s">
+        <v>200</v>
+      </c>
+      <c r="D180" t="s">
+        <v>206</v>
+      </c>
+      <c r="E180" t="s">
+        <v>249</v>
+      </c>
+      <c r="F180" t="s">
+        <v>561</v>
+      </c>
+      <c r="G180" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181" t="s">
+        <v>200</v>
+      </c>
+      <c r="D181" t="s">
+        <v>213</v>
+      </c>
+      <c r="E181" t="s">
+        <v>385</v>
+      </c>
+      <c r="F181" t="s">
+        <v>562</v>
+      </c>
+      <c r="G181" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182" t="s">
+        <v>200</v>
+      </c>
+      <c r="D182" t="s">
+        <v>218</v>
+      </c>
+      <c r="E182" t="s">
+        <v>325</v>
+      </c>
+      <c r="F182" t="s">
+        <v>563</v>
+      </c>
+      <c r="G182" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>141</v>
+      </c>
+      <c r="C183" t="s">
+        <v>200</v>
+      </c>
+      <c r="D183" t="s">
+        <v>206</v>
+      </c>
+      <c r="E183" t="s">
+        <v>386</v>
+      </c>
+      <c r="F183" t="s">
+        <v>564</v>
+      </c>
+      <c r="G183" t="s">
+        <v>749</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184" t="s">
+        <v>200</v>
+      </c>
+      <c r="D184" t="s">
+        <v>222</v>
+      </c>
+      <c r="E184" t="s">
+        <v>273</v>
+      </c>
+      <c r="F184" t="s">
+        <v>565</v>
+      </c>
+      <c r="G184" t="s">
+        <v>750</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185" t="s">
+        <v>200</v>
+      </c>
+      <c r="D185" t="s">
+        <v>221</v>
+      </c>
+      <c r="E185" t="s">
+        <v>387</v>
+      </c>
+      <c r="F185" t="s">
+        <v>566</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186" t="s">
+        <v>200</v>
+      </c>
+      <c r="D186" t="s">
+        <v>203</v>
+      </c>
+      <c r="E186" t="s">
+        <v>388</v>
+      </c>
+      <c r="F186" t="s">
+        <v>567</v>
+      </c>
+      <c r="G186" t="s">
+        <v>751</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187" t="s">
+        <v>200</v>
+      </c>
+      <c r="D187" t="s">
+        <v>202</v>
+      </c>
+      <c r="E187" t="s">
         <v>389</v>
+      </c>
+      <c r="F187" t="s">
+        <v>564</v>
+      </c>
+      <c r="G187" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" t="s">
+        <v>141</v>
+      </c>
+      <c r="C188" t="s">
+        <v>200</v>
+      </c>
+      <c r="D188" t="s">
+        <v>219</v>
+      </c>
+      <c r="E188" t="s">
+        <v>330</v>
+      </c>
+      <c r="F188" t="s">
+        <v>568</v>
+      </c>
+      <c r="G188" t="s">
+        <v>753</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" t="s">
+        <v>188</v>
+      </c>
+      <c r="C189" t="s">
+        <v>200</v>
+      </c>
+      <c r="D189" t="s">
+        <v>225</v>
+      </c>
+      <c r="E189" t="s">
+        <v>382</v>
+      </c>
+      <c r="F189" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" t="s">
+        <v>189</v>
+      </c>
+      <c r="C190" t="s">
+        <v>200</v>
+      </c>
+      <c r="D190" t="s">
+        <v>218</v>
+      </c>
+      <c r="E190" t="s">
+        <v>375</v>
+      </c>
+      <c r="F190" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>190</v>
+      </c>
+      <c r="C191" t="s">
+        <v>200</v>
+      </c>
+      <c r="D191" t="s">
+        <v>209</v>
+      </c>
+      <c r="E191" t="s">
+        <v>390</v>
+      </c>
+      <c r="F191" t="s">
+        <v>571</v>
+      </c>
+      <c r="G191" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>191</v>
+      </c>
+      <c r="C192" t="s">
+        <v>200</v>
+      </c>
+      <c r="D192" t="s">
+        <v>203</v>
+      </c>
+      <c r="E192" t="s">
+        <v>339</v>
+      </c>
+      <c r="F192" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" t="s">
+        <v>192</v>
+      </c>
+      <c r="C193" t="s">
+        <v>200</v>
+      </c>
+      <c r="D193" t="s">
+        <v>210</v>
+      </c>
+      <c r="E193" t="s">
+        <v>391</v>
+      </c>
+      <c r="F193" t="s">
+        <v>573</v>
+      </c>
+      <c r="G193" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s">
+        <v>193</v>
+      </c>
+      <c r="C194" t="s">
+        <v>200</v>
+      </c>
+      <c r="D194" t="s">
+        <v>209</v>
+      </c>
+      <c r="E194" t="s">
+        <v>392</v>
+      </c>
+      <c r="F194" t="s">
+        <v>574</v>
+      </c>
+      <c r="G194" t="s">
+        <v>756</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>194</v>
+      </c>
+      <c r="C195" t="s">
+        <v>200</v>
+      </c>
+      <c r="D195" t="s">
+        <v>202</v>
+      </c>
+      <c r="E195" t="s">
+        <v>393</v>
+      </c>
+      <c r="F195" t="s">
+        <v>575</v>
+      </c>
+      <c r="G195" t="s">
+        <v>757</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" t="s">
+        <v>195</v>
+      </c>
+      <c r="C196" t="s">
+        <v>200</v>
+      </c>
+      <c r="D196" t="s">
+        <v>212</v>
+      </c>
+      <c r="E196" t="s">
+        <v>394</v>
+      </c>
+      <c r="F196" t="s">
+        <v>576</v>
+      </c>
+      <c r="G196" t="s">
+        <v>758</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" t="s">
+        <v>196</v>
+      </c>
+      <c r="C197" t="s">
+        <v>201</v>
+      </c>
+      <c r="D197" t="s">
+        <v>206</v>
+      </c>
+      <c r="E197" t="s">
+        <v>365</v>
+      </c>
+      <c r="F197" t="s">
+        <v>577</v>
+      </c>
+      <c r="G197" t="s">
+        <v>759</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" t="s">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>201</v>
+      </c>
+      <c r="D198" t="s">
+        <v>204</v>
+      </c>
+      <c r="E198" t="s">
+        <v>395</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G198" t="s">
+        <v>760</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" t="s">
+        <v>198</v>
+      </c>
+      <c r="C199" t="s">
+        <v>201</v>
+      </c>
+      <c r="D199" t="s">
+        <v>212</v>
+      </c>
+      <c r="E199" t="s">
+        <v>396</v>
+      </c>
+      <c r="F199" t="s">
+        <v>579</v>
+      </c>
+      <c r="G199" t="s">
+        <v>761</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>806</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="H5" r:id="rId6"/>
-    <hyperlink ref="A6" r:id="rId7"/>
-    <hyperlink ref="H6" r:id="rId8"/>
-    <hyperlink ref="A7" r:id="rId9"/>
-    <hyperlink ref="A8" r:id="rId10"/>
-    <hyperlink ref="A9" r:id="rId11"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="H7" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="A9" r:id="rId10"/>
+    <hyperlink ref="H9" r:id="rId11"/>
     <hyperlink ref="A10" r:id="rId12"/>
-    <hyperlink ref="H10" r:id="rId13"/>
-    <hyperlink ref="A11" r:id="rId14"/>
+    <hyperlink ref="A11" r:id="rId13"/>
+    <hyperlink ref="H11" r:id="rId14"/>
     <hyperlink ref="A12" r:id="rId15"/>
     <hyperlink ref="H12" r:id="rId16"/>
     <hyperlink ref="A13" r:id="rId17"/>
     <hyperlink ref="A14" r:id="rId18"/>
     <hyperlink ref="A15" r:id="rId19"/>
     <hyperlink ref="A16" r:id="rId20"/>
-    <hyperlink ref="A17" r:id="rId21"/>
-    <hyperlink ref="A18" r:id="rId22"/>
-    <hyperlink ref="H18" r:id="rId23"/>
-    <hyperlink ref="A19" r:id="rId24"/>
-    <hyperlink ref="H19" r:id="rId25"/>
-    <hyperlink ref="A20" r:id="rId26"/>
-    <hyperlink ref="H20" r:id="rId27"/>
+    <hyperlink ref="H16" r:id="rId21"/>
+    <hyperlink ref="A17" r:id="rId22"/>
+    <hyperlink ref="H17" r:id="rId23"/>
+    <hyperlink ref="A18" r:id="rId24"/>
+    <hyperlink ref="A19" r:id="rId25"/>
+    <hyperlink ref="H19" r:id="rId26"/>
+    <hyperlink ref="A20" r:id="rId27"/>
     <hyperlink ref="A21" r:id="rId28"/>
     <hyperlink ref="H21" r:id="rId29"/>
     <hyperlink ref="A22" r:id="rId30"/>
@@ -3977,48 +7608,48 @@
     <hyperlink ref="A24" r:id="rId33"/>
     <hyperlink ref="A25" r:id="rId34"/>
     <hyperlink ref="A26" r:id="rId35"/>
-    <hyperlink ref="A27" r:id="rId36"/>
-    <hyperlink ref="A28" r:id="rId37"/>
-    <hyperlink ref="A29" r:id="rId38"/>
-    <hyperlink ref="H29" r:id="rId39"/>
-    <hyperlink ref="A30" r:id="rId40"/>
-    <hyperlink ref="H30" r:id="rId41"/>
-    <hyperlink ref="A31" r:id="rId42"/>
-    <hyperlink ref="H31" r:id="rId43"/>
-    <hyperlink ref="A32" r:id="rId44"/>
-    <hyperlink ref="H32" r:id="rId45"/>
-    <hyperlink ref="A33" r:id="rId46"/>
-    <hyperlink ref="A34" r:id="rId47"/>
-    <hyperlink ref="A35" r:id="rId48"/>
-    <hyperlink ref="H35" r:id="rId49"/>
-    <hyperlink ref="A36" r:id="rId50"/>
-    <hyperlink ref="H36" r:id="rId51"/>
-    <hyperlink ref="A37" r:id="rId52"/>
-    <hyperlink ref="A38" r:id="rId53"/>
-    <hyperlink ref="A39" r:id="rId54"/>
-    <hyperlink ref="A40" r:id="rId55"/>
-    <hyperlink ref="H40" r:id="rId56"/>
-    <hyperlink ref="A41" r:id="rId57"/>
-    <hyperlink ref="A42" r:id="rId58"/>
-    <hyperlink ref="A43" r:id="rId59"/>
-    <hyperlink ref="A44" r:id="rId60"/>
-    <hyperlink ref="H44" r:id="rId61"/>
-    <hyperlink ref="A45" r:id="rId62"/>
-    <hyperlink ref="H45" r:id="rId63"/>
+    <hyperlink ref="H26" r:id="rId36"/>
+    <hyperlink ref="A27" r:id="rId37"/>
+    <hyperlink ref="A28" r:id="rId38"/>
+    <hyperlink ref="A29" r:id="rId39"/>
+    <hyperlink ref="H29" r:id="rId40"/>
+    <hyperlink ref="A30" r:id="rId41"/>
+    <hyperlink ref="H30" r:id="rId42"/>
+    <hyperlink ref="A31" r:id="rId43"/>
+    <hyperlink ref="H31" r:id="rId44"/>
+    <hyperlink ref="A32" r:id="rId45"/>
+    <hyperlink ref="H32" r:id="rId46"/>
+    <hyperlink ref="A33" r:id="rId47"/>
+    <hyperlink ref="H33" r:id="rId48"/>
+    <hyperlink ref="A34" r:id="rId49"/>
+    <hyperlink ref="A35" r:id="rId50"/>
+    <hyperlink ref="H35" r:id="rId51"/>
+    <hyperlink ref="A36" r:id="rId52"/>
+    <hyperlink ref="A37" r:id="rId53"/>
+    <hyperlink ref="H37" r:id="rId54"/>
+    <hyperlink ref="A38" r:id="rId55"/>
+    <hyperlink ref="A39" r:id="rId56"/>
+    <hyperlink ref="A40" r:id="rId57"/>
+    <hyperlink ref="H40" r:id="rId58"/>
+    <hyperlink ref="A41" r:id="rId59"/>
+    <hyperlink ref="A42" r:id="rId60"/>
+    <hyperlink ref="A43" r:id="rId61"/>
+    <hyperlink ref="A44" r:id="rId62"/>
+    <hyperlink ref="A45" r:id="rId63"/>
     <hyperlink ref="A46" r:id="rId64"/>
     <hyperlink ref="A47" r:id="rId65"/>
     <hyperlink ref="A48" r:id="rId66"/>
     <hyperlink ref="H48" r:id="rId67"/>
     <hyperlink ref="A49" r:id="rId68"/>
     <hyperlink ref="A50" r:id="rId69"/>
-    <hyperlink ref="H50" r:id="rId70"/>
-    <hyperlink ref="A51" r:id="rId71"/>
-    <hyperlink ref="A52" r:id="rId72"/>
-    <hyperlink ref="H52" r:id="rId73"/>
-    <hyperlink ref="A53" r:id="rId74"/>
-    <hyperlink ref="A54" r:id="rId75"/>
-    <hyperlink ref="A55" r:id="rId76"/>
-    <hyperlink ref="A56" r:id="rId77"/>
+    <hyperlink ref="A51" r:id="rId70"/>
+    <hyperlink ref="A52" r:id="rId71"/>
+    <hyperlink ref="A53" r:id="rId72"/>
+    <hyperlink ref="A54" r:id="rId73"/>
+    <hyperlink ref="H54" r:id="rId74"/>
+    <hyperlink ref="A55" r:id="rId75"/>
+    <hyperlink ref="A56" r:id="rId76"/>
+    <hyperlink ref="H56" r:id="rId77"/>
     <hyperlink ref="A57" r:id="rId78"/>
     <hyperlink ref="A58" r:id="rId79"/>
     <hyperlink ref="A59" r:id="rId80"/>
@@ -4026,60 +7657,197 @@
     <hyperlink ref="A61" r:id="rId82"/>
     <hyperlink ref="H61" r:id="rId83"/>
     <hyperlink ref="A62" r:id="rId84"/>
-    <hyperlink ref="A63" r:id="rId85"/>
-    <hyperlink ref="H63" r:id="rId86"/>
+    <hyperlink ref="H62" r:id="rId85"/>
+    <hyperlink ref="A63" r:id="rId86"/>
     <hyperlink ref="A64" r:id="rId87"/>
     <hyperlink ref="A65" r:id="rId88"/>
-    <hyperlink ref="H65" r:id="rId89"/>
-    <hyperlink ref="A66" r:id="rId90"/>
-    <hyperlink ref="H66" r:id="rId91"/>
-    <hyperlink ref="A67" r:id="rId92"/>
-    <hyperlink ref="A68" r:id="rId93"/>
-    <hyperlink ref="A69" r:id="rId94"/>
-    <hyperlink ref="A70" r:id="rId95"/>
+    <hyperlink ref="A66" r:id="rId89"/>
+    <hyperlink ref="A67" r:id="rId90"/>
+    <hyperlink ref="A68" r:id="rId91"/>
+    <hyperlink ref="H68" r:id="rId92"/>
+    <hyperlink ref="A69" r:id="rId93"/>
+    <hyperlink ref="A70" r:id="rId94"/>
+    <hyperlink ref="H70" r:id="rId95"/>
     <hyperlink ref="A71" r:id="rId96"/>
     <hyperlink ref="A72" r:id="rId97"/>
     <hyperlink ref="A73" r:id="rId98"/>
     <hyperlink ref="A74" r:id="rId99"/>
-    <hyperlink ref="H74" r:id="rId100"/>
-    <hyperlink ref="A75" r:id="rId101"/>
-    <hyperlink ref="H75" r:id="rId102"/>
-    <hyperlink ref="A76" r:id="rId103"/>
-    <hyperlink ref="H76" r:id="rId104"/>
-    <hyperlink ref="A77" r:id="rId105"/>
-    <hyperlink ref="A78" r:id="rId106"/>
-    <hyperlink ref="A79" r:id="rId107"/>
-    <hyperlink ref="A80" r:id="rId108"/>
-    <hyperlink ref="H80" r:id="rId109"/>
-    <hyperlink ref="A81" r:id="rId110"/>
-    <hyperlink ref="H81" r:id="rId111"/>
-    <hyperlink ref="A82" r:id="rId112"/>
-    <hyperlink ref="H82" r:id="rId113"/>
-    <hyperlink ref="A83" r:id="rId114"/>
-    <hyperlink ref="H83" r:id="rId115"/>
-    <hyperlink ref="A84" r:id="rId116"/>
-    <hyperlink ref="A85" r:id="rId117"/>
-    <hyperlink ref="A86" r:id="rId118"/>
-    <hyperlink ref="A87" r:id="rId119"/>
-    <hyperlink ref="H87" r:id="rId120"/>
-    <hyperlink ref="A88" r:id="rId121"/>
-    <hyperlink ref="H88" r:id="rId122"/>
-    <hyperlink ref="A89" r:id="rId123"/>
-    <hyperlink ref="A90" r:id="rId124"/>
-    <hyperlink ref="H90" r:id="rId125"/>
-    <hyperlink ref="A91" r:id="rId126"/>
-    <hyperlink ref="A92" r:id="rId127"/>
-    <hyperlink ref="A93" r:id="rId128"/>
-    <hyperlink ref="A94" r:id="rId129"/>
-    <hyperlink ref="A95" r:id="rId130"/>
-    <hyperlink ref="H95" r:id="rId131"/>
-    <hyperlink ref="A96" r:id="rId132"/>
-    <hyperlink ref="A97" r:id="rId133"/>
-    <hyperlink ref="A98" r:id="rId134"/>
-    <hyperlink ref="H98" r:id="rId135"/>
-    <hyperlink ref="A99" r:id="rId136"/>
-    <hyperlink ref="A100" r:id="rId137"/>
-    <hyperlink ref="A101" r:id="rId138"/>
+    <hyperlink ref="A75" r:id="rId100"/>
+    <hyperlink ref="H75" r:id="rId101"/>
+    <hyperlink ref="A76" r:id="rId102"/>
+    <hyperlink ref="A77" r:id="rId103"/>
+    <hyperlink ref="A78" r:id="rId104"/>
+    <hyperlink ref="A79" r:id="rId105"/>
+    <hyperlink ref="A80" r:id="rId106"/>
+    <hyperlink ref="A81" r:id="rId107"/>
+    <hyperlink ref="H81" r:id="rId108"/>
+    <hyperlink ref="A82" r:id="rId109"/>
+    <hyperlink ref="A83" r:id="rId110"/>
+    <hyperlink ref="A84" r:id="rId111"/>
+    <hyperlink ref="A85" r:id="rId112"/>
+    <hyperlink ref="A86" r:id="rId113"/>
+    <hyperlink ref="H86" r:id="rId114"/>
+    <hyperlink ref="A87" r:id="rId115"/>
+    <hyperlink ref="A88" r:id="rId116"/>
+    <hyperlink ref="H88" r:id="rId117"/>
+    <hyperlink ref="A89" r:id="rId118"/>
+    <hyperlink ref="H89" r:id="rId119"/>
+    <hyperlink ref="A90" r:id="rId120"/>
+    <hyperlink ref="A91" r:id="rId121"/>
+    <hyperlink ref="H91" r:id="rId122"/>
+    <hyperlink ref="A92" r:id="rId123"/>
+    <hyperlink ref="A93" r:id="rId124"/>
+    <hyperlink ref="A94" r:id="rId125"/>
+    <hyperlink ref="A95" r:id="rId126"/>
+    <hyperlink ref="A96" r:id="rId127"/>
+    <hyperlink ref="A97" r:id="rId128"/>
+    <hyperlink ref="A98" r:id="rId129"/>
+    <hyperlink ref="A99" r:id="rId130"/>
+    <hyperlink ref="A100" r:id="rId131"/>
+    <hyperlink ref="H100" r:id="rId132"/>
+    <hyperlink ref="A101" r:id="rId133"/>
+    <hyperlink ref="H101" r:id="rId134"/>
+    <hyperlink ref="A102" r:id="rId135"/>
+    <hyperlink ref="H102" r:id="rId136"/>
+    <hyperlink ref="A103" r:id="rId137"/>
+    <hyperlink ref="A104" r:id="rId138"/>
+    <hyperlink ref="A105" r:id="rId139"/>
+    <hyperlink ref="A106" r:id="rId140"/>
+    <hyperlink ref="A107" r:id="rId141"/>
+    <hyperlink ref="A108" r:id="rId142"/>
+    <hyperlink ref="A109" r:id="rId143"/>
+    <hyperlink ref="A110" r:id="rId144"/>
+    <hyperlink ref="H110" r:id="rId145"/>
+    <hyperlink ref="A111" r:id="rId146"/>
+    <hyperlink ref="A112" r:id="rId147"/>
+    <hyperlink ref="A113" r:id="rId148"/>
+    <hyperlink ref="A114" r:id="rId149"/>
+    <hyperlink ref="A115" r:id="rId150"/>
+    <hyperlink ref="A116" r:id="rId151"/>
+    <hyperlink ref="H116" r:id="rId152"/>
+    <hyperlink ref="A117" r:id="rId153"/>
+    <hyperlink ref="A118" r:id="rId154"/>
+    <hyperlink ref="A119" r:id="rId155"/>
+    <hyperlink ref="A120" r:id="rId156"/>
+    <hyperlink ref="H120" r:id="rId157"/>
+    <hyperlink ref="A121" r:id="rId158"/>
+    <hyperlink ref="A122" r:id="rId159"/>
+    <hyperlink ref="A123" r:id="rId160"/>
+    <hyperlink ref="A124" r:id="rId161"/>
+    <hyperlink ref="A125" r:id="rId162"/>
+    <hyperlink ref="A126" r:id="rId163"/>
+    <hyperlink ref="H126" r:id="rId164"/>
+    <hyperlink ref="A127" r:id="rId165"/>
+    <hyperlink ref="H127" r:id="rId166"/>
+    <hyperlink ref="A128" r:id="rId167"/>
+    <hyperlink ref="H128" r:id="rId168"/>
+    <hyperlink ref="A129" r:id="rId169"/>
+    <hyperlink ref="A130" r:id="rId170"/>
+    <hyperlink ref="A131" r:id="rId171"/>
+    <hyperlink ref="A132" r:id="rId172"/>
+    <hyperlink ref="A133" r:id="rId173"/>
+    <hyperlink ref="H133" r:id="rId174"/>
+    <hyperlink ref="A134" r:id="rId175"/>
+    <hyperlink ref="A135" r:id="rId176"/>
+    <hyperlink ref="A136" r:id="rId177"/>
+    <hyperlink ref="H136" r:id="rId178"/>
+    <hyperlink ref="A137" r:id="rId179"/>
+    <hyperlink ref="A138" r:id="rId180"/>
+    <hyperlink ref="H138" r:id="rId181"/>
+    <hyperlink ref="A139" r:id="rId182"/>
+    <hyperlink ref="H139" r:id="rId183"/>
+    <hyperlink ref="A140" r:id="rId184"/>
+    <hyperlink ref="H140" r:id="rId185"/>
+    <hyperlink ref="A141" r:id="rId186"/>
+    <hyperlink ref="H141" r:id="rId187"/>
+    <hyperlink ref="A142" r:id="rId188"/>
+    <hyperlink ref="H142" r:id="rId189"/>
+    <hyperlink ref="A143" r:id="rId190"/>
+    <hyperlink ref="H143" r:id="rId191"/>
+    <hyperlink ref="A144" r:id="rId192"/>
+    <hyperlink ref="H144" r:id="rId193"/>
+    <hyperlink ref="A145" r:id="rId194"/>
+    <hyperlink ref="H145" r:id="rId195"/>
+    <hyperlink ref="A146" r:id="rId196"/>
+    <hyperlink ref="H146" r:id="rId197"/>
+    <hyperlink ref="A147" r:id="rId198"/>
+    <hyperlink ref="A148" r:id="rId199"/>
+    <hyperlink ref="A149" r:id="rId200"/>
+    <hyperlink ref="A150" r:id="rId201"/>
+    <hyperlink ref="A151" r:id="rId202"/>
+    <hyperlink ref="H151" r:id="rId203"/>
+    <hyperlink ref="A152" r:id="rId204"/>
+    <hyperlink ref="A153" r:id="rId205"/>
+    <hyperlink ref="A154" r:id="rId206"/>
+    <hyperlink ref="A155" r:id="rId207"/>
+    <hyperlink ref="H155" r:id="rId208"/>
+    <hyperlink ref="A156" r:id="rId209"/>
+    <hyperlink ref="H156" r:id="rId210"/>
+    <hyperlink ref="A157" r:id="rId211"/>
+    <hyperlink ref="H157" r:id="rId212"/>
+    <hyperlink ref="A158" r:id="rId213"/>
+    <hyperlink ref="A159" r:id="rId214"/>
+    <hyperlink ref="A160" r:id="rId215"/>
+    <hyperlink ref="H160" r:id="rId216"/>
+    <hyperlink ref="A161" r:id="rId217"/>
+    <hyperlink ref="H161" r:id="rId218"/>
+    <hyperlink ref="A162" r:id="rId219"/>
+    <hyperlink ref="A163" r:id="rId220"/>
+    <hyperlink ref="A164" r:id="rId221"/>
+    <hyperlink ref="A165" r:id="rId222"/>
+    <hyperlink ref="H165" r:id="rId223"/>
+    <hyperlink ref="A166" r:id="rId224"/>
+    <hyperlink ref="A167" r:id="rId225"/>
+    <hyperlink ref="H167" r:id="rId226"/>
+    <hyperlink ref="A168" r:id="rId227"/>
+    <hyperlink ref="A169" r:id="rId228"/>
+    <hyperlink ref="A170" r:id="rId229"/>
+    <hyperlink ref="A171" r:id="rId230"/>
+    <hyperlink ref="A172" r:id="rId231"/>
+    <hyperlink ref="A173" r:id="rId232"/>
+    <hyperlink ref="H173" r:id="rId233"/>
+    <hyperlink ref="A174" r:id="rId234"/>
+    <hyperlink ref="H174" r:id="rId235"/>
+    <hyperlink ref="A175" r:id="rId236"/>
+    <hyperlink ref="H175" r:id="rId237"/>
+    <hyperlink ref="A176" r:id="rId238"/>
+    <hyperlink ref="H176" r:id="rId239"/>
+    <hyperlink ref="A177" r:id="rId240"/>
+    <hyperlink ref="H177" r:id="rId241"/>
+    <hyperlink ref="A178" r:id="rId242"/>
+    <hyperlink ref="A179" r:id="rId243"/>
+    <hyperlink ref="A180" r:id="rId244"/>
+    <hyperlink ref="A181" r:id="rId245"/>
+    <hyperlink ref="A182" r:id="rId246"/>
+    <hyperlink ref="A183" r:id="rId247"/>
+    <hyperlink ref="H183" r:id="rId248"/>
+    <hyperlink ref="A184" r:id="rId249"/>
+    <hyperlink ref="H184" r:id="rId250"/>
+    <hyperlink ref="A185" r:id="rId251"/>
+    <hyperlink ref="H185" r:id="rId252"/>
+    <hyperlink ref="A186" r:id="rId253"/>
+    <hyperlink ref="H186" r:id="rId254"/>
+    <hyperlink ref="A187" r:id="rId255"/>
+    <hyperlink ref="A188" r:id="rId256"/>
+    <hyperlink ref="H188" r:id="rId257"/>
+    <hyperlink ref="A189" r:id="rId258"/>
+    <hyperlink ref="A190" r:id="rId259"/>
+    <hyperlink ref="A191" r:id="rId260"/>
+    <hyperlink ref="A192" r:id="rId261"/>
+    <hyperlink ref="A193" r:id="rId262"/>
+    <hyperlink ref="A194" r:id="rId263"/>
+    <hyperlink ref="H194" r:id="rId264"/>
+    <hyperlink ref="A195" r:id="rId265"/>
+    <hyperlink ref="H195" r:id="rId266"/>
+    <hyperlink ref="A196" r:id="rId267"/>
+    <hyperlink ref="H196" r:id="rId268"/>
+    <hyperlink ref="A197" r:id="rId269"/>
+    <hyperlink ref="H197" r:id="rId270"/>
+    <hyperlink ref="A198" r:id="rId271"/>
+    <hyperlink ref="F198" r:id="rId272"/>
+    <hyperlink ref="H198" r:id="rId273"/>
+    <hyperlink ref="A199" r:id="rId274"/>
+    <hyperlink ref="H199" r:id="rId275"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
